--- a/data/measures.xlsx
+++ b/data/measures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte - laufende\Startjahr 2022\M20_042I SuzAnNa\Projektbearbeitung\AP3\Streamlit_Suzanna\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF10D53F-DEEB-4EA8-8168-FAC10CE7E05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F2FB9B-3875-4E09-BD0E-58AE050EE367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="-16380" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="273">
   <si>
     <t>Nr</t>
   </si>
@@ -82,22 +82,22 @@
     <t>Verbesserung der ÖPNV-Angebote</t>
   </si>
   <si>
-    <t>&lt;p&gt;In Regionen, in denen der Schienenverkehr nicht ausreicht, werden überregionale Busverkehre als räumliche und qualitative Ergänzung des Schienenpersonennahverkehrs eingesetzt. Diese Busangebote zeichnen sich durch hohe Bedien- und Qualitätsstandards aus, mit regelmäßigen Verbindungen und kurzen, festen Taktzeiten, auch an Wochenenden. Die Anschlüsse an andere Bus- oder Bahnlinien sind optimal abgestimmt. Zusätzlich sind manche Fahrzeuge mit besonderen Ausstattungsmerkmalen wie Steckdosen und WLAN versehen.&lt;/p&gt; &lt;p&gt;Abhängig vom jeweiligen Gebiet und den Qualitätskriterien tragen diese Buslinien in verschiedenen Bundesländern unterschiedliche Namen, wie z. B. "landesbedeutsame Buslinien", " Regiobus ", " PlusBus ", " Taktbus " oder " ExpressBus " (Regling et al. 2020, s.94) .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;PlusBus&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; PlusBus -Linien bieten einen stündlichen Taktfahrplan, auch an Wochenenden. Sie sind so konzipiert, dass sie an wichtigen Verkehrsknotenpunkten halten und dort Anschlüsse an andere Buslinien, Bahnhöfe oder Verkehrsmittel mit maximal 15 Minuten Umsteigezeit bieten. Die Marken PlusBus wurden vom Mitteldeutschen Verkehrsverbund (MDV) entwickelt und markenrechtlich geschützt.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;TaktBus&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; Der TaktBus ist eine kleinere Variante des PlusBus , verkehrt alle zwei Stunden und verbindet auch kleinere Orte mit dem nächsten Zentrum, inklusive guter Anschlussmöglichkeiten an weiterführende Linien.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Express- oder Schnellbus:&lt;/b&gt; Schnell- oder Expressbusse bieten im Vergleich zu regulären Stadt- und Regionalbussen eine höhere Reisegeschwindigkeit, da sie auf direktem Linienweg ohne Umwege verkehren. Sie bedienen wichtige Verknüpfungspunkte sowie eine ausgewählte Anzahl von Haltestellen entlang der Strecke mit hoher Fahrgastnachfrage.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;In Regionen, in denen der Schienenverkehr nicht ausreicht, werden überregionale Busverkehre als räumliche und qualitative Ergänzung des Schienenpersonennahverkehrs eingesetzt. Diese Busangebote zeichnen sich durch hohe Bedien- und Qualitätsstandards aus, mit regelmäßigen Verbindungen und kurzen, festen Taktzeiten, auch an Wochenenden. Die Anschlüsse an andere Bus- oder Bahnlinien sind optimal abgestimmt. Zusätzlich sind manche Fahrzeuge mit besonderen Ausstattungsmerkmalen wie Steckdosen und WLAN versehen.&lt;/p&gt; &lt;p&gt;Abhängig vom jeweiligen Gebiet und den Qualitätskriterien tragen diese Buslinien in verschiedenen Bundesländern unterschiedliche Namen, wie z. B. "landesbedeutsame Buslinien", "Regiobus", "PlusBus", "Taktbus" oder "ExpressBus" (Regling et al. 2020, s.94) .&lt;/p&gt; &lt;p&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;PlusBus:&lt;/b&gt; PlusBus-Linien bieten einen stündlichen Taktfahrplan, auch an Wochenenden. Sie sind so konzipiert, dass sie an wichtigen Verkehrsknotenpunkten halten und dort Anschlüsse an andere Buslinien, Bahnhöfe oder Verkehrsmittel mit maximal 15 Minuten Umsteigezeit bieten. Die Marken PlusBus wurden vom Mitteldeutschen Verkehrsverbund (MDV) entwickelt und markenrechtlich geschützt.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;TaktBus:&lt;/b&gt; Der TaktBus ist eine kleinere Variante des PlusBus, verkehrt alle zwei Stunden und verbindet auch kleinere Orte mit dem nächsten Zentrum, inklusive guter Anschlussmöglichkeiten an weiterführende Linien.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Express- oder Schnellbus:&lt;/b&gt; Schnell- oder Expressbusse bieten im Vergleich zu regulären Stadt- und Regionalbussen eine höhere Reisegeschwindigkeit, da sie auf direktem Linienweg ohne Umwege verkehren. Sie bedienen wichtige Verknüpfungspunkte sowie eine ausgewählte Anzahl von Haltestellen entlang der Strecke mit hoher Fahrgastnachfrage.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Plusbus und TaktBus in MDV und anderen Bundesländern&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Expressbus im Saarland&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;RegioBus in Baden-Württemberg&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Verkehrsunternehmen als Anbieter&lt;/p&gt;</t>
+    <t>&lt;p&gt;Verkehrsunternehmen sind Anbietende des ÖPNV&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen (Landkreis oder Städte) bzw. Verkehrsverbünde:&lt;/b&gt; sind Aufgabentragende des Nahverkehrs und übernehmen die Planungsaufgaben. Für das Konzept ist überregionale Kooperation notwendig.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Länder:&lt;/b&gt; bieten Finanzierung oder Teilfinanzierung der Angebote und können die Qualitätskriterien beispielweise durch Förderrichtlinien formulieren.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Personenbeförderungsgesetz (PBefG),&lt;/p&gt;</t>
+    <t>&lt;p&gt;Personenbeförderungsgesetz (PBefG), Regionalisierungsgesetz (RegG)&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Beispiele für Förderungen auf Landesebene:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Förderrichtlinie für landesbedeutsame Buslinien in Niedersachsen&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Förderprogramm Regiobuslinien in Baden-Württemberg&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Richtlinie zum Förderprogramm Ergänzender Nahverkehrsangebote zur Verbesserung der Mobilität im ländlichen Raum mit bedarfsorientierten Bedienformen des allgemeinen ÖPNV und Pilotprojekten landkreisübergreifender Expressbusverbindungen im Omnibusverkehr in Bayern&lt;/li&gt;&lt;/ul&gt;</t>
@@ -115,10 +115,10 @@
     <t>&lt;p&gt;M1 , M5&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Das Konzept des Mitteldeutschen Verkehrsverbundes (MDV) wurde im Jahr 2010 in enger Zusammenarbeit mit Verkehrsunternehmen und Aufgabenträgern entwickelt. Seitdem hat es sich in sechs Bundesländern etabliert und dient als Vorbild für ähnliche Angebote, die mittlerweile in fast allen Bundesländern, zumindest in Teilgebieten, verfügbar sind.&lt;/p&gt; &lt;p&gt;Eine detaillierte Analyse der genauen Nachfrageeffekte liegt bisher nicht vor, da viele der Angebotsänderungen erst vor wenigen Jahren eingeführt wurden. Dennoch sind das hohe Potenzial und die Akzeptanz der Kunden klar erkennbar: Laut MDV sind die Fahrgastzahlen seit 2013 um 86 Prozent gestiegen, was das starke Interesse der Nutzer unterstreicht (MDV 2024) .&lt;/p&gt; &lt;p&gt;Für die zukünftige Verbreitung und Weiterentwicklung des Konzepts sind folgende Faktoren von zentraler:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Ein nahtlos integriertes Bus-Bahn-Angebot mit garantierten Anschlussmöglichkeiten erfordert einen höheren technischen Aufwand. Insbesondere die Weiterentwicklung digitaler Systeme, die Echtzeitinformationen liefern und Verbindungen optimieren, spielt dabei eine Schlüsselrolle.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Der Ausbau und die Modernisierung der Infrastruktur sind entscheidend. Dazu gehört sowohl die Verbesserung von Straßen- und Schienennetzen als auch die bessere Koordination verschiedener Mobilitätsangebote, um den Zugang und die Vernetzung effizienter zu gestalten.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Der politische Wille, solche Angebote umzusetzen, ist dabei entscheidend. Eine enge Zusammenarbeit zwischen Landes- und Kommunalebene spielt eine wichtige Rolle, um eine nachhaltige und erfolgreiche Umsetzung zu gewährleisten. Des Weiteren stellt die Finanzierung der Angebote weiterhin eine wesentliche Herausforderung dar. Um die langfristige wirtschaftliche Stabilität zu sichern, sind Fördermaßnahmen auf regionaler und nationaler Ebene notwendig.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; Eine starke Markenpräsenz, wie durch die Bezeichnungen " PlusBus " und " TaktBus ", unterstützt die Bekanntmachung und den Wiedererkennungswert des Angebots (Agora Verkehrswende 2023, s.26) .&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Agora Verkehrswende (2023): Mobilitätsgarantie für Deutschland – Teil I. Ausgangslage und Praxisbeispiele für eine bundesweit garantierte Grundversorgung mit Bus und Bahn. Analyse.&lt;/p&gt; &lt;p&gt;VDV (2023): Linienbedarfsverkehr: zukunftsgerecht, integriert und nachfragegesteuert. Warum eine ÖPNV-Angebotsoffensive im Linien- und Linienbedarfsverkehr notwendig ist (Positionspapier, März 2023).&lt;/p&gt; &lt;p&gt;Mitteldeutscher Verkehrsverbund GmbH (MDV) (2024): &lt;a href="https://www.plusbus-deutschland.de/wp-content/uploads/2024/04/Broschuere-PlusBus_min.pdf"&gt;https://www.plusbus-deutschland.de/wp-content/uploads/2024/04/Broschuere-PlusBus_min.pdf&lt;/a&gt; . TaktBus . Mein Bus. Die Erfolgsmodelle aus Mitteldeutschland. Online verfügbar unter , zuletzt geprüft am 04.10.2024.&lt;/p&gt; &lt;p&gt;Regling, Lea; Stein, Axel; Werner, Jan; Karl, Astrid; Bauermeister, Marcel; Frölicher , Jonas et al. (2020): Grundlagen für ein umweltorientiertes Recht der Personenbeförderung. Teilbericht 2. Hg . v. Umweltbundesamt. Dessau-Roßlau (Texte, 213/2020).&lt;/p&gt;</t>
+    <t>&lt;p&gt;Das Konzept des Mitteldeutschen Verkehrsverbundes (MDV) wurde im Jahr 2010 in enger Zusammenarbeit mit Verkehrsunternehmen und Aufgabenträgern entwickelt. Seitdem hat es sich in sechs Bundesländern etabliert und dient als Vorbild für ähnliche Angebote, die mittlerweile in fast allen Bundesländern, zumindest in Teilgebieten, verfügbar sind.&lt;/p&gt; &lt;p&gt;Eine detaillierte Analyse der genauen Nachfrageeffekte liegt bisher nicht vor, da viele der Angebotsänderungen erst vor wenigen Jahren eingeführt wurden. Dennoch sind das hohe Potenzial und die Akzeptanz der Kunden klar erkennbar: Laut MDV sind die Fahrgastzahlen seit 2013 um 86 Prozent gestiegen, was das starke Interesse der Nutzer unterstreicht (MDV 2024) .&lt;/p&gt; &lt;p&gt;Für die zukünftige Verbreitung und Weiterentwicklung des Konzepts sind folgende Faktoren von zentraler:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Ein nahtlos integriertes Bus-Bahn-Angebot mit garantierten Anschlussmöglichkeiten erfordert einen höheren technischen Aufwand.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Der Ausbau und die Modernisierung der Infrastruktur sind entscheidend. Dazu gehört sowohl die Verbesserung von Straßen- und Schienennetzen als auch die bessere Koordination verschiedener Mobilitätsangebote, um den Zugang und die Vernetzung effizienter zu gestalten. Insbesondere die Weiterentwicklung digitaler Systeme, die Echtzeitinformationen liefern und Verbindungen optimieren, spielt dabei eine Schlüsselrolle.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Der politische Wille, solche Angebote umzusetzen, ist dabei entscheidend. Eine enge Zusammenarbeit zwischen Landes- und Kommunalebene spielt eine wichtige Rolle, um eine nachhaltige und erfolgreiche Umsetzung zu gewährleisten. Des Weiteren stellt die Finanzierung der Angebote weiterhin eine wesentliche Herausforderung dar. Um die langfristige wirtschaftliche Stabilität zu sichern, sind Fördermaßnahmen auf regionaler und nationaler Ebene notwendig.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; Eine starke Markenpräsenz, wie durch die Bezeichnungen "PlusBus" und "TaktBus", unterstützt die Bekanntmachung und den Wiedererkennungswert des Angebots (Agora Verkehrswende 2023, s.26) .&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Agora Verkehrswende (2023): Mobilitätsgarantie für Deutschland – Teil I. Ausgangslage und Praxisbeispiele für eine bundesweit garantierte Grundversorgung mit Bus und Bahn. Analyse.&lt;/p&gt; &lt;p&gt;VDV (2023): Linienbedarfsverkehr: zukunftsgerecht, integriert und nachfragegesteuert. Warum eine ÖPNV-Angebotsoffensive im Linien- und Linienbedarfsverkehr notwendig ist (Positionspapier, März 2023).&lt;/p&gt; &lt;p&gt;Mitteldeutscher Verkehrsverbund GmbH (MDV) (2024): PlusBus. TaktBus. Mein Bus. Die Erfolgsmodelle aus Mitteldeutschland. Online verfügbar unter &lt;a href="https://www.plusbus-deutschland.de/wp-content/uploads/2024/04/Broschuere-PlusBus_min.pdf"&gt;https://www.plusbus-deutschland.de/wp-content/uploads/2024/04/Broschuere-PlusBus_min.pdf&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Regling, Lea; Stein, Axel; Werner, Jan; Karl, Astrid; Bauermeister, Marcel; Frölicher, Jonas et al. (2020): Grundlagen für ein umweltorientiertes Recht der Personenbeförderung. Teilbericht 2. Hg. v. Umweltbundesamt. Dessau-Roßlau (Texte, 213/2020).&lt;/p&gt;</t>
   </si>
   <si>
     <t>Flexible Bedienungsformen (On-Demand) im ÖPNV</t>
@@ -130,13 +130,13 @@
     <t>&lt;p&gt;Diese Flexibilität von ÖPNV kann räumlich oder zeitlich sein. Die räumliche Flexibilisierung umfasst die flexible Gestaltung der Verbindung zwischen Quell- und Zielort (Bedarfslinienbetrieb, Richtungsbandbetrieb, Flächenbetrieb) sowie den Zu- und Ausstieg für den Fahrgast (Haustür- oder Haltestellenbedienung). Die zeitliche Flexibilisierung umfasst einen Betrieb mit und ohne Bindung an einen Fahrplan. Aus der Kombination von Elementen der räumlichen und zeitlichen Flexibilisierung ergeben sich die verschiedenen Angebotsformen (Siefer et al. 2023):&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Der &lt;b&gt;Anruflinienbus und das Anruflinientaxi&lt;/b&gt; verkehren fahrplangebunden auf einem festen Streckennetz von Haltestelle zu Haltestelle.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Ein &lt;b&gt;Anrufbus&lt;/b&gt; im Richtungsbandbetrieb verkehrt ebenfalls fahrplangebunden von Haltestelle zu Haltestelle auf einer festen Grundroute. Er bedient jedoch zusätzliche Bedarfshaltestellen innerhalb eines definierten Richtungsbandes, wenn ein Fahrtwunsch angemeldet wurde.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Anrufbus im Flächenbetrieb&lt;/b&gt; besitzen keine Fahrplan- oder Linienbindung und bieten dabei eine Haustür-zu-Haustür- oder Haltestelle-zu-Haltestelle- Bedienung.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Anrufsammeltaxis und Anrufsammelbusse&lt;/b&gt; verkehren fahrplangebunden, wobei die Abfahrtszeit an der Starthaltestelle festgelegt ist. Sie bedienen bedarfsabhängig von einer (Bedarfs-)Haltestelle zur Haustür der Kundin oder des Kunden.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;On-​Demand-Shuttle in der Region Frankfurt/RheinMain&lt;/p&gt; &lt;p&gt;BVG Muva , Berlin&lt;/p&gt; &lt;ul&gt;&lt;li&gt;MultiBus im Kreis Heinsberg&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;On-​Demand-Shuttle in der Region Frankfurt/RheinMain&lt;/p&gt; &lt;p&gt;BVG Muva, Berlin&lt;/p&gt; &lt;ul&gt;&lt;li&gt;MultiBus im Kreis Heinsberg&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Die flexiblen Bedienungsformen im ÖPNV werden hauptsächlich durch die öffentlichen Verkehrsunternehmen selbst angeboten, um dieses neue Mobilitätsangebot tatsächlich als eine Erweiterung des Umweltverbundes zu planen. Die Angebote können auch von privaten Busunternehmen oder Taxiunternehmen übernommen werden.&lt;/p&gt; &lt;p&gt;Zusätzlich zu den ÖPNV-Anbietern existieren rein kommerzielle Ride-Pooling-Angebote, wie beispielsweise MOIA in Hamburg, die inhaltlich dem Konzept des "Anrufbus im Flächenbetrieb" ähneln. Diese kommerziellen Dienste werden derzeit vor allem in Großstädten eingesetzt und werden in diesem Steckbrief nicht weiter betrachtet.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Die Landkreise, kreisfreien Städte (ggf. auch die Stadt und Gemeinde):&lt;/b&gt; sind Aufgabenträger des ÖPNVs. Sie sind politische und planerische Entscheidungsträger.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Plattformanbieter:&lt;/b&gt; unterstützen die digitalen Angebote bei der Bereitstellung der IT-Dienstleistung. Die Größte Anbieter in Deutschland sind Door2Door und ioki (ein Tochterunternehmen der Deutschen Bahn).&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Stadt- und Kreisverwaltungen&lt;/b&gt; &lt;b&gt;(ggf. auch die&lt;/b&gt; &lt;b&gt;Verkehrsverbünde&lt;/b&gt; &lt;b&gt;):&lt;/b&gt; sind Aufgabenträger des ÖPNVs. Sie sind politische und planerische Entscheidungsträger.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Plattformanbieter:&lt;/b&gt; unterstützen die digitalen Angebote bei der Bereitstellung der IT-Dienstleistung. Die Größte Anbieter in Deutschland sind Door2Door und ioki (ein Tochterunternehmen der Deutschen Bahn).&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;In der bisherigen Rechtslage musste bei der Genehmigung der On-Demand-Verkehre überwiegend auf die Auffang- und Experimentierklausel gem. § 2 Abs. 6 und 7 PBefG zurückgegriffen werden. Mit der Novelle des Personenbeförderungsgesetzes (PBefG) 2021 wurden die § 44 „Linienbedarfsverkehr“ und § 50 „Gebündelter Bedarfsverkehr“ eingeführt.  Somit wurde die dauerhafte Genehmigungsmöglichkeit eines neuen, ÖPNV integrierten On-Demand-Angebots geschaffen.&lt;/p&gt;</t>
@@ -151,16 +151,16 @@
     <t>&lt;p&gt;Flexible Bedienungsformen eignen sich besonders zur Befriedigung von Mobilitätsbedürfnissen in dünn besiedelten oder suburbanen Räumen. Sie können entweder das bestehende ÖPNV-Angebot ergänzen oder als Zubringer für den herkömmlichen ÖPNV dienen. Auch in urbanen Gebieten können sie als Ergänzung zum konventionellen ÖPNV eingesetzt werden, wobei der konkrete Beitrag zur Reduzierung des Verkehrsaufkommens hier noch umstritten ist.&lt;/p&gt; &lt;p&gt;Nach VDV (2024) werden 47 % der On-Demand-Projekte im ländlichen Raum umgesetzt, ein Drittel entfällt auf Mittelzentren, und ein Viertel kommt in urbanen Gebieten zum Einsatz.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Bisherige Untersuchungen zu den Nutzenden des Flexiblen ÖPNV, von On-Demand-Verkehr bzw. Ridepoolingverkehr beschränken sich auf einen großstädtischen Kontext. Die Auswertungen der Nutzungsdaten von MOIA in Hamburg (vgl. Kostorz et al., 2021) und Clevershuttle in vier deutschen Städten (Knie et al., 2020) zeigen, dass die jüngeren Generation und die technologieaffine Gruppe dort die wichtigste Nutzungsgruppen darstellen.&lt;/p&gt; &lt;p&gt;Es besteht jedoch das Potenzial, weitere soziale Gruppen für den On-Demand-Verkehr zu gewinnen. Berufspendler*innen, ältere Menschen, Menschen mit eingeschränkter Mobilität, Schüler*innen und Personen ohne Zugang zu einem Pkw können vom On-Demand-Verkehr profitieren. Auch für grundsätzlich autoaffine Nutzer*innen ist es eine attraktive Alternative zum privaten Auto, da eine hohe Servicequalität geboten wird.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;M1, M4, M5&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Anzahl der On-Demand-Verkehre in Deutschland steigt kontinuierlich. Insbesondere seit der im April 2021 beschlossenen Gesetzesnovelle ist die Zahl der On-Demand-Projekte, die in den öffentlichen Verkehr integriert sind, sprunghaft angestiegen. Laut einer Branchenumfrage des Verbands Deutscher Verkehrsunternehmen (VDV) im Jahr 2022 gab es Ende 2022 über 80 ÖV-integrierte digitale On-Demand-Verkehrsprojekte (VDV 2024).&lt;/p&gt; &lt;p&gt;Für die weitere Verbreitung und Entwicklung von On-Demand-Verkehren spielen mehrere Faktoren eine zentrale Rolle.&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Technisch befinden sich diese Mobilitätsangebote noch in einer frühen Entwicklungsphase, und es existieren bislang keine etablierten Geschäftsmodelle, was einen weiteren Forschungsbedarf aufzeigt. Es gibt noch verschiedene Verbesserungsmöglichkeiten, z.B. Anschlussgewährleistungen, Barrierefreiheit, geeignete Fahrzeuge, einheitliche Hintergrundsysteme, Datenschutz usw. Darüber hinaus werden autonome On-Demand-Services erprobt.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Laut der Branchenumfrage des VDV aus dem Jahr 2022 sind fast alle On-Demand-Projekte nicht eigenwirtschaftlich und werden durch kommunale Verkehrsunternehmen oder staatliche Förderprogramme wie die DKV-Förderrichtlinie finanziert. Für die langfristige Sicherstellung der Angebote muss eine nachhaltige Finanzierungslösung gefunden werden. Dabei spielt politische Unterstützung eine entscheidende Rolle.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Agora Verkehrswende (2023): Mobilitätsoffensive für das Land. Wie Kommunen mit flexiblen Kleinbussen den ÖPNV von morgen gestalten können.&lt;/p&gt; &lt;p&gt;Gies, Jürgen; Langer, Victoria (2021): Mit On-Demand-Angeboten ÖPNV Bedarfsverkehre modernisieren. Werkstattbericht zu Chancen und Herausforderungen. Hg . v. Difu , Berlin.&lt;/p&gt; &lt;p&gt;Siefer, Thomas; Sievers, Nina; Heemsoth , Jan Peter (2023): Handbuch zur Planung flexibler Bedienungsformen im ÖPNV. Ein Beitrag zur Sicherung der Daseinsvorsorge in nachfrageschwachen Räumen. Unter Mitarbeit von Rafael Kistner und Lucas Biermanski . Hg . v. BBSR, Bonn.&lt;/p&gt; &lt;p&gt;VDV (2024): Bedarfsverkehr per App kann Bus und Bahn ergänzen. Bessere Mobilität auf dem Land durch flexible Kleinbusangebote. Online verfügbar unter &lt;a href="https://www.vdv.de/ondemandumfrage22.aspx"&gt;https://www.vdv.de/ondemandumfrage22.aspx&lt;/a&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;Bisherige Untersuchungen zu den Nutzenden des Flexiblen ÖPNV, von On-Demand-Verkehr bzw. Ridepoolingverkehr beschränken sich auf einen großstädtischen Kontext. Die Auswertungen der Nutzungsdaten von MOIA in Hamburg (Kostorz et al., 2021) und Clevershuttle in vier deutschen Städten (Knie et al., 2020) zeigen, dass die jüngere Generation und die technologieaffine Gruppe dort die wichtigste Nutzungsgruppen darstellen.&lt;/p&gt; &lt;p&gt;Inwieweit der On-Demand-Verkehr den Mobilitätsbedarf anderer sozialer Gruppen decken kann, bedarf weiterer Forschung. Es besteht das Potenzial, weitere soziale Gruppen für den On-Demand-Verkehr zu gewinnen. Berufspendler*innen, ältere Menschen, Menschen mit eingeschränkter Mobilität, Schüler*innen und Personen ohne Zugang zu einem Pkw können vom On-Demand-Verkehr profitieren. Auch für grundsätzlich autoaffine Nutzer*innen ist es eine attraktive Alternative zum privaten Auto, da eine hohe Servicequalität geboten wird.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;M1, M3, M4, M5&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Anzahl der On-Demand-Verkehre in Deutschland steigt kontinuierlich. Insbesondere seit der im April 2021 beschlossenen Gesetzesnovelle ist die Zahl der On-Demand-Projekte, die in den öffentlichen Verkehr integriert sind, sprunghaft angestiegen. Laut einer Branchenumfrage des Verbands Deutscher Verkehrsunternehmen (VDV) im Jahr 2022 gab es Ende 2022 über 80 ÖV-integrierte digitale On-Demand-Verkehrsprojekte (VDV 2024).&lt;/p&gt; &lt;p&gt;Für die weitere Verbreitung und Entwicklung von On-Demand-Verkehren spielen mehrere Faktoren eine zentrale Rolle.&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Technisch befinden sich diese Mobilitätsangebote noch in einer frühen Entwicklungsphase, und es existieren bislang keine etablierten Geschäftsmodelle, was einen weiteren Forschungsbedarf aufzeigt. Es gibt noch verschiedene Verbesserungsmöglichkeiten, z.B. Anschlussgewährleistungen, Barrierefreiheit, geeignete Fahrzeuge, einheitliche Hintergrundsysteme, Datenschutz usw. Darüber hinaus werden autonome On-Demand-Services erprobt.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Laut der Branchenumfrage des VDV aus dem Jahr 2022 (VDV 2024) sind fast alle On-Demand-Projekte nicht eigenwirtschaftlich und werden durch kommunale Verkehrsunternehmen oder staatliche Förderprogramme wie die DKV-Förderrichtlinie finanziert. Für die langfristige Sicherstellung der Angebote muss eine nachhaltige Finanzierungslösung gefunden werden. Dabei spielt politische Unterstützung eine entscheidende Rolle.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Agora Verkehrswende (2023): Mobilitätsoffensive für das Land. Wie Kommunen mit flexiblen Kleinbussen den ÖPNV von morgen gestalten können.&lt;/p&gt; &lt;p&gt;Gies, Jürgen; Langer, Victoria (2021): Mit On-Demand-Angeboten ÖPNV Bedarfsverkehre modernisieren. Werkstattbericht zu Chancen und Herausforderungen. Hg. v. Difu, Berlin.&lt;/p&gt; &lt;p&gt;Knie, Andreas; Ruhrort, Lisa (2020): Ride-Pooling-Dienste und ihre Bedeutung für den Verkehr. Nachfragemuster und Nutzungsmotive am Beispiel von „CleverShuttle“. - eine Untersuchung auf Grundlage von Buchungsdaten und Kundenbefragun-gen in vier deutschen Städten. Discussion Paper SP III 2020–601. Wissenschaftszentrum Berlin für Sozialforschung.&lt;/p&gt; &lt;p&gt;Kostorz-Weiss, Nadine; Fraedrich, Eva; Kagerbauer, Martin (2021): Ridepooling als Mobilitätsoption für alle? Erkenntnisse aus der Moia-Begleitforschung zu Nutzerinnen und Nutzern. In: Internationales Verkehrswesen ((73) 1), S. 67–71.&lt;/p&gt; &lt;p&gt;Siefer, Thomas; Sievers, Nina; Heemsoth, Jan Peter (2023): Handbuch zur Planung flexibler Bedienungsformen im ÖPNV. Ein Beitrag zur Sicherung der Daseinsvorsorge in nachfrageschwachen Räumen. Unter Mitarbeit von Rafael Kistner und Lucas Biermanski. Hg. v. BBSR, Bonn.&lt;/p&gt; &lt;p&gt;VDV (2024): Bedarfsverkehr per App kann Bus und Bahn ergänzen. Bessere Mobilität auf dem Land durch flexible Kleinbusangebote. Online verfügbar unter &lt;a href="https://www.vdv.de/ondemandumfrage22.aspx"&gt;https://www.vdv.de/ondemandumfrage22.aspx&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>Fahrradwerkstatt</t>
@@ -169,16 +169,16 @@
     <t>Förderung selbstaktiver Mobilität</t>
   </si>
   <si>
-    <t>&lt;p&gt;Eine Fahrradwerkstatt bietet Dienstleistungen zur Reparatur und Wartung von Fahrrädern an. Diese Einrichtungen sind wichtig, um die Funktionsfähigkeit und Sicherheit der Fahrräder zu gewährleisten, wodurch die Nutzung des Fahrrads als nachhaltiges Verkehrsmittel gefördert wird.&lt;/p&gt; &lt;p&gt;Zunehmend werden die Fahrradwerkstätten auch zu RadServiceStationen .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Fahrradwerkstätten können in verschiedenen Formen organisiert sein. Je nach den beteiligten Akteuren lassen sich folgende Varianten identifizieren:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommerzielle Fahrradwerkstatt:&lt;/b&gt; Professionelle Reparaturwerkstätten mit ausgebildeten Fahrradmechanikern, die Serviceleistungen gegen Bezahlung anbieten.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Selbsthilfewerkstatt:&lt;/b&gt; Werkstätten, in denen Nutzer unter Anleitung von Fachpersonal oder freiwilligen Helfern ihr Fahrrad selbst reparieren können. Oftmals wird Werkzeug zur Verfügung gestellt und es gibt eine gemeinschaftliche Lernatmosphäre (ADAC Saar) .&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kleine Self-Service-Stationen:&lt;/b&gt; Speziell eingerichtete Stationen im öffentlichen Raum, die Radfahrenden die Möglichkeit bieten, kleinere Reparaturen und Wartungsarbeiten selbstständig durchzuführen. Diese Stationen sind mit grundlegenden Werkzeugen und einer Luftpumpe ausgestattet, um gängige Probleme wie platte Reifen, lockere Schrauben oder falsch eingestellte Sättel schnell zu beheben. Dies kann auch mit E-Ladepunkte verknüpft werden ( RadKultur -Baden-Württemberg ) .&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;ADAC-Selbsthilfewerkstätten&lt;/p&gt; &lt;p&gt;BIKE IT! RadServiceStationen , Bremen&lt;/p&gt; &lt;p&gt;RadService in Baden-Württemberg&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Fahrradwerkstätten können von privaten Unternehmen, gemeinnützigen Organisationen, Vereinen oder als Teil kommunaler Projekte betrieben werden.&lt;/p&gt; &lt;p&gt;Viele Werkstätten sind auch mit Fahrradgeschäften kombiniert, die zusätzlich den Verkauf von Fahrrädern und Zubehör anbieten.&lt;/p&gt; &lt;p&gt;Auch die Vereine für Fahrradförderung (ADFC, ADAC ) spielen hier eine wesentliche Rolle.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Eine Fahrradwerkstatt stellt Werkzeuge und Dienstleistungen zur Reparatur und Wartung von Fahrrädern bereit . Diese Einrichtungen sind wichtig, um die Funktionsfähigkeit und Sicherheit der Fahrräder zu gewährleisten, wodurch die Nutzung des Fahrrads als nachhaltiges Verkehrsmittel gefördert wird.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Fahrradwerkstätten können in verschiedenen Formen organisiert sein. Je nach den beteiligten Akteuren lassen sich folgende Varianten identifizieren:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommerzielle Fahrradwerkstatt:&lt;/b&gt; Professionelle Reparaturwerkstätten mit ausgebildeten Fahrradmechanikern, die Serviceleistungen gegen Bezahlung anbieten.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Selbsthilfewerkstatt:&lt;/b&gt; Werkstätten, in denen Nutzer unter Anleitung von Fachpersonal oder freiwilligen Helfern ihr Fahrrad selbst reparieren können. Oftmals wird Werkzeug zur Verfügung gestellt und es gibt eine gemeinschaftliche Lernatmosphäre (ADAC Saar) .&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kleine Self-Service-Stationen:&lt;/b&gt; Speziell eingerichtete Stationen im öffentlichen Raum, die Radfahrenden die Möglichkeit bieten, kleinere Reparaturen und Wartungsarbeiten selbstständig durchzuführen. Diese Stationen sind mit grundlegenden Werkzeugen und einer Luftpumpe ausgestattet, um gängige Probleme wie platte Reifen, lockere Schrauben oder falsch eingestellte Sättel schnell zu beheben. Dies kann auch mit E-Ladepunkte verknüpft werden ( RadKultur-Baden-Württemberg ) .&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ADAC-Selbsthilfewerkstätten&lt;/p&gt; &lt;p&gt;BIKE IT! RadServiceStationen, Bremen&lt;/p&gt; &lt;p&gt;RadService in Baden-Württemberg&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Fahrradwerkstätten können von privaten Unternehmen, gemeinnützigen Organisationen, Vereinen oder als Teil kommunaler Projekte betrieben werden.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Viele Werkstätten sind auch mit Fahrradgeschäften kombiniert, die zusätzlich den Verkauf von Fahrrädern und Zubehör anbieten.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen&lt;/b&gt; : können Fahrradwerkstätten als Teil ihrer Mobilitätsstrategien fördern.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunalen Einrichtungen und Unternehmen:&lt;/b&gt; können Fahrradreparatur-Service bereitstellen.&lt;/li&gt;&lt;/ul&gt;</t>
@@ -187,7 +187,7 @@
     <t>&lt;p&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Beispiel auf Landesebene:&lt;/p&gt; &lt;p&gt;RadKULTUR -Förderung In Baden-Württemberg&lt;/p&gt;</t>
+    <t>&lt;p&gt;Beispiel auf Landesebene:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;RadKULTUR-Förderung In Baden-Württemberg&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Mit Fahrradwerkstätten können die Service-Angebote für Fahrrad verbessert werden und das Fahrradfahren attraktive machen. Damit soll der Anteil des Rad ver kehrs am Gesamt ver kehr im Land lang fris tig gestei gert wer den.&lt;/p&gt;</t>
@@ -196,25 +196,25 @@
     <t>&lt;p&gt;M1, M2, M3, M4, M5&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Es besteht ein zunehmender Bedarf an einem Ausbau der Fahrradservice-Angebote, um das Radfahren attraktiver zu gestalten. Mit dem wachsenden Anteil an E-Bikes und Lastenrädern gewinnt ein professionelles Serviceangebot immer mehr an Bedeutung. Es bedarf weiterer Untersuchungen, wie sich der Bedarf an Fahrradreparaturdiensten aufgrund der steigenden Zahl von E-Bikes und (E-)Lastenrädern verändert.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;ADFC-Saar: Selbsthilfe-Werkstatt des ADFC Saar im Haus der Umwelt Kontakt zum Artikel. Online verfügbar unter , zuletzt geprüft am 03.12.2024.&lt;/p&gt; &lt;p&gt;RadKultur -Baden-Württemberg: Rad­Service-Punkte . Was steckt hinter dem Modul? Online verfügbar unter , zuletzt geprüft am 03.10.2024.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Es besteht ein zunehmender Bedarf an einem Ausbau der Fahrradservice-Angebote, um das Radfahren attraktiver zu gestalten. Mit dem wachsenden Anteil an E-Bikes und Lastenrädern gewinnt ein professionelles Serviceangebot immer mehr an Bedeutung.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ADFC-Saar: Selbsthilfe-Werkstatt des ADFC Saar im Haus der Umwelt Kontakt zum Artikel. Online verfügbar unter , zuletzt geprüft am 03.12.2024.&lt;/p&gt; &lt;p&gt;RadKultur-Baden-Württemberg: Rad­Service-Punkte. Was steckt hinter dem Modul? Online verfügbar unter , zuletzt geprüft am 03.10.2024.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Laufbus für Kinder</t>
   </si>
   <si>
-    <t>&lt;p&gt;Laufbus , auch „Walking Bus“ genannt, ist eine organisierte Laufgemeinschaft, bei der Kinder sicher mit ihren Freund *innen zu Fuß zur Schule gehen können. Dabei treffen sich die Kinder mit demselben Schulweg an vorab festgelegten Punkten bzw. Haltestellen entlang des Schulwegs und laufen wie ein Linienbus gemeinsam auf einer festgelegten Route zur Schule. Die erwachsenen Begleitpersonen unterstützen, indem sie in schwierigen Situationen helfen und auf die Sicherheit der Kinder achten.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Der Laufende Schulbus, Heidelberg.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Laufbus, auch „Walking Bus“ genannt, ist eine organisierte Laufgemeinschaft, bei der Kinder sicher mit ihren Freund*innen zu Fuß zur Schule gehen können. Dabei treffen sich die Kinder mit demselben Schulweg an vorab festgelegten Punkten bzw. Haltestellen entlang des Schulwegs und laufen wie ein Linienbus gemeinsam auf einer festgelegten Route zur Schule. Die erwachsenen Begleitpersonen unterstützen, indem sie in schwierigen Situationen helfen und auf die Sicherheit der Kinder achten.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der Laufende Schulbus, Heidelberg.&lt;/p&gt; &lt;p&gt;&lt;a href="http://schulexpress.de/"&gt;http://schulexpress.de/&lt;/a&gt; uf der Website des Netzwerks „Schulexpress“ werden Schulen aufgeführt, die bereits einen Laufbus anbieten: .&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Lokale Schulen und Elterninitiativen organisieren oft Laufbusse. Diese können durch wechselnde Elternbeteiligung ermöglicht werden oder durch dauerhaft von einer Organisation oder den Kommunen gestellte Begleitpersonen unterstützt werden.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Schulen, Kommunale Verwaltung oder örtliche Verkehrsvereine wie VCD und ADFC:&lt;/b&gt; unterstützen bei der Errichtung und Organisation&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunale Verwaltung oder örtliche Verkehrsvereine:&lt;/b&gt; unterstützen bei der Errichtung und Organisation&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Es gibt keine spezifischen gesetzlichen Anforderungen .&lt;/p&gt;</t>
@@ -223,13 +223,19 @@
     <t>&lt;p&gt;Verkehrssicherheitsprogramm der Bundesregierung 2021-2030&lt;/p&gt; &lt;p&gt;Finanzierung erfolgt teilweise durch kommunale Förderungen.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Durch das gemeinsame Zu-Fuß-Gehen steigt die Sicherheit für den Fußverkehr von Kindern, wodurch auf das sogenannte "Elterntaxi" verzichtet werden kann. Dies reduziert den zeitlichen Druck für Eltern und minimiert die Fahrten sowie Wegekette. Darüber hinaus fördert der Laufbus die Selbständigkeit der Kinder.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Durch das gemeinsame Zu-Fuß-Gehen steigt die Sicherheit für den Fußverkehr von Kindern, wodurch auf das sogenannte "Elterntaxi" verzichtet werden kann. Dies entlastet die Eltern zeitlich und reduziert gleichzeitig Verkehrsaufkommen sowie komplexe Wegeketten. Darüber hinaus fördert der Laufbus die Selbständigkeit der Kinder , was langfristig zu einem nachhaltigen Mobilitätsverhalten beiträgt.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Schüler*innen der Grundschule, zumeist von Klasse 1 bis 4, vor allem in der Stadt.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;VCD (2024): VCD &lt;a href="https://www.vcd.org/artikel/vcd-laufbus-zusammen-sicher-zur-schule-gehen"&gt;https://www.vcd.org/artikel/vcd-laufbus-zusammen-sicher-zur-schule-gehen&lt;/a&gt; : Schulbus auf Füßen. Online verfügbar unter , zuletzt aktualisiert am 01.05.2024, zuletzt geprüft am 04.10.2024.&lt;/p&gt; &lt;p&gt;Stadt Heidelberg (2021): Der Laufende Schulbus. Online verfügbar unter &lt;a href="https://www.heidelberg.de/site/Heidelberg2021/get/documents_E-918811683/heidelberg/Objektdatenbank/31/PDF/Nachhaltigkeitskonzepte/31_pdf_Folder_Laufender_Schulbus_2014_k2.pdf"&gt;https://www.heidelberg.de/site/Heidelberg2021/get/documents_E-918811683/heidelberg/Objektdatenbank/31/PDF/Nachhaltigkeitskonzepte/31_pdf_Folder_Laufender_Schulbus_2014_k2.pdf&lt;/a&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;M1, M4&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Modell „Laufbus“ ist ein bekanntes Konzept und wird bereits in zahlreichen Schulen und Städten erfolgreich umgesetzt. Es lässt sich flexibel an unterschiedliche schulische und städtische Gegebenheiten anpassen, was sein Potenzial für eine flächendeckende Implementierung erheblich steigert.&lt;/p&gt; &lt;p&gt;Die Integration in städtische Mobilitätskonzepte, insbesondere in Kombination mit weiteren Maßnahmen zur Verbesserung der Verkehrssicherheit, kann die Einführung des Laufbusses nachhaltig fördern.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;VCD (2024): VCD Laufbus: Schulbus auf Füßen. Online verfügbar unter &lt;a href="https://www.vcd.org/artikel/vcd-laufbus-zusammen-sicher-zur-schule-gehen"&gt;https://www.vcd.org/artikel/vcd-laufbus-zusammen-sicher-zur-schule-gehen&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Stadt Heidelberg (2021): Der Laufende Schulbus. Online verfügbar unter &lt;a href="https://www.heidelberg.de/site/Heidelberg2021/get/documents_E-918811683/heidelberg/Objektdatenbank/31/PDF/Nachhaltigkeitskonzepte/31_pdf_Folder_Laufender_Schulbus_2014_k2.pdf"&gt;https://www.heidelberg.de/site/Heidelberg2021/get/documents_E-918811683/heidelberg/Objektdatenbank/31/PDF/Nachhaltigkeitskonzepte/31_pdf_Folder_Laufender_Schulbus_2014_k2.pdf&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>Carsharing Angebote</t>
@@ -241,7 +247,7 @@
     <t>&lt;p&gt;Beim Organisierten Carsharing handelt es sich um ein innovatives Mobilitätskonzept, bei dem Fahrzeuge von mehreren Teilnehmende gemeinsam genutzt werden, anstatt dass jede*r einzelne teilnehmende Person ein eigenes Auto besitzt. In der Regel fungiert der Carsharing-Anbieter als Fahrzeughalter und stellt die Flotte zur Verfügung. Die Teilnehmende schließen bei der Registrierung einen Rahmenvertrag mit dem Anbieter ab, der es ihnen ermöglicht, alle verfügbaren Fahrzeuge des Anbieters zu buchen und zu nutzen.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Carsharing umfasst verschiedene Modelle, darunter stationsbasiertes Carsharing sowie free -floating Carsharing, und es werden auch kombinierte Carsharing-Systeme angeboten:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Beim stationsbasierten Carsharing stehen die Fahrzeuge auf festen Parkplätzen in einem definierten Netzwerk von Stationen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Im Gegensatz dazu sind bei free -floating Carsharing die Fahrzeuge über die Stadt verteilt und können von den Nutzer *innen über eine Smartphone-App lokalisiert und gebucht werden. Nach der Fahrt können die Nutzer*innen das Fahrzeug innerhalb des Nutzungsgebiets an einem beliebigen legalen Parkplatz abstellen.&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;In Regionen mit geringer Nachfrage nach Carsharing, in denen konventionelle Modelle wirtschaftlich nicht tragfähig sind, bieten sich verschiedene alternative Ansätze zur Einführung von Carsharing an:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Corporate Carsharing:&lt;/b&gt; Hierbei handelt es sich um Carsharing-Angebote, die durch Kooperationen mit Ankermieter*innen (gewerbliche Nutzen) initiiert werden. In Zeiten, in denen Carsharing-Fahrzeuge nicht für dienstliche Zwecke benötigt werden – insbesondere nach Feierabend und am Wochenende – können die Autos von Mitarbeiter*innen und gegebenenfalls der Öffentlichkeit zur privaten Nutzung gebucht werden.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Carsharing Verein:&lt;/b&gt; Statt durch kommerzielle Anbieter werden die Carsharing-Angebote hauptsächlich durch Vereine oder Verbände für ihre Mitglieder bereitgestellt. Diese Angebote werden bürgerschaftlich organisiert und basieren auf ehrenamtlichem Engagement vor Ort.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Urbane Angebote expandieren in den ländlichen Raum:&lt;/b&gt; Manche Carsharing-Anbietende aus städtischen Regionen erweitern ihr Angebot gezielt in ländliche Gebiete, um dort den Zugang zu Carsharing zu ermöglichen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Gemeinde finanzierte Angebote:&lt;/b&gt; Die Gemeinde bestellt das Carsharing und leistet (wenn nötig) einen Defizit-Ausgleich.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Carsharing umfasst verschiedene Modelle, darunter stationsbasiertes Carsharing sowie free-floating Carsharing, und es werden auch kombinierte Carsharing-Systeme angeboten:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Beim stationsbasierten Carsharing stehen die Fahrzeuge auf festen Parkplätzen in einem definierten Netzwerk von Stationen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Im Gegensatz dazu sind bei free-floating Carsharing die Fahrzeuge über die Stadt verteilt und können von den Nutzer*innen über eine Smartphone-App lokalisiert und gebucht werden. Nach der Fahrt können die Nutzer*innen das Fahrzeug innerhalb des Nutzungsgebiets an einem beliebigen legalen Parkplatz abstellen.&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;In Regionen mit geringer Nachfrage nach Carsharing, in denen konventionelle Modelle wirtschaftlich nicht tragfähig sind, bieten sich verschiedene alternative Ansätze zur Einführung von Carsharing an:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Corporate Carsharing:&lt;/b&gt; Hierbei handelt es sich um Carsharing-Angebote, die durch Kooperationen mit Ankermieter*innen (gewerbliche Nutzen) initiiert werden. In Zeiten, in denen Carsharing-Fahrzeuge nicht für dienstliche Zwecke benötigt werden – insbesondere nach Feierabend und am Wochenende – können die Autos von Mitarbeiter*innen und gegebenenfalls der Öffentlichkeit zur privaten Nutzung gebucht werden.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Carsharing Verein:&lt;/b&gt; Statt durch kommerzielle Anbieter werden die Carsharing-Angebote hauptsächlich durch Vereine oder Verbände für ihre Mitglieder bereitgestellt. Diese Angebote werden bürgerschaftlich organisiert und basieren auf ehrenamtlichem Engagement vor Ort.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Urbane Angebote expandieren in den ländlichen Raum:&lt;/b&gt; Manche Carsharing-Anbietende aus städtischen Regionen erweitern ihr Angebot gezielt in ländliche Gebiete, um dort den Zugang zu Carsharing zu ermöglichen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Gemeinde finanzierte Angebote:&lt;/b&gt; Die Gemeinde bestellt das Carsharing und leistet (wenn nötig) einen Defizit-Ausgleich.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Beispiel CarSharing Renningen&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Beispiel StadtMobil e.V.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Beispiel: Region.Mobil in Homburg&lt;/li&gt;&lt;/ul&gt;</t>
@@ -250,25 +256,31 @@
     <t>&lt;p&gt;Carsharing wird von kommerziellen Anbietern sowie von bürgerschaftlich organisierten Vereinen bereitgestellt. Letztere basieren auf ehrenamtlichem Engagement.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; spielen bei Carsharing eine wesentliche Rolle. Sie weisen Parkplätze auf öffentlichen Flächen für Carsharing-Fahrzeuge aus und können Carsharing fördern, indem sie entsprechende Konzepte erstellen oder diese in die kommunale Mobilitäts- und Verkehrsplanung integrieren. Darüber hinaus können sie selbst als Nutzer von Carsharing-Diensten auftreten. Zudem können Kommunen Carsharing-Angebote initiieren und deren Umsetzung an Anbieter vergeben.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;ÖPNV-Anbietende:&lt;/b&gt; sind wichtige Partner für Carsharing-Anbieter, da sie eine sinnvolle Ergänzung im öffentlichen Nahverkehr darstellen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Stromnetzbetreiber&lt;/b&gt; : sind für die Bereitstellung der Ladeinfrastruktur für Elektrofahrzeuge verantwortlich, was insbesondere für E-Carsharing von Bedeutung ist.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Unternehmen:&lt;/b&gt; integrieren Carsharing zunehmend in ihre betriebliche Mobilitätsstrategie, um die Flexibilität ihrer Mitarbeiter zu erhöhen und Kosten zu senken.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Automobilkonzerne:&lt;/b&gt; beteiligen sich an der Entwicklung und Bereitstellung von Carsharing-Fahrzeugen und -Technologien.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Der Bundesverband Carsharing (&lt;/b&gt; &lt;b&gt;bcs&lt;/b&gt; &lt;b&gt;):&lt;/b&gt; fungiert als Interessenverband für Carsharing, vernetzt die Anbieter und stellt wichtige Informationen sowie Ressourcen bereit.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Mobility-&lt;/b&gt; &lt;b&gt;as&lt;/b&gt; &lt;b&gt;-a-Service (&lt;/b&gt; &lt;b&gt;MaaS&lt;/b&gt; &lt;b&gt;)-Dienstleister:&lt;/b&gt; entwickeln und betreiben Plattformen, über welche Carsharing-Angebote gebucht werden können&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Das Carsharing-Gesetz ( CsgG ) des Bundes regelt zusammen mit entsprechenden Landesregelungen die Vergabe von Stellplätzen für Carsharing-Fahrzeuge im öffentlichen Raum und schafft damit Planungs- und Rechtssicherheit.&lt;/p&gt; &lt;p&gt;Beispiele von Regelungen auf Landesebenen:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Saarländisches Carsharinggesetz ( SCsgG )&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Bremer Landes- Carsharinggesetz ( BremLCsgG )&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Regelungen zum stationsbasierten Carsharing in BaWü, NRW, THÜ, BAY&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Studien zeigen, dass Carsharing, insbesondere die stations-basierte Variante, aktiv den privaten Fahrzeugbesitz verringern kann . Die Reduzierung des Fahrzeugbestands führt zu einem erheblichen Flächengewinn, der vor allem in dicht bebauten innerstädtischen Gebieten neue städtebauliche Gestaltungsmöglichkeiten eröffnet.&lt;/p&gt; &lt;p&gt;Carsharing bietet zudem bestimmten sozialen Gruppen mehr Teilhabe im Bereich Mobilität, indem es kostengünstig Zugang zu Fahrzeugen ermöglicht.&lt;/p&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; spielen bei Carsharing eine wesentliche Rolle. Sie weisen Parkplätze auf öffentlichen Flächen für Carsharing-Fahrzeuge aus und können Carsharing fördern, indem sie entsprechende Konzepte erstellen oder diese in die kommunale Mobilitäts- und Verkehrsplanung integrieren. Darüber hinaus können sie selbst als Nutzer von Carsharing-Diensten auftreten. Zudem können Kommunen Carsharing-Angebote initiieren und deren Umsetzung an Anbieter vergeben.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;ÖPNV-Anbietende:&lt;/b&gt; sind wichtige Partner für Carsharing-Anbieter, da sie eine sinnvolle Ergänzung im öffentlichen Nahverkehr darstellen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Stromnetzbetreiber&lt;/b&gt; : sind für die Bereitstellung der Ladeinfrastruktur für Elektrofahrzeuge verantwortlich, was insbesondere für E-Carsharing von Bedeutung ist.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Unternehmen:&lt;/b&gt; integrieren Carsharing zunehmend in ihre betriebliche Mobilitätsstrategie, um die Flexibilität ihrer Mitarbeiter zu erhöhen und Kosten zu senken.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Automobilkonzerne:&lt;/b&gt; beteiligen sich an der Entwicklung und Bereitstellung von Carsharing-Fahrzeugen und -Technologien.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Der Bundesverband Carsharing (bcs):&lt;/b&gt; fungiert als Interessenverband für Carsharing, vernetzt die Anbieter und stellt wichtige Informationen sowie Ressourcen bereit.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Mobility-as-a-Service (MaaS)-Dienstleister:&lt;/b&gt; entwickeln und betreiben Plattformen, über welche Carsharing-Angebote gebucht werden können&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Carsharing-Gesetz (CsgG) des Bundes regelt zusammen mit entsprechenden Landesregelungen die Vergabe von Stellplätzen für Carsharing-Fahrzeuge im öffentlichen Raum und schafft damit Planungs- und Rechtssicherheit.&lt;/p&gt; &lt;p&gt;Beispiele von Regelungen auf Landesebenen:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Saarländisches Carsharinggesetz (SCsgG)&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Bremer Landes-Carsharinggesetz (BremLCsgG)&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Regelungen zum stationsbasierten Carsharing in BaWü, NRW, THÜ, BAY&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beispiele für Förderungen auf Landesebene:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Förderung der Vernetzten Mobilität und des Mobilitätsmanagements (FöRi-MM) in NRW&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Studien zeigen, dass Carsharing, insbesondere die stations-basierte Variante, aktiv den privaten Fahrzeugbesitz verringern kann (Nehrke und Loose 2018) . Car sharing kann dazu beitragen, die Abhängigkeit vom privaten Autoverkehr zu verringern, insbesondere wenn es in Kombination mit dem öffentlichen Personennahverkehr (ÖPNV) inter- und multimodales Verkehrsverhalten fördert. Die Reduzierung des Fahrzeugbestands führt zu einem erheblichen Flächengewinn, der vor allem in dicht bebauten innerstädtischen Gebieten neue städtebauliche Gestaltungsmöglichkeiten eröffnet.&lt;/p&gt; &lt;p&gt;Carsharing bietet zudem bestimmten sozialen Gruppen mehr Teilhabe im Bereich Mobilität, indem es kostengünstig Zugang zu Fahrzeugen ermöglicht.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Carsharing kann sowohl in städtischen als auch ländlichen Gebieten angeboten werden. Jedoch stellen Kleinstädte und ländliche Regionen größere Herausforderungen dar.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Carsharing wird von Nutzer*innen aus allen sozialen Gruppen in Anspruch genommen ( Nehrke /Loose 2018). Haushalte mit demographischen Merkmalen wie höherer Bildung, jüngerem Alter und höheren Einkommen neigen dazu, in Carsharing-Angebote schneller einzusteigen. Zur Nutzung der Free-Floating-Varianten tendiert insbesondere die jüngere Generation.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Seit den 1980er-Jahren haben sich Carsharing-Pionierprojekte in Deutschland stetig professionalisiert und weiterentwickelt. Zum 1. Januar 2024 waren deutschlandweit mehr als 5,5 Millionen Fahrberechtigte beim Car-Sharing registriert, was einem Anstieg von 23,1 Prozent gegenüber dem Vorjahr entspricht, verteilt auf 1.285 Städte und Gemeinden. Das Angebot reicht von Großstädten bis hin zu kleinen Gemeinden (Quelle: Bundesverband Carsharing e.V.). Das kontinuierliche Wachstum der Nutzungszahlen sowie die Ausweitung der Angebote verdeutlichen das Potenzial von Carsharing, sich weiter zu etablieren. Besonders in urbanen Räumen, aber zunehmend auch in kleineren Orten, zeigt Carsharing seine Stärke als flexible Mobilitätslösung.&lt;/p&gt; &lt;p&gt;Verschiedene Faktoren können dies unterstützen (Auswertung von Expert* inneninterviews im Rahmen des Projekts):&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Wie sich Carsharing-Angebote langfristig ausdehnen, hängt davon ab, ob sie eigenwirtschaftlich betrieben werden können. Ein ausgewogenes Verhältnis zwischen Auslastung und Fahrzeugverfügbarkeit ist dabei von zentraler Bedeutung. Die wirtschaftliche Tragfähigkeit des Geschäftsmodells wurde durch die langjährige Praxis in Deutschland bereits nachgewiesen. Für einen schnelleren Aufbau von Carsharing-Angeboten spielen insbesondere Unternehmen und Verwaltungen, die Carsharing für ihre dienstliche Mobilität nutzen, eine Schlüsselrolle. Derzeit ist die Integration von Carsharing-Angeboten in ein MaaS -System ein wichtiges Thema für Carsharing-Anbieter. Diese steht jedoch noch vor technischen und rechtlichen Herausforderungen, insbesondere im Hinblick auf Datenverfügbarkeit und Datenschutz.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Da Carsharing auf den gelegentlichen Pkw-Bedarf ausgerichtet ist, sind eine gute ÖPNV-Versorgung sowie eine gut ausgebaute Fuß- und Radverkehrsinfrastruktur essenziell. Zunehmend wird auch der Aufbau einer Ladeinfrastruktur notwendig, um die Elektrifizierung der Fahrzeugflotten voranzutreiben, wobei die hohen Kosten derzeit eine Herausforderung für die Anbieter darstellen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Carsharing wird zunehmend als wichtiges Element der kommunalen Verkehrswende anerkannt, viele Kommunen initiieren selbst Car-Sharing-Angebote. Die Unterstützung der Kommunen ist hierbei entscheidend, z. B. durch Markterkundungen, die Bereitstellung öffentlicher Stellplätze und die Entwicklung von Standortkonzepten.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kultur und Kommunikation:&lt;/b&gt; Durch die kulturell geprägte Rolle des PKW als Statussymbol ist es noch schwer, Carsharing im privaten aber auch insbesondere im gewerblichen Bereich zu integrieren. In der Kommunikation können Aspekte wie Kostenersparnis und geringer Aufwand im Vordergrund stehen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nehrke , Gunnar; Loose, Willi (2018): Nutzer und Mobilitätsverhalten in verschiedenen CarSharing -Varianten. Projektbericht. Hg . v. bcs .&lt;/p&gt; &lt;p&gt;Loose, Willi (2016): Vom Solidarhandeln zur Marktorientierung – 25 Jahre CarSharing im Überblick. In: Bundesverband CarSharing e.V. ( Hg .): CarSharing in Deutschland – von den Anfängen bis heute. Brühl: ksv kölner stadt- und verkehrs-verlag, S. 17–28.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Carsharing wird von Nutzer*innen aus allen sozialen Gruppen in Anspruch genommen (Nehrke und Loose 2018). Haushalte mit demographischen Merkmalen wie höherer Bildung, jüngerem Alter und höheren Einkommen neigen dazu, in Carsharing-Angebote schneller einzusteigen. Zur Nutzung der Free-Floating-Varianten tendiert insbesondere die jüngere Generation.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;M1, M3 , M5&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Seit den 1980er-Jahren haben sich Carsharing-Pionierprojekte in Deutschland stetig professionalisiert und weiterentwickelt. Zum 1. Januar 2024 waren deutschlandweit mehr als 5,5 Millionen Fahrberechtigte beim Car-Sharing registriert, was einem Anstieg von 23,1 Prozent gegenüber dem Vorjahr entspricht, verteilt auf 1.285 Städte und Gemeinden. Das Angebot reicht von Großstädten bis hin zu kleinen Gemeinden (Quelle: Bundesverband Carsharing e.V.). Das kontinuierliche Wachstum der Nutzungszahlen sowie die Ausweitung der Angebote verdeutlichen das Potenzial von Carsharing, sich weiter zu etablieren. Besonders in urbanen Räumen, aber zunehmend auch in kleineren Orten, zeigt Carsharing seine Stärke als flexible Mobilitätslösung.&lt;/p&gt; &lt;p&gt;Verschiedene Faktoren können dies unterstützen (Auswertung von Expert*inneninterviews im Rahmen des Projekts):&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Wie sich Carsharing-Angebote langfristig ausdehnen, hängt davon ab, ob sie eigenwirtschaftlich betrieben werden können. Ein ausgewogenes Verhältnis zwischen Auslastung und Fahrzeugverfügbarkeit ist dabei von zentraler Bedeutung. Die wirtschaftliche Tragfähigkeit des Geschäftsmodells wurde durch die langjährige Praxis in Deutschland bereits nachgewiesen. Für einen schnelleren Aufbau von Carsharing-Angeboten spielen insbesondere Unternehmen und Verwaltungen, die Carsharing für ihre dienstliche Mobilität nutzen, eine Schlüsselrolle. Derzeit ist die Integration von Carsharing-Angeboten in ein MaaS-System ein wichtiges Thema für Carsharing-Anbieter. Diese steht jedoch noch vor technischen und rechtlichen Herausforderungen, insbesondere im Hinblick auf Datenverfügbarkeit und Datenschutz.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Da Carsharing auf den gelegentlichen Pkw-Bedarf ausgerichtet ist, sind eine gute ÖPNV-Versorgung sowie eine gut ausgebaute Fuß- und Radverkehrsinfrastruktur essenziell. Zunehmend wird auch der Aufbau einer Ladeinfrastruktur notwendig, um die Elektrifizierung der Fahrzeugflotten voranzutreiben, wobei die hohen Kosten derzeit eine Herausforderung für die Anbieter darstellen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Carsharing wird zunehmend als wichtiges Element der kommunalen Verkehrswende anerkannt, viele Kommunen initiieren selbst Car s haring-Angebote. Die Unterstützung der Kommunen ist hierbei entscheidend, z. B. durch Markterkundungen, die Bereitstellung öffentlicher Stellplätze und die Entwicklung von Standortkonzepten.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; In der Kommunikation können Aspekte wie Kostenersparnis und geringer Aufwand im Vordergrund stehen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nehrke, Gunnar; Loose, Willi (2018): Nutzer und Mobilitätsverhalten in verschiedenen CarSharing-Varianten. Projektbericht. Hg. v. bcs.&lt;/p&gt; &lt;p&gt;Loose, Willi (2016): Vom Solidarhandeln zur Marktorientierung – 25 Jahre CarSharing im Überblick. In: Bundesverband CarSharing e.V. (Hg.): CarSharing in Deutschland – von den Anfängen bis heute. Brühl: ksv kölner stadt- und verkehrs-verlag, S. 17–28.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Privates (Peer-to-Peer) Carsharing</t>
@@ -277,7 +289,7 @@
     <t>&lt;p&gt;Privates Carsharing oder Peer-to-Peer-Carsharing bezeichnet Fahrzeugmiete und -vermietung zwischen Privatpersonen zur Nutzung. Im Gegensatz zum kommerziellen Carsharing werden die Fahrzeuge nicht ausschließlich für Zweck e des Sharing verwendet , sondern von den Besitzenden selbst genutzt. Das Autoteilen wird somit privat betrieben.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;G&lt;/b&gt; &lt;b&gt;emeinsame Nutzung von Fahrzeugen&lt;/b&gt; &lt;b&gt;innerhalb&lt;/b&gt; &lt;b&gt;eine&lt;/b&gt; &lt;b&gt;s&lt;/b&gt; &lt;b&gt;bestimmten und beschränkten Personenkreis&lt;/b&gt; &lt;b&gt;es&lt;/b&gt; : Viele Initiativen haben sich zu professionellen Carsharing- Anbieter n entwickelt (vgl. Carsharing-Verein).&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Über d&lt;/b&gt; &lt;b&gt;igitale Plattformen organisierte&lt;/b&gt; &lt;b&gt;s&lt;/b&gt; &lt;b&gt;Teilen&lt;/b&gt; :  Des Weiteren haben k ommerzielle Anbieter , z.B. SnapCar und Getaround (ehemals Drivy ) diesen Prozess durch Online-Plattformen professionalisiert, die Vermietungen von privat zu privat ermöglichen und zusätzlich Versicherungsdienstleistungen anbieten. Diese Plattformen fungieren als Schnittstelle, auf der Privatpersonen ihre eigenen Fahrzeuge zur Vermietung anbieten können, während potenzielle Mieter die Angebote durchsuchen und nutzen können.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;G&lt;/b&gt; &lt;b&gt;emeinsame Nutzung von Fahrzeugen&lt;/b&gt; &lt;b&gt;innerhalb&lt;/b&gt; &lt;b&gt;eine&lt;/b&gt; &lt;b&gt;s&lt;/b&gt; &lt;b&gt;bestimmten und beschränkten Personenkreis&lt;/b&gt; &lt;b&gt;es&lt;/b&gt; : Viele Initiativen haben sich zu professionellen Carsharing- Anbieter n entwickelt (vgl. Carsharing-Verein).&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Über d&lt;/b&gt; &lt;b&gt;igitale Plattformen organisierte&lt;/b&gt; &lt;b&gt;s&lt;/b&gt; &lt;b&gt;Teilen&lt;/b&gt; :  Des Weiteren haben k ommerzielle Anbieter , z.B. SnapCar und Getaround (ehemals Drivy) diesen Prozess durch Online-Plattformen professionalisiert, die Vermietungen von privat zu privat ermöglichen und zusätzlich Versicherungsdienstleistungen anbieten. Diese Plattformen fungieren als Schnittstelle, auf der Privatpersonen ihre eigenen Fahrzeuge zur Vermietung anbieten können, während potenzielle Mieter die Angebote durchsuchen und nutzen können.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Private Personen als Anbieter von Autos .&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Kommerzielle Unternehmen als Anbieter von Plattformen .&lt;/li&gt;&lt;/ul&gt;</t>
@@ -298,7 +310,7 @@
     <t>&lt;p&gt;Es wird keine Erfassung der Nutzung veröffentlicht, damit ist es schwierig, die Potenziale für die weitere Verbreitung abzuschätzen.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Forschungs-Informations-System (2023): Privates Autoteilen. Online verfügbar unter &lt;a href="https://www.forschungsinformationssystem.de/servlet/is/81497/"&gt;https://www.forschungsinformationssystem.de/servlet/is/81497/&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Nehrke , Gunnar; Loose, Willi (2018): Nutzer und Mobilitätsverhalten in verschiedenen CarSharing -Varianten. Projektbericht. Hg . v. bcs .&lt;/p&gt;</t>
+    <t>&lt;p&gt;Forschungs-Informations-System (2023): Privates Autoteilen. Online verfügbar unter &lt;a href="https://www.forschungsinformationssystem.de/servlet/is/81497/"&gt;https://www.forschungsinformationssystem.de/servlet/is/81497/&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Nehrke, Gunnar; Loose, Willi (2018): Nutzer und Mobilitätsverhalten in verschiedenen CarSharing-Varianten. Projektbericht. Hg. v. bcs.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Fahrgemeinschaft und Ridesharing-Angebote</t>
@@ -307,7 +319,7 @@
     <t>&lt;p&gt;Unter Ridesharing werden öffentlich zugängliche Mitnahmesysteme verstanden, bei denen freie Plätze im privaten Pkw Dritten zur Verfügung gestellt und über eine i n der Regel internetbasierte Plattform zugänglich gemacht werden.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Ridesharing&lt;/b&gt; &lt;b&gt;-Angebote&lt;/b&gt; werden &lt;b&gt;über digitale Plattformen&lt;/b&gt; für Mitfahrgelegenheiten, wie beispielsweise BlaBlaCar, organisiert.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;A&lt;/b&gt; &lt;b&gt;uf Pendler fokussierte Angebote&lt;/b&gt; , bei denen Unternehmen oder öffentliche Verwaltungen mit Plattformanbietern kooperieren, um Fahrgemeinschaften für Pendelwege intern oder zwischen verschiedenen Organisationen zu abzustimm en.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Ridesharing-Angebote&lt;/b&gt; werden &lt;b&gt;über digitale Plattformen&lt;/b&gt; für Mitfahrgelegenheiten, wie beispielsweise BlaBlaCar, organisiert.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;A&lt;/b&gt; &lt;b&gt;uf Pendler fokussierte Angebote&lt;/b&gt; , bei denen Unternehmen oder öffentliche Verwaltungen mit Plattformanbietern kooperieren, um Fahrgemeinschaften für Pendelwege intern oder zwischen verschiedenen Organisationen zu abzustimm en.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Pampa ride-sharing app&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Pendlerportal Landesregierung Nordrhein-Westfalen&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;GoFLUX&lt;/li&gt;&lt;/ul&gt;</t>
@@ -334,10 +346,10 @@
     <t>&lt;p&gt;M1, M3, M4&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Da bisher keine Nutzungsdaten oder Untersuchung zu den Ridesharing -Angeboten veröffentlicht wurden, ist es schwer, deren aktuelle Verbreitung genau zu erfassen und das Potenzial für eine weitere Verbreitung einzuschätzen. Dennoch bieten die pendlerorientierten Angebote vielversprechende Perspektiven und weisen ein hohes Potenzial hinsichtlich der zukünftigen Verbreitung auf.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bundesministerium für Verkehr und digitale Infrastruktur (BMVI) ( Hg .) (2016): Mobilitäts- und Angebotsstrategien in ländlichen Räumen. Planungsleitfaden für Handlungsmöglichkeiten von ÖPNV-Aufgabenträgern und Verkehrsunternehmen unter besonderer Berücksichtigung wirtschaftlicher Aspekte flexibler Bedienungsformen.&lt;/p&gt; &lt;p&gt;Forschungs-Informations-System (2023): Fahrgemeinschaften und Gelegenheitsmitfahrten. Online verfügbar unter &lt;a href="https://www.forschungsinformationssystem.de/servlet/is/85241/"&gt;https://www.forschungsinformationssystem.de/servlet/is/85241/&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Heinitz &lt;a href="https://www.umweltbundesamt.de/potenziale-hemmnisse-pkw-fahrgemeinschaften"&gt;https://www.umweltbundesamt.de/potenziale-hemmnisse-pkw-fahrgemeinschaften&lt;/a&gt; Hg . v. Umweltbundesamt. Dessau-Roßlau (Texte, 216/2020). Online verfügbar unter , zuletzt geprüft am 04.10.2024.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Da bisher keine Nutzungsdaten oder Untersuchung zu den Ridesharing-Angeboten veröffentlicht wurden, ist es schwer, deren aktuelle Verbreitung genau zu erfassen und das Potenzial für eine weitere Verbreitung einzuschätzen. Dennoch bieten die pendlerorientierten Angebote vielversprechende Perspektiven und weisen ein hohes Potenzial hinsichtlich der zukünftigen Verbreitung auf.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bundesministerium für Verkehr und digitale Infrastruktur (BMVI) (Hg.) (2016): Mobilitäts- und Angebotsstrategien in ländlichen Räumen. Planungsleitfaden für Handlungsmöglichkeiten von ÖPNV-Aufgabenträgern und Verkehrsunternehmen unter besonderer Berücksichtigung wirtschaftlicher Aspekte flexibler Bedienungsformen.&lt;/p&gt; &lt;p&gt;Forschungs-Informations-System (2023): Fahrgemeinschaften und Gelegenheitsmitfahrten. Online verfügbar unter &lt;a href="https://www.forschungsinformationssystem.de/servlet/is/85241/"&gt;https://www.forschungsinformationssystem.de/servlet/is/85241/&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Heinitz, Florian (2020): Potenziale und Hemmnisse für Pkw-Fahrgemeinschaften in Deutschland. Teilbericht. Hg. v. Umweltbundesamt. Dessau-Roßlau (Texte, 216/2020). Online verfügbar unter &lt;a href="https://www.umweltbundesamt.de/potenziale-hemmnisse-pkw-fahrgemeinschaften"&gt;https://www.umweltbundesamt.de/potenziale-hemmnisse-pkw-fahrgemeinschaften&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>Bikesharing</t>
@@ -346,13 +358,13 @@
     <t>&lt;p&gt;Bikesharing bezeichnet das Angebot eines räumlich und zeitlich flexiblen Fahrradverleihsystems, welches die aufeinanderfolgende Nutzung von Fahrrädern durch mehrere Personen ermöglicht. Neben herkömmlichen Fahrrädern können auch Lastenr ä d er und elektrisch unterstützte Fahrräder zum Einsatz kommen .&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die Fahrräder werden durch eine Online-Buchung oder eine vollautomatische Sofort-Ausleihe rund um die Uhr angeboten. Ähnlich wie beim Carsharing können die Bikesharing - Angebote grundsätzlich in stationsbasierte, Free-Floating- und kombinierte Bikes haring -Systeme unterschieden werden .&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die Fahrräder werden durch eine Online-Buchung oder eine vollautomatische Sofort-Ausleihe rund um die Uhr angeboten. Ähnlich wie beim Carsharing können die Bikesharing - Angebote grundsätzlich in stationsbasierte, Free-Floating- und kombinierte Bikes haring-Systeme unterschieden werden .&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;a href="https://www.vdv.de/liste-bike-sharing.aspx"&gt;https://www.vdv.de/liste-bike-sharing.aspx&lt;/a&gt; -Angeboten in Deutschland ist auf der Website von vdv zu finden: (letzter Zugriff: 11.10.2024)&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;In Deutschland dominieren zwei kommerzielle Anbieter den Bike s haring -Markt: Nextbike und Call a Bike ( ein Tochterunternehmen von Deutsche Bahn) .&lt;/p&gt;</t>
+    <t>&lt;p&gt;In Deutschland dominieren zwei kommerzielle Anbieter den Bike s haring-Markt: Nextbike und Call a Bike ( ein Tochterunternehmen von Deutsche Bahn) .&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; Initiierung oder Unterstützen der Etablierung der Projekte. Mache Kommunen betr e iben selb st die Projekte .&lt;/li&gt;&lt;/ul&gt;</t>
@@ -364,19 +376,19 @@
     <t>&lt;p&gt;Bikesharing kann dazu beitragen, die Abhängigkeit vom Autoverkehr zu verringern, insbesondere wenn es in Kombination mit dem öffentlichen Personennahverkehr (ÖPNV) inter- und multimodales Verkehrsverhalten fördert. Dies ist insbesondere eine Mobilitätsoption für Nutzungsgruppe n , die kein Auto besitzen. Jedoch ist de r Effekt, allein durch die Fahrrad s haring Angebote , Auto s zu ersetzen, gering.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Mehr als die Hälfte der mit Bikesharing -Angeboten ausgestatteten Städte zählen zu den metropolitanen Stadtregione n , 28% zu regiopolitanen Regionen und 19% zu ländlichen Regionen ( Kagerbauer et al. 2022, S.47 ).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Beim Bikes haring haben die Nutze nde oft eine enge Bindung zum ÖPNV und sind überdurchschnittlich häufig Mitglieder von Carsharing-Diensten. Dennoch bevorzugt ein großer Teil der fahrradorientierten Bevölkerung weiterhin das eigene Fahrrad und nutzt daher das Sharing-Angebot nicht. Die Nutze nde des Fahrrad- Sharings weisen im Vergleich zur Gesamtbevölkerung einen höheren Anteil an jüngeren, gut ausgebildeten Personen auf, die entweder berufstätig oder studierend sind ( Kagerbauer et al. 2022, S.47).&lt;/p&gt;</t>
+    <t>&lt;p&gt;Mehr als die Hälfte der mit Bikesharing-Angeboten ausgestatteten Städte zählen zu den metropolitanen Stadtregione n , 28% zu regiopolitanen Regionen und 19% zu ländlichen Regionen (Kagerbauer et al. 2022, S.47 ).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beim Bikes haring haben die Nutze nde oft eine enge Bindung zum ÖPNV und sind überdurchschnittlich häufig Mitglieder von Carsharing-Diensten. Dennoch bevorzugt ein großer Teil der fahrradorientierten Bevölkerung weiterhin das eigene Fahrrad und nutzt daher das Sharing-Angebot nicht. Die Nutze nde des Bikes harings weisen im Vergleich zur Gesamtbevölkerung einen höheren Anteil an jüngeren, gut ausgebildeten Personen auf, die entweder berufstätig oder studierend sind (Kagerbauer et al. 2022, S.47).&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;M3&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die Anzahl der Nutzer*innen im deutschen Bikesharing -Markt wächst kontinuierlich (Statista 2024). Jedoch ist das Potenzial für eine weitere Verbreitung ohne mehr Forschung schwer zu beurteilen.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Agora Verkehrswende ( &lt;a href="https://www.agora-verkehrswende.de/fileadmin/Projekte/2018/Stationslose_Bikesharing_Systeme/Agora_Verkehrswende_Bikesharing_WEB.pdf"&gt;https://www.agora-verkehrswende.de/fileadmin/Projekte/2018/Stationslose_Bikesharing_Systeme/Agora_Verkehrswende_Bikesharing_WEB.pdf&lt;/a&gt; .) (2018): Bikesharing im Wandel. Handlungsempfehlungen für deutsche Städte und Gemeinden zum Umgang mit stationslosen Systemen. Online verfügbar unter , zuletzt geprüft am 04.10.2024.&lt;/p&gt; &lt;p&gt;Kagerbauer , Martin; Wörle, Tim; Schmitt, Milan; Fanderl, Nora; Kern, Mira; Bengel, Steffen; Weiß, Fabio: Schlussbericht. Wirkungen neuer Mobilitätsformen auf das Verkehrsverhalten. Forschungsprojekt im Auftrag des BMDV FE-Nr. 70.0968/2019.&lt;/p&gt; &lt;p&gt;Statista Market &lt;a href="https://de.statista.com/outlook/mmo/shared-mobility/bikesharing/deutschland"&gt;https://de.statista.com/outlook/mmo/shared-mobility/bikesharing/deutschland&lt;/a&gt; (2024): Bikesharing – Deutschland. Online verfügbar unter , zuletzt aktualisiert am Juli 2024, zuletzt geprüft am 21.10.2024.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die Anzahl der Nutzer*innen im deutschen Bikesharing-Markt wächst kontinuierlich (Statista 2024). Jedoch ist das Potenzial für eine weitere Verbreitung ohne mehr Forschung schwer zu beurteilen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Agora Verkehrswende (Hg.) (2018): Bikesharing im Wandel. Handlungsempfehlungen für deutsche Städte und Gemeinden zum Umgang mit stationslosen Systemen. Online verfügbar unter &lt;a href="https://www.agora-verkehrswende.de/fileadmin/Projekte/2018/Stationslose_Bikesharing_Systeme/Agora_Verkehrswende_Bikesharing_WEB.pdf"&gt;https://www.agora-verkehrswende.de/fileadmin/Projekte/2018/Stationslose_Bikesharing_Systeme/Agora_Verkehrswende_Bikesharing_WEB.pdf&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Kagerbauer, Martin; Wörle, Tim; Schmitt, Milan; Fanderl, Nora; Kern, Mira; Bengel, Steffen; Weiß, Fabio: Schlussbericht. Wirkungen neuer Mobilitätsformen auf das Verkehrsverhalten. Forschungsprojekt im Auftrag des BMDV FE-Nr. 70.0968/2019.&lt;/p&gt; &lt;p&gt;Statista Market Insights (2024): Bikesharing – Deutschland. Online verfügbar unter &lt;a href="https://de.statista.com/outlook/mmo/shared-mobility/bikesharing/deutschland"&gt;https://de.statista.com/outlook/mmo/shared-mobility/bikesharing/deutschland&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>Lastenradsharing</t>
@@ -388,34 +400,34 @@
     <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Vollautomatische Verleihsystem&lt;/b&gt; &lt;b&gt;e&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; Die Fahrräder und Lastenräder werden durch eine Online-Buchung oder eine vollautomatische Sofort-Ausleihe rund um die Uhr angeboten. Beim Lastenrad s haring existieren derzeit hauptsächlich stationsbasierte Varianten, in denen Lastenräder an festen Stationen ausgeliehen und zurückgegeben werden.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Freier Lastenradverleih&lt;/b&gt; : neben kommerziellen Angeboten gibt es viele ehrenamtliche Initiativen zum Lastenradverleih, die von Privatpersonen oder Verbänden initiiert wurden und kein wirtschaftliches Ziel verfolgen.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Beispiel: Projekt " RadLader " in Saarbrücken&lt;/p&gt; &lt;p&gt;Beispiel: Heinerbike in Darmstadt&lt;/p&gt; &lt;p&gt;Beispiel: TINT.BIKE&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einige kommerzielle n Anbieter für Fahrrad sharing bieten sowohl konventionelle Fahrräder als auch E-Bikes und Lastenräder an. Auch manche Carsharing-Anbieter haben Lastenräder in ihre Flotte integriert. Zudem gibt es Lastenrad-fokussierte kommerzielle Angebote wie Sigo und Cargoroo .&lt;/p&gt; &lt;p&gt;Darüber hinaus gibt es Privatpersonen oder Verbänden , die die freien Lastenradverleihe n betrieben und kein wirtschaftliches Ziel verfolgen.&lt;/p&gt; &lt;p&gt;In einigen Kommunen werden die Verleihsysteme direkt von den Kommunen initiiert. Solche Angebote werden entweder bei externe n Dienstleister n beauftragt oder von kommunalen Unternehmen (Verkehrsverbund, Stadtwerke usw.) betrieben.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; Initiierung oder Unterstützen der Etablierung der Projekte. Ma n che Kommunen betre i ben die Projekte selbst.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Vereine und Verbände&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; Vernetzung der Lastenrad s haring -Initiativen . Sie bieten vielfältige Informationen und Tipps rund um Lastenräder an und unterstützen lokale Initiativen und Projekte. Beispiele sind der Verband Freie Lastenräder e.V. , das Forum Freie Lastenräder, der VCD (Verkehrsclub Deutschland e.V.) und der ADFC (Allgemeine Deutsche Fahrrad-Club) .&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Lokale Betriebe (wie Fahrradladen, Café, Läden, Poststellen usw.):&lt;/b&gt; pflegen die Fahrrad ver leihstationen und übergeben Fahrräder an Kunden *innen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nationale Ebene: Sonderprogramm „Stadt und Land“&lt;/p&gt; &lt;p&gt;Lastenradförderung en in verschiedenen Bundesländern förder n den Kauf e ine s Lastenrades&lt;/p&gt; &lt;p&gt;LastenradBayern : Unterstützung der Etablierung de s k ommunalen Lastenrad s haring&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Das Lastenrad s haring trägt zur Reduktion der PKW-Nutzung bei, da es die Funktionalität des Fahrrads erweitert und sowohl für den Transport von Kindern als auch von Gütern genutzt werden kann. Becker (2018) zeigt in einer Untersuchung, dass über 46 % der Nutzer *innen eines freien Lastenradverleihs das Auto genutzt hätten, wenn kein Lastenrad s haring verfügbar gewesen wäre. Ähnliche Ergebnisse liefert eine Studie über kommerzielle Angebote in Bayern, in der Scheffler et al. (2023) feststellten, dass 55 % der Fahrten mit Lastenrädern Autofahrten ersetzt haben.&lt;/p&gt; &lt;p&gt;Ein weiterer Vorteil von Lastenrad s haring -Systemen besteht darin, dass die Sharing-Modelle eine kostengünstige Alternative zu Anschaffung neuer (e-)Lastenfahrräder bieten und so den Zugang zu Lastenfahrrädern erleichtern. Dies erhöht die soziale Gerechtigkeit und Gleichheit für alle Arten von Mobilitätsnutzern.&lt;/p&gt; &lt;p&gt;Zudem fördert das Lastenrad s haring suffizienzorientierte Verhaltensänderungen, indem es Menschen die Möglichkeit bietet, neue Mobilitätsformen zu erproben. Besonders für Personen, die bislang keine Erfahrung mit Lastenrädern hatten, eröffnet das Sharing-Modell die Chance, diese in ihren Alltag zu integrieren und langfristig den Einsatz privater Autos weiter zu verringern.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;D ie Lastenrad s haring -Systeme sind vor allem in urbanen Gebieten präsent. In ländlichen Regionen gestaltet sich die Umsetzung von Bike- und Lastenrad s haring jedoch schwieriger, da hier oft größere Transportdistanzen zu überwinden sind, was die Attraktivität und Praktikabilität solcher Angebote eingeschränkt. Jedoch gibt es auch guten Beispiele in ländlichen Gebieten .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Das Lastenrad s haring wird überwiegend von Menschen genutzt, die bereits regelmäßig Fahrrad fahren – sie machen 71 % der Nutzerschaft f reier Lastenradverleihe aus (Becker und Rudolf 2018). Eine Umfrage aus Bayern (Scheffler et al. 2023) ergab zudem, dass alle Befragten Zugang zu einem Auto haben, wobei 98 % sogar ein eigenes Fahrzeug im Haushalt besitzen. Dies Zeigt das Potenzial von Lastenrad s haring , Personen zu erreichen, die ihre Autonutzung reduzieren könnten.&lt;/p&gt; &lt;p&gt;Insbesondere sind Familien eine relevante Nutzungsgruppe von Lastenr ä d ern , da die Kinder be förderung eine wichtige Rolle spielt.&lt;/p&gt; &lt;p&gt;Insgesamt richtet sich das Lastenrad s haring besonders an Personen mit einer starken Affinität zu umweltfreundlichen Mobilitätsformen.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Beispiel: Projekt "RadLader" in Saarbrücken&lt;/p&gt; &lt;p&gt;Beispiel: Heinerbike in Darmstadt&lt;/p&gt; &lt;p&gt;Beispiel: TINT.BIKE&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einige kommerzielle n Anbieter für Bike sharing (z.B. Nextbike) bieten sowohl konventionelle Fahrräder als auch E-Bikes und Lastenräder an. Auch manche Carsharing-Anbieter haben Lastenräder in ihre Flotte integriert. Zudem gibt es Lastenrad-fokussierte kommerzielle Angebote wie Sigo und Cargoroo .&lt;/p&gt; &lt;p&gt;Darüber hinaus gibt es Privatpersonen oder Verbänden , die die freien Lastenradverleihe n betrieben und kein wirtschaftliches Ziel verfolgen.&lt;/p&gt; &lt;p&gt;In einigen Kommunen werden die Verleihsysteme direkt von den Kommunen initiiert. Solche Angebote werden entweder bei externe n Dienstleister n beauftragt oder von kommunalen Unternehmen (Verkehrsverbund, Stadtwerke usw.) betrieben.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; Initiierung oder Unterstützen der Etablierung der Projekte. Ma n che Kommunen betre i ben die Projekte selbst.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Vereine und Verbände&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; Vernetzung der Lastenrad s haring-Initiativen . Sie bieten vielfältige Informationen und Tipps rund um Lastenräder an und unterstützen lokale Initiativen und Projekte. Beispiele sind der Verband Freie Lastenräder e.V. , das Forum Freie Lastenräder, der VCD (Verkehrsclub Deutschland e.V.) und der ADFC (Allgemeine Deutsche Fahrrad-Club) .&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Lokale Betriebe (wie Fahrradladen, Café, Läden, Poststellen usw.):&lt;/b&gt; pflegen die Fahrrad ver leihstationen und übergeben Fahrräder an Kunden *innen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nationale Ebene: Sonderprogramm „Stadt und Land“&lt;/p&gt; &lt;p&gt;Lastenradförderung en in verschiedenen Bundesländern förder n den Kauf e ine s Lastenrades&lt;/p&gt; &lt;p&gt;LastenradBayern: Unterstützung der Etablierung de s k ommunalen Lastenrad s haring&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Lastenrad s haring trägt zur Reduktion der PKW-Nutzung bei, da es die Funktionalität des Fahrrads erweitert und sowohl für den Transport von Kindern als auch von Gütern genutzt werden kann. Becker (2018) zeigt in einer Untersuchung, dass über 46 % der Nutzer *innen eines freien Lastenradverleihs das Auto genutzt hätten, wenn kein Lastenrad s haring verfügbar gewesen wäre. Ähnliche Ergebnisse liefert eine Studie über kommerzielle Angebote in Bayern, in der Scheffler et al. (2023) feststellten, dass 55 % der Fahrten mit Lastenrädern Autofahrten ersetzt haben.&lt;/p&gt; &lt;p&gt;Ein weiterer Vorteil von Lastenrad s haring-Systemen besteht darin, dass die Sharing-Modelle eine kostengünstige Alternative zu Anschaffung neuer (e-)Lastenfahrräder bieten und so den Zugang zu Lastenfahrrädern erleichtern. Dies erhöht die soziale Gerechtigkeit und Gleichheit für alle Arten von Mobilitätsnutzern.&lt;/p&gt; &lt;p&gt;Zudem fördert das Lastenrad s haring suffizienzorientierte Verhaltensänderungen, indem es Menschen die Möglichkeit bietet, neue Mobilitätsformen zu erproben. Besonders für Personen, die bislang keine Erfahrung mit Lastenrädern hatten, eröffnet das Sharing-Modell die Chance, diese in ihren Alltag zu integrieren und langfristig den Einsatz privater Autos weiter zu verringern.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;D ie Lastenrad s haring-Systeme sind vor allem in urbanen Gebieten präsent. In ländlichen Regionen gestaltet sich die Umsetzung von Bike- und Lastenrad s haring jedoch schwieriger, da hier oft größere Transportdistanzen zu überwinden sind, was die Attraktivität und Praktikabilität solcher Angebote eingeschränkt. Jedoch gibt es auch guten Beispiele in ländlichen Gebieten .&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Lastenrad s haring wird überwiegend von Menschen genutzt, die bereits regelmäßig Fahrrad fahren – sie machen 71 % der Nutzerschaft f reier Lastenradverleihe aus (Becker und Rudolf 2018). Eine Umfrage aus Bayern (Scheffler et al. 2023) ergab zudem, dass alle Befragten Zugang zu einem Auto haben, wobei 98 % sogar ein eigenes Fahrzeug im Haushalt besitzen. Dies Zeigt das Potenzial von Lastenrad s haring, Personen zu erreichen, die ihre Autonutzung reduzieren könnten.&lt;/p&gt; &lt;p&gt;Insbesondere sind Familien eine relevante Nutzungsgruppe von Lastenr ä d ern , da die Kinder be förderung eine wichtige Rolle spielt.&lt;/p&gt; &lt;p&gt;Insgesamt richtet sich das Lastenrad s haring besonders an Personen mit einer starken Affinität zu umweltfreundlichen Mobilitätsformen.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;M1, M3&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Lastenradsharing gehört im Vergleich zu Carsharing zu den neueren Mobilitätsangeboten und hat in den letzten Jahren zunehmend Verbreitung in Deutschland gefunden. Laut der aktuellen Liste von cargobike.jetzt existieren bundesweit derzeit 271 Städte mit 337 Lastenradsharing -Systemen.  Das zunehmende Interesse der Kommunen, Lastenradsharing auf lokaler Ebene zu etablieren, verdeutlicht das große Potenzial, diese Systeme auch in weiteren Kommunen zu implementieren.&lt;/p&gt; &lt;p&gt;Für die weitere Verbreitung sind mehrere Faktoren entscheidend (Auswertung von Expert* inneninterviews in Rahmen des Projekts):&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; eine Weiterentwicklung der Geschäftsmodelle hin zu einem eigenwirtschaftlichen Betrieb ist von zentraler Bedeutung. Relevante Themen auf dem Weg dahin sind etwa die Ausgestaltung eines effizienteren Betriebes, Verhütung von Vandalismus durch bessere Schlosstechnik, autonomes Fahren, usw. Derzeit sind viele Angebote noch auf externe Förderungen angewiesen, was langfristig verändert werden muss, um die Systeme finanziell unabhängig und stabil zu machen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Sichere und gut ausgebaute Fahrradwege, ausreichend Fahrradparkplätze und zugängliche Fahrrad-Services sind essenziell, um das Fahrradfahren – und damit auch die Nutzung von Bike- und Lastenradsharing – attraktiver zu gestalten. Da das Fahrradfahren besonders für kürzere Strecken geeignet ist, spielt eine wohnortnahe Versorgung bzw. „Stadt der kurzen Wege“ eine zentrale Rolle, um die Abhängigkeit vom Auto zu verringern.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung&lt;/b&gt; :  Da die bestehenden Lastenradsharing -Angebote bisher häufig nicht eigenwirtschaftlich betrieben werden können, könnte politische Unterstützung, etwa durch Subventionen und gezielte Programme zur Förderung von Sharing-Systemen, die nötigen Rahmenbedingungen für den langfristigen Erfolg schaffen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kultur und Kommunikation&lt;/b&gt; : Eine Mobilitätskultur, die den Umstieg vom Auto auf das Fahrrad oder Lastenrad unterstützt und fördert, ist wesentlich, um das Nutzer*innenverhalten nachhaltig zu verändern. Der Mehrwert durch Lastenradfahren, wie Kostenersparnis und Spaß bei Kinder be förderung sollte im Vordergrund stehen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Becker, Sophia; Rudolf, Clemens (2018): Exploring the Potential of Free Cargo- Bikesharing for Sustainable Mobility. In: GAIA - Ecological Perspectives for Science and Society (27(1)), S. 156–164.&lt;/p&gt; &lt;p&gt;cargobike.jetzt &lt;a href="https://www.cargobike.jetzt/lastenrad-sharing-staedteliste/"&gt;https://www.cargobike.jetzt/lastenrad-sharing-staedteliste/&lt;/a&gt; Online verfügbar unter , zuletzt geprüft am 13.11.24.&lt;/p&gt; &lt;p&gt;Scheffler, Dirk; Hemming, Nadja; Wilke, Fiona (2023): Bericht der Evaluation der verkehrlichen Wirkungen von stationsbasierten Miet-Lastenrädern im Vergleich von sieben bayrischen Kommunen des Modellprojekts „Lastenrad mieten, Kommunen entlasten“. &lt;a href="https://radkompetenz.at/wp-content/uploads/2024/03/e-fect_Bericht_Evaluation_Modellprojekt-MLS-BY_end.pdf"&gt;https://radkompetenz.at/wp-content/uploads/2024/03/e-fect_Bericht_Evaluation_Modellprojekt-MLS-BY_end.pdf&lt;/a&gt; . v. TINK GmbH. Online verfügbar unter , zuletzt geprüft am 15.12.2024.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Lastenradsharing gehört im Vergleich zu Carsharing zu den neueren Mobilitätsangeboten und hat in den letzten Jahren zunehmend Verbreitung in Deutschland gefunden. Laut der aktuellen Liste von cargobike.jetzt existieren bundesweit derzeit 271 Städte mit 337 Lastenradsharing-Systemen (Stand 13.11.24) .  Das zunehmende Interesse der Kommunen, Lastenradsharing auf lokaler Ebene zu etablieren, verdeutlicht das große Potenzial, diese Systeme auch in weiteren Kommunen zu implementieren.&lt;/p&gt; &lt;p&gt;Für die weitere Verbreitung sind mehrere Faktoren entscheidend (Auswertung von Expert*inneninterviews in Rahmen des Projekts):&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; eine Weiterentwicklung der Geschäftsmodelle hin zu einem eigenwirtschaftlichen Betrieb ist von zentraler Bedeutung. Relevante Themen auf dem Weg dahin sind etwa die Ausgestaltung eines effizienteren Betriebes, Verhütung von Vandalismus durch bessere Schlosstechnik, autonomes Fahren, usw. Derzeit sind viele Angebote noch auf externe Förderungen angewiesen, was langfristig verändert werden muss, um die Systeme finanziell unabhängig und stabil zu machen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Sichere und gut ausgebaute Fahrradwege, ausreichend Fahrradparkplätze und zugängliche Fahrrad-Services sind essenziell, um das Fahrradfahren – und damit auch die Nutzung von Bike- und Lastenradsharing – attraktiver zu gestalten. Da das Fahrradfahren besonders für kürzere Strecken geeignet ist, spielt eine wohnortnahe Versorgung bzw. „Stadt der kurzen Wege“ eine zentrale Rolle, um die Abhängigkeit vom Auto zu verringern.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung&lt;/b&gt; :  Da die bestehenden Lastenradsharing-Angebote bisher häufig nicht eigenwirtschaftlich betrieben werden können, könnte politische Unterstützung, etwa durch Subventionen und gezielte Programme zur Förderung von Sharing-Systemen, die nötigen Rahmenbedingungen für den langfristigen Erfolg schaffen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation&lt;/b&gt; : Der Mehrwert durch Lastenradfahren, wie Kostenersparnis und Freude beim Transport von Kindern, sollte bei Kommunikationsstrategien im Vordergrund stehen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Becker, Sophia; Rudolf, Clemens (2018): Exploring the Potential of Free Cargo-Bikesharing for Sustainable Mobility. In: GAIA - Ecological Perspectives for Science and Society (27(1)), S. 156–164.&lt;/p&gt; &lt;p&gt;cargobike.jetzt: Lastenrad-Sharing. &lt;a href="https://www.cargobike.jetzt/lastenrad-sharing-staedteliste/"&gt;https://www.cargobike.jetzt/lastenrad-sharing-staedteliste/&lt;/a&gt; Online verfügbar unter , zuletzt geprüft am 13.11.24.&lt;/p&gt; &lt;p&gt;&lt;a href="https://radkompetenz.at/wp-content/uploads/2024/03/e-fect_Bericht_Evaluation_Modellprojekt-MLS-BY_end.pdf"&gt;https://radkompetenz.at/wp-content/uploads/2024/03/e-&lt;/a&gt; &lt;a href="https://radkompetenz.at/wp-content/uploads/2024/03/e-fect_Bericht_Evaluation_Modellprojekt-MLS-BY_end.pdf"&gt;fect_Bericht_Evaluation_Modellprojekt-MLS-BY_end.pdf&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>Mobile Versorgungsangebote</t>
@@ -433,7 +445,7 @@
     <t>&lt;ul&gt;&lt;li&gt;die rollende Arztpraxis DB Medibus&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Je nach a ngebotenen Produkte n , gibt es verschiedene Gesetzlage n .&lt;/p&gt;</t>
+    <t>&lt;p&gt;Je nach a ngebotenen Produkte n und Dienstleistungen , gibt es verschiedene Gesetzlage n .&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Mobile Versorgungsangebote können dazu beitragen, die Wege zu Versorgungseinrichtungen deutlich zu verkürzen. Besonders für mobilitätseingeschränkte Bevölkerungsgruppen in ländlichen Gebieten mit geringer Versorgungsdichte bieten sie die Möglichkeit, leichter Zugang zu wichtigen Dienstleistungen und Gütern zu erhalten.&lt;/p&gt;</t>
@@ -448,10 +460,10 @@
     <t>&lt;p&gt;M5&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Es gibt nur einzelne Beispiele für mobile Dienstleistungen um das Potenzial zu bewerten .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Klaas, Katharina; Kaas Elias, Alexander (2021): Verkehrswende im ländlichen Raum. VCD Factsheet zur Rolle des Autos in ländlichen Räumen, den Herausforderungen und Möglichkeiten des ÖPNV und seiner Bedeutung für die soziale Teilhabe. VCD (04/2021).&lt;/p&gt; &lt;p&gt;Siefer, Thomas; Sievers, Nina; Heemsoth , Jan Peter ( Hg .) (2023): Handbuch zur Planung flexibler Bedienungsformen im ÖPNV. Ein Beitrag zur Sicherung der Daseinsvorsorge in nachfrageschwachen Räumen. Unter Mitarbeit von Rafael Kistner und Lucas Biermanski . Technische Universität Braunschweig; Bundesinstitut für Bau-, Stadt- und Raumforschung; Deutschland. Stand Oktober 2023. Bonn: Bundesinstitut für Bau- Stadt- und Raumforschung im Bundesamt für Bauwesen und Raumordnung.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Es gibt nur einzelne Beispiele für mobile Dienstleistungen .&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Klaas, Katharina; Kaas Elias, Alexander (2021): Verkehrswende im ländlichen Raum. VCD Factsheet zur Rolle des Autos in ländlichen Räumen, den Herausforderungen und Möglichkeiten des ÖPNV und seiner Bedeutung für die soziale Teilhabe. VCD (04/2021).&lt;/p&gt; &lt;p&gt;Siefer, Thomas; Sievers, Nina; Heemsoth, Jan Peter (Hg.) (2023): Handbuch zur Planung flexibler Bedienungsformen im ÖPNV. Ein Beitrag zur Sicherung der Daseinsvorsorge in nachfrageschwachen Räumen. Unter Mitarbeit von Rafael Kistner und Lucas Biermanski. Technische Universität Braunschweig; Bundesinstitut für Bau-, Stadt- und Raumforschung; Deutschland. Stand Oktober 2023. Bonn: Bundesinstitut für Bau- Stadt- und Raumforschung im Bundesamt für Bauwesen und Raumordnung.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Mobilitätsstationen</t>
@@ -463,10 +475,10 @@
     <t>&lt;p&gt;Mobilitätsstationen sind zentrale Knotenpunkte, die verschiedene Mobilitätsangebote räumlich eng miteinander verbinden. Sie erleichtern den Übergang zwischen unterschiedlichen Verkehrsmitteln und fördern das intermodale und multimodale Verkehrsverhalten. Eine einheitliche Begriffsbestimmung für dieses Angebot existiert bislang noch nicht, da Gestaltung und Dimensionierung der Mobilitätsstationen sehr viel fältig ausfallen . Es gibt eine Vielzahl von synonym verwendeten Begriffen wie z.B. Mobilstation, Mobilit äts hubs oder Mobilitätspunkte.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Hinsichtlich der Ausstattungsmerkmale, der Größe der Stationen und ihrer Standorte ergibt sich eine zunehmende Differenzierung zwischen verschiedenen Arten von Mobilitätsstationen. Zu den möglichen Mobilitätsangeboten zählen unter anderem ÖPNV-Haltestellen, Car- und Bikesharing , (E-)Lastenräder, Fahrradabstellplätze sowie On-Demand-Mobilität. Darüber hinaus können zusätzliche Komponenten wie Reparaturstationen, Ladeinfrastruktur, Quartierslogistik oder lokale Dienstleistungen wie Leihläden integriert werden.&lt;/p&gt; &lt;p&gt;Je nach Standort der Mobilitätsstationen lassen sich Stationen mit regionaler, zentraler oder nachbarschaftlicher Funktion unterscheiden.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Mobilitätsstation in einer kleinere n Stadt: EinfachMobil , Offenburg&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Mobilitätsstation in einer Großstadt: mobil.punkte in Bremen&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;MOBIL IM QUARTIER - ALTERSGERECHTE MOBILSTATION ZWICKAU&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;Für w eitere Beispiele vgl. Stein, Thomas; Bauer, Uta (Hrsg.) 2019 ; Oswalt et al. 2023, S. 45&lt;/p&gt;</t>
+    <t>&lt;p&gt;Hinsichtlich der Ausstattungsmerkmale, der Größe der Stationen und ihrer Standorte ergibt sich eine zunehmende Differenzierung zwischen verschiedenen Arten von Mobilitätsstationen. Zu den möglichen Mobilitätsangeboten zählen unter anderem ÖPNV-Haltestellen, Car- und Bikesharing, (E-)Lastenräder, Fahrradabstellplätze sowie On-Demand-Mobilität. Darüber hinaus können zusätzliche Komponenten wie Reparaturstationen, Ladeinfrastruktur, Quartierslogistik oder lokale Dienstleistungen wie Leihläden integriert werden.&lt;/p&gt; &lt;p&gt;Je nach Standort der Mobilitätsstationen lassen sich Stationen mit regionaler, zentraler oder nachbarschaftlicher Funktion unterscheiden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Mobilitätsstation in einer kleinere n Stadt: EinfachMobil , Offenburg&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Mobilitätsstation in einer Großstadt: mobil.punkte in Bremen&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;MOBIL IM QUARTIER - ALTERSGERECHTE MOBILSTATION ZWICKAU&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;Für w eitere Beispiele vgl. Stein und Bauer 2019 ; Oswalt et al. 2023, S. 45&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Verkehrsunternehmen oder andere kommunale Unternehmen: Häufig Federführung der Mobilitätsstationen (Bauen und Betrieb)&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Anbieter des Car- /Fahrrad-Sharing usw. stellen d ie Dienstleistung bereit&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Anbieter für weitere Dienstleistungen&lt;/li&gt;&lt;/ul&gt;</t>
@@ -493,25 +505,25 @@
     <t>&lt;p&gt;M1, M2, M3, M5&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die ersten Mobilitätsstationen in Deutschland wurden 2003 in Bremen eingerichtet. Eine zunehmende Zahl von Städten integriert Mobilitätsstationen als wichtigen Bestandteil in ihre Mobilitätsplanungen. Während sich Mobilitätsstationen zunächst vorwiegend in Großstädten befanden, gibt es mittlerweile auch vereinzelte Beispiele in stadtnahen Randlagen, Kleinstädten und ländlichen Gebieten. In einigen Gegenden entwickeln sich darüber hinaus regionale Konzepte für Mobilitätsstationen (z. B. Region Kiel, Region München).&lt;/p&gt; &lt;p&gt;Die steigende Nachfrage nach umweltfreundlichen und geteilten Mobilitätsformen, wie Carsharing und Bikesharing , bietet eine solide Grundlage für die weitere Verbreitung von Mobilitätsstationen. Wichtige Faktoren sind dabei (Stein und Bauer 2019):&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Da verschiedene Mobilitätsangebote verknüpft werden, stellen komplexe und integrierte Betreibermodelle eine Herausforderung dar.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Verfügbarkeit von Flächen und Ladeinfrastruktur sind entscheidend.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Es fehlt derzeit an einer klaren Aufgabenverteilung für den Aufbau und Betrieb von Mobilitätsstationen. Hierfür ist eine integrierte Verwaltungsarbeit erforderlich, was häufig zu hohem Zeitaufwand und administrativem Aufwand führt.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kultur und Kommunikation:&lt;/b&gt; Die Standortwahl kann auf Widerstand in der Bevölkerung stoßen. Eine frühzeitige Einbindung der Anwohner*innen ist daher von großer Bedeutung.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;IGES Institut GmbH (2021): MobistaR . Grundlagenpapier für Mobilitätsstationen in städtischen Randlagen. Abschlussbericht. Berlin.&lt;/p&gt; &lt;p&gt;Oswalt, Philipp; Rettich, Stefan; Gerth, Thimo; Meyer, Lola; Varelis , Georgios: Neue Mobilität und Mobilitäts-Hubs im ländlichen Raum. Bonn (BBSR-Online-Publikation, 30/2023).&lt;/p&gt; &lt;p&gt;Stein, Thomas; Bauer, Uta ( Hg .): Mobilitätsstationen in der kommunalen Praxis. Erkenntnisse und Erfahrungen aus dem BMU-Forschungsprojekt City2Share und weiteren kommunalen Praxisbeispielen. 2. City2Share-Diskussionspapier. Berlin ( Difu -Sonderveröffentlichung).&lt;/p&gt; &lt;p&gt;Werneke , Marie; Grobe, Johann; Blees , Volker: Wo stehen wir in Deutschland bei der Etablierung von kreisweiten bzw. verbundweiten Netzen an Mobilitätsstationen? - Eine Übersicht neuer Mobilitätsangebote im suburbanen und ländlichen Raum. (Arbeitsberichte der Fachgruppe Mobilitätsmanagement, Nr. 26.).&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die ersten Mobilitätsstationen in Deutschland wurden 2003 in Bremen eingerichtet. Eine zunehmende Zahl von Städten integriert Mobilitätsstationen als wichtigen Bestandteil in ihre Mobilitätsplanungen. Während sich Mobilitätsstationen zunächst vorwiegend in Großstädten befanden, gibt es mittlerweile auch vereinzelte Beispiele in stadtnahen Randlagen, Kleinstädten und ländlichen Gebieten. In einigen Gegenden entwickeln sich darüber hinaus regionale Konzepte für Mobilitätsstationen (z. B. Region Kiel, Region München).&lt;/p&gt; &lt;p&gt;Die steigende Nachfrage nach umweltfreundlichen und geteilten Mobilitätsformen, wie Carsharing und Bikesharing, bietet eine solide Grundlage für die weitere Verbreitung von Mobilitätsstationen. Wichtige Faktoren sind dabei (Stein und Bauer 2019):&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Da verschiedene Mobilitätsangebote verknüpft werden, stellen komplexe und integrierte Betreibermodelle eine Herausforderung dar.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Verfügbarkeit von Flächen und Ladeinfrastruktur sind entscheidend.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Es fehlt derzeit an einer klaren Aufgabenverteilung für den Aufbau und Betrieb von Mobilitätsstationen. Hierfür ist eine integrierte Verwaltungsarbeit erforderlich, was häufig zu hohem Zeitaufwand und administrativem Aufwand führt.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; Die Standortwahl kann auf Widerstand in der Bevölkerung stoßen. Eine frühzeitige Einbindung der Anwohner*innen ist daher von großer Bedeutung.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;IGES Institut GmbH (2021): MobistaR. Grundlagenpapier für Mobilitätsstationen in städtischen Randlagen. Abschlussbericht. Berlin.&lt;/p&gt; &lt;p&gt;Oswalt, Philipp; Rettich, Stefan; Gerth, Thimo; Meyer, Lola; Varelis, Georgios: Neue Mobilität und Mobilitäts-Hubs im ländlichen Raum. Bonn (BBSR-Online-Publikation, 30/2023).&lt;/p&gt; &lt;p&gt;Stein, Thomas; Bauer, Uta (Hg.): Mobilitätsstationen in der kommunalen Praxis. Erkenntnisse und Erfahrungen aus dem BMU-Forschungsprojekt City2Share und weiteren kommunalen Praxisbeispielen. 2. City2Share-Diskussionspapier. Berlin (Difu-Sonderveröffentlichung).&lt;/p&gt; &lt;p&gt;Werneke, Marie; Grobe, Johann; Blees, Volker: Wo stehen wir in Deutschland bei der Etablierung von kreisweiten bzw. verbundweiten Netzen an Mobilitätsstationen? - Eine Übersicht neuer Mobilitätsangebote im suburbanen und ländlichen Raum. (Arbeitsberichte der Fachgruppe Mobilitätsmanagement, Nr. 26.).&lt;/p&gt;</t>
   </si>
   <si>
     <t>Mobility-as-a-Service</t>
   </si>
   <si>
-    <t>&lt;p&gt;Mobility- as -a-Service ( MaaS ) beschreibt eine Plattform, die verschiedene öffentliche und private Mobilitätsdienste integriert. Die Nutzer*innen können über eine App oder eine digitale Plattform einfachen Zugang zu multimodalen Verkehrsmitteln erhalten, diese direkt buchen und bezahlen. Die Nutzenden haben dabei Zugriff auf die in der Plattform enthaltenen Mobilitätsdienste, ohne ein direktes Vertragsverhältnis mit den Anbietern schließen zu müssen.&lt;/p&gt; &lt;p&gt;Das Konzept der Intermodalität – die flexible Nutzung verschiedener Verkehrsmittel wie Bus, Bahn, Fahrrad und Carsharing – steht im Mittelpunkt der MaaS -Systeme.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;MaaS -Plattformen können sowohl von privatwirtschaftlichen Akteuren als auch von öffentlichen Verkehrsbetrieben bereitgestellt werden. Es gibt drei wesentliche Varianten ( Piétron 2024 ) :&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;MaaS&lt;/b&gt; &lt;b&gt;-Kartendienste:&lt;/b&gt; Plattformen wie Google Maps oder Moovit begannen als Navigationsdienste und haben nach und nach externe Mobilitätsdienste integriert. Sie bieten in der Regel keine direkte Buchungs- oder Bezahlfunktion, sondern zeigen lediglich die Verfügbarkeit von Verkehrsmitteln an.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;MaaS&lt;/b&gt; &lt;b&gt;-Sharing-Plattformen:&lt;/b&gt; Diese Plattformen stellen eine Weiterentwicklung von Sharing-Anbietern und Fahrdiensten dar, dir zunehmend Car-, Bike- und Scooter s haring -Dienste in ihr Angebot aufnehmen . Sie zeichnen sich durch eine tiefere Integration aus, einschließlich Buchungs- und Bezahlfunktionen, konzentrieren sich jedoch auf kleinere geografische Gebiete und arbeiten mit ausgewählten Mobilitätsanbietern zusammen. Öffentliche Verkehrsmittel sind oft nur begrenzt verfügbar.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Öffentliche&lt;/b&gt; &lt;b&gt;MaaS&lt;/b&gt; &lt;b&gt;-Plattformen:&lt;/b&gt; Diese Plattformen werden von kommunalen oder staatlichen Akteuren betrieben und fokussieren sich auf den öffentlichen Nahverkehr. Sie binden Busse, Bahnen und private Mobilitätsdienste mit großer Integrationstiefe in einem klar abgegrenzten Versorgungsgebiet ein .&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Jelbei -App in Berlin&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Grundsätzlich k ann zwischen MaaS -Plattformen aus der Privatwirtschaft und dem öffentlichen Mobilitäts dienstleistern unterschieden werden.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Mobility-as-a-Service (MaaS) beschreibt eine Plattform, die verschiedene öffentliche und private Mobilitätsdienste integriert. Die Nutzer*innen können über eine App oder eine digitale Plattform einfachen Zugang zu multimodalen Verkehrsmitteln erhalten, diese direkt buchen und bezahlen. Die Nutzenden haben dabei Zugriff auf die in der Plattform enthaltenen Mobilitätsdienste, ohne ein direktes Vertragsverhältnis mit den Anbietern schließen zu müssen.&lt;/p&gt; &lt;p&gt;Das Konzept der Intermodalität – die flexible Nutzung verschiedener Verkehrsmittel wie Bus, Bahn, Fahrrad und Carsharing – steht im Mittelpunkt der MaaS-Systeme.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;MaaS-Plattformen können sowohl von privatwirtschaftlichen Akteuren als auch von öffentlichen Verkehrsbetrieben bereitgestellt werden. Es gibt drei wesentliche Varianten ( Piétron 2024 ) :&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;MaaS-Kartendienste:&lt;/b&gt; Plattformen wie Google Maps oder Moovit begannen als Navigationsdienste und haben nach und nach externe Mobilitätsdienste integriert. Sie bieten in der Regel keine direkte Buchungs- oder Bezahlfunktion, sondern zeigen lediglich die Verfügbarkeit von Verkehrsmitteln an.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;MaaS-Sharing-Plattformen:&lt;/b&gt; Diese Plattformen stellen eine Weiterentwicklung von Sharing-Anbietern und Fahrdiensten dar, dir zunehmend Car-, Bike- und Scooter s haring-Dienste in ihr Angebot aufnehmen . Sie zeichnen sich durch eine tiefere Integration aus, einschließlich Buchungs- und Bezahlfunktionen, konzentrieren sich jedoch auf kleinere geografische Gebiete und arbeiten mit ausgewählten Mobilitätsanbietern zusammen. Öffentliche Verkehrsmittel sind oft nur begrenzt verfügbar.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Öffentliche MaaS-Plattformen:&lt;/b&gt; Diese Plattformen werden von kommunalen oder staatlichen Akteuren betrieben und fokussieren sich auf den öffentlichen Nahverkehr. Sie binden Busse, Bahnen und private Mobilitätsdienste mit großer Integrationstiefe in einem klar abgegrenzten Versorgungsgebiet ein .&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Jelbei-App in Berlin&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Grundsätzlich k ann zwischen MaaS-Plattformen aus der Privatwirtschaft und dem öffentlichen Mobilitäts dienstleistern unterschieden werden.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommun&lt;/b&gt; &lt;b&gt;en&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Verkehrsbetrieb&lt;/b&gt; &lt;b&gt;e&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Technische Dienstleister und IT-Anbieter&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;</t>
@@ -523,7 +535,7 @@
     <t>&lt;p&gt;Förderlinie „Digitalisierung kommuna ler Verkehrssysteme“ , BMDV&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;MaaS -System e förder n m ultimod a le s Verkehrsverhalten. Durch die Reduzierung von Informations- und Transaktionskosten für gemeinsam genutzte Verkehrsmittel können die Hürden für die Nutzung nachhaltiger Mobilitätsoptionen gesenkt werden . Somit bieten MaaS -Systeme das Potenzial, den Individualverkehr mit Pkw zu reduzieren und umweltfreundliche Alternativen wie den ÖPNV, Radfahren und Zufußgehen zu fördern.&lt;/p&gt; &lt;p&gt;Jedoch lassen sich die positiven Umwelteffekte von MaaS -Plattformen bisher nicht eindeutig empirisch nachweisen (Wittstock und Teuteberg 2019) .  Entscheidend ist, in welchem Ausmaß der öffentliche Nahverkehr in diese Plattformen integriert wird.&lt;/p&gt;</t>
+    <t>&lt;p&gt;MaaS-System e förder n m ultimod a le s Verkehrsverhalten. Durch die Reduzierung von Informations- und Transaktionskosten für gemeinsam genutzte Verkehrsmittel können die Hürden für die Nutzung nachhaltiger Mobilitätsoptionen gesenkt werden . Somit bieten MaaS-Systeme das Potenzial, den Individualverkehr mit Pkw zu reduzieren und umweltfreundliche Alternativen wie den ÖPNV, Radfahren und Zufußgehen zu fördern.&lt;/p&gt; &lt;p&gt;Jedoch lassen sich die positiven Umwelteffekte von MaaS-Plattformen bisher nicht eindeutig empirisch nachweisen (Wittstock und Teuteberg 2019) .  Entscheidend ist, in welchem Ausmaß der öffentliche Nahverkehr in diese Plattformen integriert wird.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Vor allem in urbanen Gebiete n aber auch im ländlichen Raum&lt;/p&gt;</t>
@@ -532,10 +544,10 @@
     <t>&lt;p&gt;B essere Informationen als Maßnahme erhalten besonders von jüngeren Personen hohe Zustimmung. Bestehende Untersuchungen zeigen, dass hauptsächlich jüngere und technikaffine Menschen MaaS -System nutzen, jedoch bleibt der Mehrwert für andere Nutzergruppen unklar (Maas 2022). Nutzer *innen , die ein eigenes Auto besaßen, zeigten geringere Motivation, den Dienst zu nutzen.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;MaaS -Plattformen haben sich bereits als neues Leitparadigma der urbanen Mobilität etabliert, und die Zahl neuer Plattformen wächst stetig. In Deutschland gibt es jedoch keine bundesweit einheitliche Mobilitäts-App; stattdessen existiert eine Vielzahl paralleler Angebote, die zudem stark ungleich verteilt sind ( Piétron 2024) . In ländlichen Regionen fehlen vergleichbare Plattformen oft vollständig, während in Großstädten teilweise ein Überangebot an parallelen öffentlichen MaaS -Plattformen besteht. Diese Fragmentierung erschwert eine nationale Skalierung der Angebote.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Maas, Benjamin (2022): Literature Review of Mobility as a Service. In: Sustainability 14 (14), S. 8962. DOI: 10.3390/su14148962.&lt;/p&gt; &lt;p&gt;Piétron , Dominik (2024): Mobilitätsplattformen in Deutschland. Soziotechnische Dynamiken zwischen digitalem Kapitalismus und Nachhaltigkeit. In: Soziologie und Nachhaltigkeit (Sonderband 3: Beschleunigter Wandel oder nachhaltige Nicht-Nachhaltigkeit?), S. 105–134. DOI: 10.17879/sun-2024-5273.&lt;/p&gt; &lt;p&gt;Wittstock , Rikka ; Teuteberg , Frank (2019): Sustainability Impacts of Mobility as a Service: A Scoping Study for Technology Assessment. In: Frank Teuteberg , Maximilian Hempel und Liselotte Schebek (Hg.): Progress in Life Cycle Assessment 2018, Bd. 75. Cham: Springer International Publishing (Sustainable Production, Life Cycle Engineering and Management), S. 61–74.&lt;/p&gt;</t>
+    <t>&lt;p&gt;MaaS-Plattformen haben sich bereits als neues Leitparadigma der urbanen Mobilität etabliert, und die Zahl neuer Plattformen wächst stetig. In Deutschland gibt es jedoch keine bundesweit einheitliche Mobilitäts-App; stattdessen existiert eine Vielzahl paralleler Angebote, die zudem stark ungleich verteilt sind ( Piétron 2024) . In ländlichen Regionen fehlen vergleichbare Plattformen oft vollständig, während in Großstädten teilweise ein Überangebot an parallelen öffentlichen MaaS-Plattformen besteht. Diese Fragmentierung erschwert eine nationale Skalierung der Angebote.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Maas, Benjamin (2022): Literature Review of Mobility as a Service. In: Sustainability 14 (14), S. 8962. DOI: 10.3390/su14148962.&lt;/p&gt; &lt;p&gt;Piétron, Dominik (2024): Mobilitätsplattformen in Deutschland. Soziotechnische Dynamiken zwischen digitalem Kapitalismus und Nachhaltigkeit. In: Soziologie und Nachhaltigkeit (Sonderband 3: Beschleunigter Wandel oder nachhaltige Nicht-Nachhaltigkeit?), S. 105–134. DOI: 10.17879/sun-2024-5273.&lt;/p&gt; &lt;p&gt;Wittstock, Rikka; Teuteberg, Frank (2019): Sustainability Impacts of Mobility as a Service: A Scoping Study for Technology Assessment. In: Frank Teuteberg, Maximilian Hempel und Liselotte Schebek (Hg.): Progress in Life Cycle Assessment 2018, Bd. 75. Cham: Springer International Publishing (Sustainable Production, Life Cycle Engineering and Management), S. 61–74.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Gemeinschaftliche Wohnangebote</t>
@@ -553,6 +565,9 @@
     <t>&lt;p&gt;Gemeinschaftliche Wohnformen können je nach Vorstellungen der jeweiligen Gruppen unterschiedliche Ausrichtungen annehmen. Daraus sind vielfältige Konzepte entstanden, wie etwa Baugemeinschaft, Mehrgenerationenwohnen, inklusives Wohnen und Wohnen im Alter usw.&lt;/p&gt; &lt;p&gt;D ie Eigentums- und Finanzierungsmodelle sind vielfältig und umfassen sowohl Miet- als auch Eigentumsmodelle. Die möglichen rechtlichen Strukturen reichen von Eigentümer-Mieter-Kooperationen und Erbbaurechten über gemeinschaftliches Eigentum, Verein und Genossenschaften bis hin zum Modell des Miethäuser Syndikats.&lt;/p&gt; &lt;p&gt;Des Weiteren können sich gemeinschaftliche Wohnformen auch in der Organisation der gemeinschaftlich genutzten Räume unterscheiden : Hausgemeinschaft, Wohnungsgemeinschaft und Wohngemeinschaft (WG)&lt;/p&gt;</t>
   </si>
   <si>
+    <t>&lt;ul&gt;&lt;li&gt;Collegium Academicum , Heid e lberg&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Ökodorf Sieben Linden&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;Es stehen zahlreiche Informationen und Veröffentlichungen zu Beispielen für gemeinschaftliches Wohnen zur Verfügung. Beispiele hierfür sind:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Standortkarte des Mietshäuser Syndikats:&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;a href="https://www.gemeinschaftliches-wohnen.de/projektbeispiele-gemeinschaftliches-wohnen/"&gt;https://www.gemeinschaftliches-wohnen.de/projektbeispiele-gemeinschaftliches-wohnen/&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;ul&gt;&lt;li&gt;Die Projektgruppe initiiert das Projekt und gestalte t dies gemeinschaftlich durch partizipative Entscheidungsprozesse.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Bestehende Wohnprojekt e oder Genossenschaft en können freie Wohnungen zur Verfügung stellen, oder weitere Wohnprojekt e initiieren.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
@@ -577,10 +592,10 @@
     <t>&lt;p&gt;W2, W3, W4&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Gemeinschaftliches Wohnen existiert seit den 1970er-Jahren als expandierendes Nischenprodukt auf dem Wohnungsmarkt. Die Anzahl und typologische Vielfalt solcher Projekte n eh m en kontinuierlich zu. Mit der steigenden Nachfrage birgt gemeinschaftliches Wohnen jedoch ein erhebliches Potenzial zur weiteren Verbreitung. Aktuell bilden ältere Menschen und Mieter*innen die Hauptzielgruppen. Doch gemäß der Suzanna-Befragung findet diese Wohnform auch bei jüngeren Generationen und Familien große Zustimmung, was auf ein hohes Potenzial in diesen Gruppen hinweist.&lt;/p&gt; &lt;p&gt;Folgende Faktoren für die weitere Verbreitung sind zu erkennen :&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodell:&lt;/b&gt; Eine sorgfältige Gruppenzusammensetzung stellt einen zentralen Erfolgsfaktor sowohl für die Projektentwicklung als auch für das spätere Zusammenleben dar. Professionelle Begleitung kann die Zusammenarbeit innerhalb der Gruppe wesentlich erleichtern. Zudem können innovative Organisationsformen, wie das Modell des Miethäuser Syndikats, und neue Geschäftsansätze, beispielsweise die Förderung gemeinschaftlicher Wohnformen durch kommunale Wohnungsbaugesellschaften, die Verbreitung des Konzepts unterstützen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastrukturen:&lt;/b&gt; Die Verfügbarkeit von geeigneten Flächen stellt eine der wesentlichen Hürden für die Realisierung gemeinschaftlicher Wohnprojekte dar. Besonders relevant ist hierbei die Vergabe öffentlicher Flächen auf Grundlage von Konzeptverfahren, da gemeinschaftliche Wohnformen andernfalls kaum Chancen auf Umsetzung haben. Auch die systematische Ermittlung von Leerstand kann dazu beitragen, passende Flächen für solche Projekte zu identifizieren.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Regulatorische Rahmenbedingungen und p&lt;/b&gt; &lt;b&gt;olitische Unterstützung:&lt;/b&gt; Politischer Wille ist entscheidend für die Verbreitung des Konzepts. Bund, Länder und Kommunen müssen gemeinschaftliche Wohnformen fördern und als wichtigen Beitrag zur Erweiterung des Wohnungsangebots sowie zur Umsetzung individueller und gesellschaftlich relevanter Wohnkonzepte anerkennen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kultur und Kommunikation:&lt;/b&gt; Der soziale Zusammenhalt und die nachbarschaftliche Unterstützung, die gemeinschaftliche Wohnformen bieten, tragen maßgeblich zur Verbesserung der Wohnqualität bei. Diese Aspekte sollten durch gezielte Informationskampagnen und aktive Beratungsangebote stärker in den Fokus gerückt werden.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;FORUM Gemeinschaftliches Wohnen: &lt;a href="https://win.fgw-ev.de/lernbereich/orientieren/was-sind-gemeinschaftliche-wohnprojekte/?bt="&gt;https://win.fgw-ev.de/lernbereich/orientieren/was-sind-gemeinschaftliche-wohnprojekte/?bt=&lt;/a&gt; , zuletzt geprüft am 04.11.2024.&lt;/p&gt; &lt;p&gt;WIN für Gemeinschaftliches Wohnen: WIN-Förderdatenbank. Online verfügbar unter &lt;a href="https://win.fgw-ev.de/win-foerderdatenbank/"&gt;https://win.fgw-ev.de/win-foerderdatenbank/&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Netzwerk Zukunftsorte e. V. (2022): Übermorgen, vom Leerstand zum Zukunftsort. Potenziale und Werkzeuge der gemeinwohlorientierten Leerstandsentwicklung auf dem Land. 1. Auflage, Brandenburg.&lt;/p&gt; &lt;p&gt;Schröer, Achim (2019): Mehrfach:Nutzen – Mehrfachnutzung und Space Sharing als Strategie zur nachhaltigen Stadtentwicklung. In: Dietrich Henckel und Caroline Kramer ( Hg .): Zeitgerechte Stadt. Konzepte und Perspektiven für die Planungspraxis. Hannover: Akademie für Raumforschung und Landesplanung Leibniz-Forum für Raumwissenschaften (Forschungsberichte der ARL, 9), S. 203–222.&lt;/p&gt; &lt;p&gt;Wuppertal Institut (2022): Gemeinschaftliches Wohnen für mehr Wohnsuffizienz? Bericht im Rahmen des Forschungsprojekts OptiWohn , Wuppertal.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Gemeinschaftliches Wohnen existiert seit den 1970er-Jahren als expandierendes Nischenprodukt auf dem Wohnungsmarkt. Die Anzahl und typologische Vielfalt solcher Projekte n eh m en kontinuierlich zu. Mit der steigenden Nachfrage birgt gemeinschaftliches Wohnen jedoch ein erhebliches Potenzial zur weiteren Verbreitung. Aktuell bilden ältere Menschen und Mieter*innen die Hauptzielgruppen. Doch gemäß der Suzanna-Befragung findet diese Wohnform auch bei jüngeren Generationen und Familien große Zustimmung, was auf ein hohes Potenzial in diesen Gruppen hinweist.&lt;/p&gt; &lt;p&gt;Folgende Faktoren für die weitere Verbreitung sind zu erkennen :&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodell:&lt;/b&gt; Eine sorgfältige Gruppenzusammensetzung stellt einen zentralen Erfolgsfaktor sowohl für die Projektentwicklung als auch für das spätere Zusammenleben dar. Professionelle Begleitung kann die Zusammenarbeit innerhalb der Gruppe wesentlich erleichtern. Zudem können innovative Organisationsformen, wie das Modell des Miethäuser Syndikats, und neue Geschäftsansätze, beispielsweise die Förderung gemeinschaftlicher Wohnformen durch kommunale Wohnungsbaugesellschaften, die Verbreitung des Konzepts unterstützen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastrukturen:&lt;/b&gt; Die Verfügbarkeit von geeigneten Flächen stellt eine der wesentlichen Hürden für die Realisierung gemeinschaftlicher Wohnprojekte dar. Besonders relevant ist hierbei die Vergabe öffentlicher Flächen auf Grundlage von Konzeptverfahren, da gemeinschaftliche Wohnformen andernfalls kaum Chancen auf Umsetzung haben. Auch die systematische Ermittlung von Leerstand kann dazu beitragen, passende Flächen für solche Projekte zu identifizieren.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Regulatorische Rahmenbedingungen und p&lt;/b&gt; &lt;b&gt;olitische Unterstützung:&lt;/b&gt; Politischer Wille ist entscheidend für die Verbreitung des Konzepts. Bund, Länder und Kommunen müssen gemeinschaftliche Wohnformen fördern und als wichtigen Beitrag zur Erweiterung des Wohnungsangebots sowie zur Umsetzung individueller und gesellschaftlich relevanter Wohnkonzepte anerkennen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; Der soziale Zusammenhalt und die nachbarschaftliche Unterstützung, die gemeinschaftliche Wohnformen bieten, tragen maßgeblich zur Verbesserung der Wohnqualität bei. Diese Aspekte sollten durch gezielte Informationskampagnen und aktive Beratungsangebote stärker in den Fokus gerückt werden.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;FORUM Gemeinschaftliches Wohnen: &lt;a href="https://win.fgw-ev.de/lernbereich/orientieren/was-sind-gemeinschaftliche-wohnprojekte/?bt="&gt;https://win.fgw-ev.de/lernbereich/orientieren/was-sind-gemeinschaftliche-wohnprojekte/?bt=&lt;/a&gt; , zuletzt geprüft am 04.11.2024.&lt;/p&gt; &lt;p&gt;WIN für Gemeinschaftliches Wohnen: WIN-Förderdatenbank. Online verfügbar unter &lt;a href="https://win.fgw-ev.de/win-foerderdatenbank/"&gt;https://win.fgw-ev.de/win-foerderdatenbank/&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Netzwerk Zukunftsorte e. V. (2022): Übermorgen, vom Leerstand zum Zukunftsort. Potenziale und Werkzeuge der gemeinwohlorientierten Leerstandsentwicklung auf dem Land. 1. Auflage, Brandenburg.&lt;/p&gt; &lt;p&gt;Schröer, Achim (2019): Mehrfach:Nutzen – Mehrfachnutzung und Space Sharing als Strategie zur nachhaltigen Stadtentwicklung. In: Dietrich Henckel und Caroline Kramer (Hg.): Zeitgerechte Stadt. Konzepte und Perspektiven für die Planungspraxis. Hannover: Akademie für Raumforschung und Landesplanung Leibniz-Forum für Raumwissenschaften (Forschungsberichte der ARL, 9), S. 203–222.&lt;/p&gt; &lt;p&gt;Wuppertal Institut (2022): Gemeinschaftliches Wohnen für mehr Wohnsuffizienz? Bericht im Rahmen des Forschungsprojekts OptiWohn , Wuppertal.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Beratung- und Information für gemeinschaftliches Wohnen</t>
@@ -592,7 +607,7 @@
     <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Zentrale Anlaufstelle&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; Zentrale Anlaufstellen bieten umfassende Beratungsangebote, die den Einstieg in gemeinschaftliche Wohnformen erleichtern und dabei rechtliche, finanzielle sowie organisatorische Fragen klären. Sie fördern zudem die Vernetzung und Koordination lokaler Akteure – von Initiativgruppen über Wohnungsbaugesellschaften bis hin zu öffentlichen Trägern. In manchen Kommunen sind ihre Angebote mit Wohn raum beratung kombiniert. Diese Anlaufstellen werden in der Regel durch landes- oder kommunale Verwaltungen finanziert und können entweder extern beauftragt oder verwaltungsintern angesiedelt sein.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Fachliche Beratungsangebote&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; Fachliche Beratungsangebote decken eine Vielzahl von Themen ab, darunter Architektur und Planung, Projektentwicklung und -steuerung, Kostencontrolling, Finanzierung, wirtschaftliche Beratung, Energieberatung und Projektverwaltung . Die Finanzierung dieser Beratungen erfolgt in der Regel durch Projektmittel oder öffentliche Zuschüsse.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Beispiele für zentrale Anlaufstellen:&lt;/p&gt; &lt;p&gt;Netzwerk Leipzig Freiheit , Leipzig&lt;/p&gt; &lt;p&gt;Netzwerkagentur Generation Wohnen , Berlin&lt;/p&gt; &lt;p&gt;Landesberatungsstelle Gemeinschaftliches Wohnen Hessen&lt;/p&gt; &lt;p&gt;&lt;a href="https://win.fgw-ev.de/win-kompass/"&gt;https://win.fgw-ev.de/win-kompass/&lt;/a&gt; t s i ch auf der Website „WIN Kompass“ des Forum s für Gemeinschaftliches Wohnen:&lt;/p&gt; &lt;p&gt;Eine Liste fachlicher Beratungsangebote ist beispielsweise auf der Website „ wohnprojekte portal “ der Stiftung trias verfügbar:&lt;/p&gt;</t>
+    <t>&lt;p&gt;Beispiele für zentrale Anlaufstellen:&lt;/p&gt; &lt;p&gt;Netzwerk Leipzig Freiheit , Leipzig&lt;/p&gt; &lt;p&gt;Netzwerkagentur Generation Wohnen , Berlin&lt;/p&gt; &lt;p&gt;Landesberatungsstelle Gemeinschaftliches Wohnen Hessen&lt;/p&gt; &lt;p&gt;&lt;a href="https://win.fgw-ev.de/win-kompass/"&gt;https://win.fgw-ev.de/win-kompass/&lt;/a&gt; t s i ch auf der Website „WIN Kompass“ des Forum s für Gemeinschaftliches Wohnen:&lt;/p&gt; &lt;p&gt;Eine Liste fachlicher Beratungsangebote ist beispielsweise auf der Website „wohnprojekte portal“ der Stiftung trias verfügbar:&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Die Anbietenden lassen sich in folgende Akteure unterteilen:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Öffentliche Verwaltung:&lt;/b&gt; Initiiert und finanziert zentrale Anlaufstellen für grundlegende Beratung und Projektkoordination.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Stiftungen und Vereine:&lt;/b&gt; Akteure wie das Forum Gemeinschaftliches Wohnen, die Stiftung trias und das Mietshäuser Syndikat bieten fundierte Unterstützung.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Örtlichen Genossenschaft:&lt;/b&gt; Geben ihre Erfahrungen weiter und beraten lokale Initiativen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Private und kommerzielle Berater*innen:&lt;/b&gt; Unterstützen mit fachlicher Expertise . Insbesondere spielen Architekturbüros eine wichtige Rolle bei Bedarfsermittlung , Planung und Projektmanagement.&lt;/li&gt;&lt;/ul&gt;</t>
@@ -613,7 +628,7 @@
     <t>&lt;p&gt;Derzeit liegt der Schwerpunkt der Wohnberatung auf der „älteren Gruppe“, wobei viele Angebote im Bereich des gemeinschaftlichen Wohnens speziell für ältere Menschen stattfinden. Potenziell richten sich die Beratungsangebote jedoch an alle sozialen Gruppen, insbesondere an Familien, die einen steigenden Bedarf haben.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Auf der Plattform WIN-Kompass werden insgesamt 80 Beratungsangebote (Stand 11.2024) für gemeinschaftliches Wohnen gelistet. Der steigende Bedarf an solchen Wohnformen verdeutlicht die Potenziale und auch Notwendigkeit entsprechender Beratungsangebote.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Der steigende Bedarf an gemeinschaftlichen Wohnformen erfordert eine entsprechende Ausweitung von Beratungsangeboten. Dies spiegelt sich beispielsweise auf der Plattform WIN-Kompass wider, auf der insgesamt 80 Beratungsangebote für gemeinschaftliches Wohnen gelistet sind (Stand: 11/2024). Die wachsende Zahl solcher Angebote unterstreicht sowohl das Potenzial als auch die Notwendigkeit, entsprechende Beratungsstrukturen weiter auszubauen.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;WIN für Gemeinschaftliches Wohnen: &lt;a href="https://win.fgw-ev.de/win-kompass/"&gt;https://win.fgw-ev.de/win-kompass/&lt;/a&gt; Onli ne verfügbar unter , zuletzt geprüft am 04.11.2024.&lt;/p&gt;</t>
@@ -628,10 +643,13 @@
     <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Wohnprojektportale:&lt;/b&gt; Die Vermittlung erfolgt in der Regel in Form einer digitalen Plattform, wobei Kontakte zwischen potenziellen Bewohnern , Projektgruppen und Immobilieneigentümern vermittelt werden.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Immobilienagentur für gemeinschaftliches Wohnen:&lt;/b&gt; Es werden Kontakte zwischen Hauseigentümer*innen und Wohnungsbaugenossenschaften vermittelt, mit dem Ziel einer s ozialverträglichen Bewirtschaftung der Immobilien .&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Projektbörse des FORUM Gemeinschaftliches Wohnen e.V.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Wohnprojekte-Portal der Stiftung t rias&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Wohnportal Rheinland-Pfalz&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Bring- Together&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;GIMA-Berlin-Brandenburg eG.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bei den bestehenden Wohnprojektportalen handelt es sich überwiegend um kostenlose Angebote von Vereinen/Stiftungen, Genossenschaften und der öffentlichen Verwaltung. Das einzige kommerzielle Angebot in Deutschland ist Bring- together .&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;Projektbörse des FORUM Gemeinschaftliches Wohnen e.V.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Wohnprojekte-Portal der Stiftung t rias&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Wohnportal Rheinland-Pfalz&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Bring-Together&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;GIMA-Berlin-Brandenburg eG.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bei den bestehenden Wohnprojektportalen handelt es sich überwiegend um kostenlose Angebote von Vereinen/Stiftungen, Genossenschaften und der öffentlichen Verwaltung. Das einzige kommerzielle Angebot in Deutschland ist Bring-together .&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kommunale&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Die Vermittlung für gemeinschaftliches Wohnen spielt eine zentrale Rolle im gemeinschaftlichen Wohnen, indem sie Interessierte, Initiativen und bestehende Projekte miteinander vernetzt und den Weg zur Realisierung solcher Wohnformen ebnet. Dabei adressiert sie indirekt die Aspekte von Suffizienz, indem sie gemeinschaftliches Wohnen fördert.&lt;/p&gt;</t>
@@ -640,10 +658,10 @@
     <t>&lt;p&gt;Interessierte für gemeinschaftliches Wohnen&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Es gibt keine umfassenden Statistiken zur Nutzer- und Vermittlungszahl kostenloser Wohnprojektportale. Die Wirkungsanalyse der kommerziellen Plattform Bring- Together (2024) zeigt jedoch einen steigenden Bedarf an gemeinschaftlichem Wohnen. Ähnlich wie bei Beratungsangeboten unterstreicht der steigende Bedarf an gemeinschaftlichen Wohnformen die Relevanz und Notwendigkeit der Wohnprojektvermittlung.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;bring- &lt;a href="https://www.bring-together.de/de/info/aktuelles/wirkungsanalyse-2023"&gt;https://www.bring-together.de/de/info/aktuelles/wirkungsanalyse-2023&lt;/a&gt; (2024): Wirkungsanalyse für gemeinsames Wohnen mit bring- together 2023 . Onli ne verfügbar unter , letzter Zugriff am 10.11.2024&lt;/p&gt;</t>
+    <t>&lt;p&gt;Es gibt keine umfassenden Statistiken zur Nutzer- und Vermittlungszahl kostenloser Wohnprojektportale. Die Wirkungsanalyse der kommerziellen Plattform Bring-Together (2024) zeigt jedoch einen steigenden Bedarf an gemeinschaftlichem Wohnen. Ähnlich wie bei Beratungsangeboten unterstreicht der steigende Bedarf an gemeinschaftlichen Wohnformen die Relevanz und Notwendigkeit der Wohnprojektvermittlung.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;bring-together &lt;a href="https://www.bring-together.de/de/info/aktuelles/wirkungsanalyse-2023"&gt;https://www.bring-together.de/de/info/aktuelles/wirkungsanalyse-2023&lt;/a&gt; Wirkungsanalyse für gemeinsames Wohnen mit bring-together 2023 . Onli ne verfügbar unter , letzter Zugriff am 10.11.2024&lt;/p&gt;</t>
   </si>
   <si>
     <t>Umnutzung von leerstehenden Gebäuden für neue Wohnmodelle</t>
@@ -682,7 +700,7 @@
     <t>&lt;p&gt;Die bestehenden Initiativen zeigen Wege auf, wie ländliche Räume durch Aktivierung von Leerständen als attraktive Standorte weiterentwickelt werden können. S ie dienen als Vorbilder, die zeigen, wie durch kreative Nutzung von Leerständen neue Lebens- und Arbeitsräume entstehen können. Dieses Potenzial lässt sich durch gezielte Förderung, Vernetzung und den Transfer von Best Practices weiter skalieren.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Netzwerk Zukunftsorte e. V. (2022): Übermorgen, vom Leerstand zum Zukunftsort. Potenziale und Werkzeuge der gemeinwohlorientierten Leerstandsentwicklung auf dem Land. 1. Auflage, Brandenburg&lt;/p&gt; &lt;p&gt;PES e.V., Sutter3, K-Punkt Ländliche Entwicklung ( &lt;a href="https://kpunktland-drs.de/wp-content/uploads/2020/10/JW_Dokumentation_WEB-final.pdf"&gt;https://kpunktland-drs.de/wp-content/uploads/2020/10/JW_Dokumentation_WEB-final.pdf&lt;/a&gt; .): Junges Wohnen: Zukunftsorientierte Wohnmodelle für junge Erwachsene durch Umnutzung von leerstehenden Gebäuden im Ortskern. Ein Modellprojekt in Baden-Württemberg. Freiburg. Online verfügbar unter , zuletzt geprüft am 16.12.2024&lt;/p&gt;</t>
+    <t>&lt;p&gt;Netzwerk Zukunftsorte e. V. (2022): Übermorgen, vom Leerstand zum Zukunftsort. Potenziale und Werkzeuge der gemeinwohlorientierten Leerstandsentwicklung auf dem Land. 1. Auflage, Brandenburg&lt;/p&gt; &lt;p&gt;PES e.V., Sutter3, K-Punkt Ländliche Entwicklung (Hg.): Junges Wohnen: Zukunftsorientierte Wohnmodelle für junge Erwachsene durch Umnutzung von leerstehenden Gebäuden im Ortskern. Ein Modellprojekt in Baden-Württemberg. Freiburg. Online verfügbar unter &lt;a href="https://kpunktland-drs.de/wp-content/uploads/2020/10/JW_Dokumentation_WEB-final.pdf"&gt;https://kpunktland-drs.de/wp-content/uploads/2020/10/JW_Dokumentation_WEB-final.pdf&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>Wohnraumberatung und Wohnraummobilisierung</t>
@@ -715,10 +733,10 @@
     <t>&lt;p&gt;W1, W2&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die Forschungsprojekte „ OptiWohn “ (Wuppertal Institut 2021) und „Lebensräume“ (Paar 2020) zeigen sowohl die Notwendigkeit als auch die Chancen auf, Themen wie Wohnmobilisierung und Flächenoptimierung in Verbindung mit dem Konzept der „Suffizienz“ in bestehende Beratungsangebote zu integrieren.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Energieagentur Regio Freiburg GmbH ( &lt;a href="https://energieagentur-regio-freiburg.eu/wp-content/uploads/2022/03/begleitbroschure-kleiner-besser-wohnen-web.pdf"&gt;https://energieagentur-regio-freiburg.eu/wp-content/uploads/2022/03/begleitbroschure-kleiner-besser-wohnen-web.pdf&lt;/a&gt; .) (2022): Wie wohne ich kleiner besser? Alles auf einen Blick. Online verfügbar unter , zuletzt geprüft am 16.12.2024.&lt;/p&gt; &lt;p&gt;Paar, Angelika (2020): Wohnraummobilisierung – gut für Menschen, Kommune und Klima. Eine Handreichung. Online verfügbar unter &lt;a href="https://www.oeko.de/fileadmin/lebensraeume/Handreichung_Wohnraummobilisierung.pdf"&gt;https://www.oeko.de/fileadmin/lebensraeume/Handreichung_Wohnraummobilisierung.pdf&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Wuppertal Institut (2021): Wie könnten Beratungsangebote zur Optimierung der Wohnflächennutzung aussehen? Bericht im Rahmen des Forschungsprojekts OptiWohn . Wuppertal.&lt;/p&gt; &lt;p&gt;Wuppertal Institut (2022): Evaluation der Wohnraumberatung Tübingen im Projekt OptiWohn . Wuppertal.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die Forschungsprojekte „OptiWohn“ (Wuppertal Institut 2021) und „Lebensräume“ (Paar 2020) zeigen sowohl die Notwendigkeit als auch die Chancen auf, Themen wie Wohnmobilisierung und Flächenoptimierung in Verbindung mit dem Konzept der „Suffizienz“ in bestehende Beratungsangebote zu integrieren.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Energieagentur Regio Freiburg GmbH (Hg.) (2022): Wie wohne ich kleiner besser? Alles auf einen Blick. Online verfügbar unter &lt;a href="https://energieagentur-regio-freiburg.eu/wp-content/uploads/2022/03/begleitbroschure-kleiner-besser-wohnen-web.pdf"&gt;https://energieagentur-regio-freiburg.eu/wp-content/uploads/2022/03/begleitbroschure-kleiner-besser-wohnen-web.pdf&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Paar, Angelika (2020): Wohnraummobilisierung – gut für Menschen, Kommune und Klima. Eine Handreichung. Online verfügbar unter &lt;a href="https://www.oeko.de/fileadmin/lebensraeume/Handreichung_Wohnraummobilisierung.pdf"&gt;https://www.oeko.de/fileadmin/lebensraeume/Handreichung_Wohnraummobilisierung.pdf&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Wuppertal Institut (2021): Wie könnten Beratungsangebote zur Optimierung der Wohnflächennutzung aussehen? Bericht im Rahmen des Forschungsprojekts OptiWohn. Wuppertal.&lt;/p&gt; &lt;p&gt;Wuppertal Institut (2022): Evaluation der Wohnraumberatung Tübingen im Projekt OptiWohn. Wuppertal.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Wohnungstauschplattformen</t>
@@ -748,16 +766,16 @@
     <t>&lt;p&gt;Der Wohnungstausch trägt zu suffiziente m Wohnen bei, indem er eine bedarfsgerechte Verteilung der bestehenden Wohnung ermöglicht. Durch den Tausch können Über- und Unterbelegungen reduziert werden, was zu einer effizienteren Nutzung der bestehenden Wohnflächen führt. Dies kann den Bedarf an Neubauten verringern und somit Ressourcen schonen.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Besonders in Großstädten, wo Wohnungssuche aufgrund des angespannten Wohnungsmarktes schwierig ist, biete t Wohnungstausch eine alternative Möglichkeit für Wohnungssuchen de .&lt;/p&gt;</t>
+    <t>&lt;p&gt;Kommunale Plattformen existieren vor allem in Großstädten, wie Berlin, München, Düsseldorf, Freiburg und Hamburg. Angesichts des angespannten Wohnungsmarktes in diesen Städten stellt der Wohnungstausch eine vielversprechende Alternative für Wohnungssuchende dar.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Mieter*innen, und ältere Leute werden häufig als Zielgruppe für eine Verkleinerung ihrer Wohnfläche definiert.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Der Wohnungstausch zeigt ein hohes Potenzial für weitere Verbreitung , was sich an der steigenden Anzahl registrierter Nutzer und Nutzerinnen ablesen lässt. Jeden Monat werden zwischen 6.000 und 10.000 Wohnungen neu auf verschiedenen Plattformen angeboten.&lt;/p&gt; &lt;p&gt;Kommunale Plattformen existieren bereits in Städten wie Berlin, München, Düsseldorf, Freiburg und Hamburg.&lt;/p&gt; &lt;p&gt;In der Praxis zeigt sich jedoch, dass trotz hoher Nachfrage bisher nur wenige Tauschprojekte realisiert wurden. Verschiedene Schwierigkeiten bei der Umsetzung solcher Tauschvorhaben können als Hemmnisse identifiziert werden. Vor allem lässt sich auf das drastische Missverhältnis von gesuchten und angebotenen Wohnungsgrößen verweis en. Insbesondere ist die Bereitschaft in der älteren Gruppe gering, einen Tausch durchzuführen, wobei die emotionale Bindung an die eigene Wohnung eine große Rolle spielt. Insgesamt ist die Bereitschaft, in eine kleinere Wohnung zu ziehen gering, da es vor allem in angespannten Wohnungsmärkten oft nur einen sehr begrenzten finanziellen Vorteil bietet und viele weitere Kosten (Umzug, Renovierung usw.) erzeugt. Zudem sind die Vermieter*innen, die Abstimmung von Mietvertragsbedingungen sowie die rechtliche Absicherung des Tauschs nennenswerte Hürden . Obendrein bestehen zusätzlich praktische Hindernisse, die einen Tausch erschweren. Dazu zähl t vor allem der Aufwand des Umzugs ( Kitzmann 2023).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kitzmann , Robert: Tauschst du schon oder suchst du noch? Kommunaler Wohnungstausch ist keine Erfolgsgeschichte. In: Forum Wohnen und Stadtentwicklung (5), S. 273–275.&lt;/p&gt; &lt;p&gt;Leiß, Birgit (2020): Wohnungstausch bei landeseigenen Wohnungsbaugesellschaften: Krasses Missverhältnis ( &lt;a href="https://www.berliner-mieterverein.de/magazin/online/mm0920/wohnungstausch-bei-landeseigenen-wohnungsbaugesellschaften-krasses-missverhaeltnis-bei-angebot-und-nachfrage-092008a.htm"&gt;https://www.berliner-mieterverein.de/magazin/online/mm0920/wohnungstausch-bei-landeseigenen-wohnungsbaugesellschaften-krasses-missverhaeltnis-bei-angebot-und-nachfrage-092008a.htm&lt;/a&gt; , 9/20). Online verfügbar unter , zuletzt aktualisiert am 02.09.2020, zuletzt geprüft am 15.11.2024.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Der Wohnungstausch weist aufgrund der zunehmenden Nachfrage ein Potenzial für eine weitere Verbreitung auf, was sich an der steigenden Zahl registrierter Nutzerinnen und Nutzer auf den entsprechenden Plattformen zeigt. So w u rden in Jahr 2023 monatlich zwischen 6000 und 10.000 Wohnungen neu angeboten ( Melcher 2023) .&lt;/p&gt; &lt;p&gt;In der Praxis zeigt sich jedoch, dass trotz hoher Nachfrage bisher nur wenige Tauschprojekte realisiert wurden. Verschiedene Schwierigkeiten bei der Umsetzung solcher Tauschvorhaben können als Hemmnisse identifiziert werden. Vor allem lässt sich auf das drastische Missverhältnis von gesuchten und angebotenen Wohnungsgrößen verweis en. Insbesondere zeigt die ältere Zielgruppe eine geringe Bereitschaft zum Tausch, was vor allem auf emotionale Bindungen an die eigene Wohnung zurückzuführen ist. Zudem bietet der Wohnungstausch in angespannten Wohnungsmärkten oft nur einen begrenzten finanziellen Vorteil, während zusätzliche Kosten wie Umzug und Renovierung entstehen. Auch vermieterseitige Hürden, die Abstimmung von Mietvertragsbedingungen sowie die rechtliche Absicherung stellen weitere Herausforderungen dar (Kitzmann 2023).&lt;/p&gt; &lt;p&gt;Insgesamt zeigt sich, dass die anvisierte Zielgruppe oft nicht in dem Maße zum Wohnungstausch bereit ist, wie es für den Erfolg solcher Plattformen erforderlich wäre. Diese Diskrepanz zwischen Potenzial und tatsächlicher Nachfrage sollte bei der Weiterentwicklung entsprechender Angebote stärker berücksichtigt werden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kitzmann, Robert (2023) : Tauschst du schon oder suchst du noch? Kommunaler Wohnungstausch ist keine Erfolgsgeschichte. In: Forum Wohnen und Stadtentwicklung (5), S. 273–275.&lt;/p&gt; &lt;p&gt;Leiß, Birgit (2020): Wohnungstausch bei landeseigenen Wohnungsbaugesellschaften: Krasses Missverhältnis (MieterMagazin, 9/20). Online verfügbar unter &lt;a href="https://www.berliner-mieterverein.de/magazin/online/mm0920/wohnungstausch-bei-landeseigenen-wohnungsbaugesellschaften-krasses-missverhaeltnis-bei-angebot-und-nachfrage-092008a.htm"&gt;https://www.berliner-mieterverein.de/magazin/online/mm0920/wohnungstausch-bei-landeseigenen-wohnungsbaugesellschaften-krasses-missverhaeltnis-bei-angebot-und-nachfrage-092008a.htm&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Melcher, Angelika (2023): Wohnungstausch. Was Sie beim Wohnungstausch beachten müssen? Online verfügbar unter &lt;a href="https://www.wiwo.de/politik/deutschland/wohnungstausch-was-sie-beim-wohnungstausch-beachten-muessen/29224158.html"&gt;https://www.wiwo.de/politik/deutschland/wohnungstausch-was-sie-beim-wohnungstausch-beachten-muessen/29224158.html&lt;/a&gt; 5 .11.2024.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Energie-Sharing</t>
@@ -769,7 +787,7 @@
     <t>Mitgestaltung bei Erneuerbaren und Gebäudemaßnahmen</t>
   </si>
   <si>
-    <t>&lt;p&gt;Das Ziel des Konzepts des Energy- Sharings ist es, die dezentrale Erzeugung und den Verbrauch von erneuerbarer Energie zu fördern und dabei die lokale Gemeinschaft einzubinden. In einer typischen Energy-Sharing-Gemeinschaft in Form einer Bürgerenergiegesellschaft betreiben die Mitglieder – die aus Bürgern, Kommunen und kleinen bis mittleren Unternehmen (KMU) bestehen können – gemeinsam eine oder mehrere Erneuerbare-Energien-Anlagen, etwa Solarpanels oder Windkraftanlagen. Diese Gemeinschaften sind meist regional begrenzt. Die räumliche Begrenzung wird oft durch einen Umkreis von 50 Kilometern um die Gemeinde definiert. Die Mitglieder der Gemeinschaft können den von ihnen erzeugten Strom für den eigenen Bedarf nutzen und den überschüssigen Strom gemeinschaftlich auf dem Markt verkaufen. Sollte der eigene Bedarf nicht durch die erzeugte Energie gedeckt sein, kann zusätzlich Strom von außerhalb der Gemeinschaft bezogen werden.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Das Ziel des Konzepts des Energy-Sharings ist es, die dezentrale Erzeugung und den Verbrauch von erneuerbarer Energie zu fördern und dabei die lokale Gemeinschaft einzubinden. In einer typischen Energy-Sharing-Gemeinschaft in Form einer Bürgerenergiegesellschaft betreiben die Mitglieder – die aus Bürgern, Kommunen und kleinen bis mittleren Unternehmen (KMU) bestehen können – gemeinsam eine oder mehrere Erneuerbare-Energien-Anlagen, etwa Solarpanels oder Windkraftanlagen. Diese Gemeinschaften sind meist regional begrenzt. Die räumliche Begrenzung wird oft durch einen Umkreis von 50 Kilometern um die Gemeinde definiert. Die Mitglieder der Gemeinschaft können den von ihnen erzeugten Strom für den eigenen Bedarf nutzen und den überschüssigen Strom gemeinschaftlich auf dem Markt verkaufen. Sollte der eigene Bedarf nicht durch die erzeugte Energie gedeckt sein, kann zusätzlich Strom von außerhalb der Gemeinschaft bezogen werden.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;EnergieSharing Bürgerwerk. E.V&lt;/li&gt;&lt;/ul&gt;</t>
@@ -781,7 +799,7 @@
     <t>&lt;ul&gt;&lt;li&gt;Bürger, Kommunen und kleine bis mittlere Unternehmen können Mitglied der Energiegenossenschaft und auch Anbieter der Flächen sein, auf denen die Erneuerbare-Energien-Anlagen errichtet werden.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die Beteiligung an einer Bürgerenergiegemeinschaft ermöglicht es auch Personen ohne Wohneigentum, an Erneuerbare-Energien-Anlagen teilzuhaben, was die Lebensqualität steigern kann.&lt;/p&gt; &lt;p&gt;Energiegenossenschaften tragen durch den Ausbau Erneuerbarer Energien insbesondere zur Umsetzung der Konsistenzstrategie bei. Als partizipative und demokratische Organisationsformen bieten sie zugleich hervorragende Voraussetzungen, um erfolgreich Suffizienz zu fördern. In einer Energiegemeinschaft agieren die Bewohner*innen gleichzeitig als Energieerzeuger* innen, -lieferant*i nnen und -verbraucher* innen. Durch diese Struktur wird eine stärkere lokale Bindung sowie ein erhöhtes Engagement für Erneuerbare Energien in der Gemeinschaft gefördert. Der Perspektivenwechsel vom passiven Konsum hin zu einer bewussten, an lokalen Bedingungen orientierten Energienutzung ist eine zentrale Voraussetzung für suffizientes Handeln ( Brischke und Köhler, 2018, S. 10).&lt;/p&gt; &lt;p&gt;Darüber hinaus sind Energiegenossenschaften vielversprechende Multiplikatoren für (Energie-)Suffizienz. Auch wenn das Konzept „Suffizienz“ bislang nur von wenigen Energiegenossenschaften aktiv aufgegriffen wird, bieten sich dennoch zahlreiche Anknüpfungspunkte (Anger et al., 2022).&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die Beteiligung an einer Bürgerenergiegemeinschaft ermöglicht es auch Personen ohne Wohneigentum, an Erneuerbare-Energien-Anlagen teilzuhaben, was die Lebensqualität steigern kann.&lt;/p&gt; &lt;p&gt;Energiegenossenschaften tragen durch den Ausbau Erneuerbarer Energien insbesondere zur Umsetzung der Konsistenzstrategie bei. Als partizipative und demokratische Organisationsformen bieten sie zugleich hervorragende Voraussetzungen, um erfolgreich Suffizienz zu fördern. In einer Energiegemeinschaft agieren die Bewohner*innen gleichzeitig als Energieerzeuger* innen, -lieferant*i nnen und -verbraucher* innen. Durch diese Struktur wird eine stärkere lokale Bindung sowie ein erhöhtes Engagement für Erneuerbare Energien in der Gemeinschaft gefördert. Der Perspektivenwechsel vom passiven Konsum hin zu einer bewussten, an lokalen Bedingungen orientierten Energienutzung ist eine zentrale Voraussetzung für suffizientes Handeln (Brischke und Köhler, 2018, S. 10).&lt;/p&gt; &lt;p&gt;Darüber hinaus sind Energiegenossenschaften vielversprechende Multiplikatoren für (Energie-)Suffizienz. Auch wenn das Konzept „Suffizienz“ bislang nur von wenigen Energiegenossenschaften aktiv aufgegriffen wird, bieten sich dennoch zahlreiche Anknüpfungspunkte (Anger et al., 2022).&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Insbesondere weisen die Mitglieder von Energiegenossenschaften häufig ein stark ausgeprägtes Umweltbewusstsein sowie Offenheit gegenüber ressourcenschonenden Lebensstilen auf.&lt;/p&gt;</t>
@@ -793,34 +811,7 @@
     <t>&lt;p&gt;Die Energiewende kann nur durch das Zusammenspiel der Strategien Konsistenz, Effizienz und Suffizienz erfolgreich gestaltet werden. Die Analyse verschiedener Bürgerbeteiligungsmodelle verdeutlicht, dass die verstärkte Förderung und Einbindung von Bürgerenergie in Energiesparmaßnahmen ein erhebliches Potenzial zur Aktivierung bislang ungenutzter Einsparmöglichkeiten birgt (Anger et al. 2020, Brischke und Köhler 2018).&lt;/p&gt; &lt;p&gt;Bürgerenergiegenossenschaften zeigen insgesamt vielfältige Potenziale, um die Energiewende voranzutreiben. Dies erfordert jedoch geeignete Marktrahmen und verlässliche Rahmenbedingungen, die einen wirtschaftlichen Betrieb sicherstellen (Wiesenthal 2022).&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Anger, Kathrin; Knörzer, Ulrike; Tornow, Maren; Frick, Vivian; Fülling, Julia; Schnee, Hannah (2022): Mit Suffizienz zur Energiewende. Wie Energiegenossenschaften Verbrauchsreduktion in Haushalten fördern können. Hg . v. IÖW / adelphi research gGmbH. Berlin (Schriftenreihe des IÖW, 224/22).&lt;/p&gt; &lt;p&gt;Brischke , Lars- arvid ; Köhler, Thomas (2018): (Energie)-Suffizienz als Handlungsfeld und als innovatives Organisationsmodell zukünftiger Bürgerenergiegenossenschaften. In: Christian Lautermann ( Hg .): Die Energiewende der Bürger stärken. Marburg: Metropolis-Verlag (Theorie der Unternehmung, Band 67).&lt;/p&gt; &lt;p&gt;Wiesenthal, Jan; Aretz, Astrid; Ouanes , Nesrine ; Petrick, Kristian (2022): Energy Sharing: Eine Potenzialanalyse. Gemeinschaftlich Strom im Verteilnetz erzeugen und nutzen: Eine Studie zum Umsetzungsvorschlag im Rahmen von Artikel 22 der Erneuerbare- EnergienRichtlinie der EU. Gutachten im Auftrag des Bündnisses für Bürgerenergie e.V. Hg . v. IÖW. Berlin.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Energiedatenmanagement für Mehrfamilienhaus</t>
-  </si>
-  <si>
-    <t>Energiesparendes Verhalten im Haushalt</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Angabe der Veränderung des Energieverbrauchs im Vergleich zum Vorjahr oder zum Vormonat auf der Rechnung führt dazu, dass Kundinnen und Kunden ihren Energieverbrauch hinterfragen, und schafft einen Anreiz, ihn zu verringern.&lt;/p&gt; &lt;p&gt;Basierend auf neuen Technologien (Funktechnologie, Smartmeter) ist es möglich die Ablesung fernzusteuern und zu monitoren. (vgl. Bewusst heizen, Kosten sparen)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Ista Energiedatenmanagement&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Noventic , smart Heizen im Mehrparteienhaus&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kommerzielle Anbieter&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Immobilienverwaltung als Auftragsgeber&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Angabe der Veränderung des Energieverbrauchs im Vergleich zum Vorjahr oder zum Vormonat auf der Rechnung führt dazu, dass Kundinnen und Kunden ihren Energieverbrauch hinterfragen, und schafft einen Anreiz, ihn zu verringern.&lt;/p&gt; &lt;p&gt;Dies fördert die Energiesparenden&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Mieter*innen in Mehrfamilienhäusern&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;W3&lt;/p&gt;</t>
+    <t>&lt;p&gt;Anger, Kathrin; Knörzer, Ulrike; Tornow, Maren; Frick, Vivian; Fülling, Julia; Schnee, Hannah (2022): Mit Suffizienz zur Energiewende. Wie Energiegenossenschaften Verbrauchsreduktion in Haushalten fördern können. Hg. v. IÖW / adelphi research gGmbH. Berlin (Schriftenreihe des IÖW, 224/22).&lt;/p&gt; &lt;p&gt;Brischke, Lars-arvid; Köhler, Thomas (2018): (Energie)-Suffizienz als Handlungsfeld und als innovatives Organisationsmodell zukünftiger Bürgerenergiegenossenschaften. In: Christian Lautermann (Hg.): Die Energiewende der Bürger stärken. Marburg: Metropolis-Verlag (Theorie der Unternehmung, Band 67).&lt;/p&gt; &lt;p&gt;Wiesenthal, Jan; Aretz, Astrid; Ouanes, Nesrine; Petrick, Kristian (2022): Energy Sharing: Eine Potenzialanalyse. Gemeinschaftlich Strom im Verteilnetz erzeugen und nutzen: Eine Studie zum Umsetzungsvorschlag im Rahmen von Artikel 22 der Erneuerbare-EnergienRichtlinie der EU. Gutachten im Auftrag des Bündnisses für Bürgerenergie e.V. Hg. v. IÖW. Berlin.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Leihladen und Bibliothek der Dinge</t>
@@ -832,7 +823,7 @@
     <t>&lt;p&gt;Ein Leihladen oder eine Bibliothek der Dinge ist eine gemeinnützige Einrichtung, die den Zugang zu Gebrauchsgegenständen durch Ausleihe ermöglicht, ähnlich wie traditionelle Bibliotheken Bücher verleihen. Diese Bibliotheken werden in der Regel durch Netzwerke ehrenamtlicher oder bezahlter Akteure betrieben und bieten eine nachhaltige Alternative zur individuellen Eigentumsbeschaffung. Die Gegenstände können für einen festgelegten Zeitraum ausgeliehen oder vor Ort genutzt werden, wobei in der Regel nur ein geringer Mitgliedsbeitrag erhoben wird. Ziel ist es, durch gemeinschaftliche Nutzung Ressourcen zu schonen und den ökologischen Fußabdruck zu reduzieren.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Eine Liste der Leihläden in Deutschland ist auf der Website der Leihladen-Vernetzung unter folgendem Link zu finden:&lt;/p&gt; &lt;p&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;Eine Liste der Leihläden in Deutschland ist auf der Website der Leihladen-Vernetzung unter folgendem Link zu finden:&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;In der Regel werden die Leihladen von freiwilligen Initiativen angeboten.&lt;/p&gt;</t>
@@ -847,7 +838,7 @@
     <t>&lt;p&gt;Die Anzahl der Leihläden und Bibliotheken der Dinge ist derzeit noch gering. Für eine flächendeckende Verbreitung müssen die Angebote in weiteren Städten und Quartieren ausgebaut werden. Aktuell bestehen jedoch verschiedene Hindernisse wie fehlende Ressourcen, eine geringe Bekanntheit sowie administrative Hürden, die überwunden werden müssen, um das volle Potenzial dieser Einrichtungen auszuschöpfen.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Ameli , N. (2020). Die neue Share Economy: Bibliotheken der Dinge. Gemeinschaftliche Nutzungen für eine nachhaltige Stadtentwicklung. Bielefeld: transcript Verlag.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Ameli, N. (2020). Die neue Share Economy: Bibliotheken der Dinge. Gemeinschaftliche Nutzungen für eine nachhaltige Stadtentwicklung. Bielefeld: transcript Verlag.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1210,17 +1201,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="47.6328125" customWidth="1"/>
-    <col min="4" max="4" width="48.81640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1478,13 +1465,13 @@
         <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -1492,52 +1479,52 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -1545,49 +1532,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
         <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
         <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s">
         <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -1595,52 +1582,52 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -1648,52 +1635,52 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
         <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -1701,52 +1688,52 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
         <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -1754,22 +1741,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
         <v>54</v>
@@ -1778,28 +1765,28 @@
         <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
         <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -1807,52 +1794,52 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q12" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -1860,52 +1847,52 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N13" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -1913,52 +1900,52 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="H14" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J14" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K14" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L14" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O14" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q14" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -1966,52 +1953,52 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I15" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J15" t="s">
         <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M15" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N15" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="O15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q15" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -2019,28 +2006,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G16" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H16" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="J16" t="s">
         <v>54</v>
@@ -2049,22 +2036,22 @@
         <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M16" t="s">
         <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="O16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q16" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2072,52 +2059,52 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H17" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="I17" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J17" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K17" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L17" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N17" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O17" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q17" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2125,52 +2112,52 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H18" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I18" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L18" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M18" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N18" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="O18" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P18" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q18" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2178,52 +2165,52 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G19" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I19" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="J19" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K19" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L19" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M19" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N19" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="O19" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P19" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q19" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2231,28 +2218,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F20" t="s">
         <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H20" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="I20" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J20" t="s">
         <v>54</v>
@@ -2261,51 +2248,51 @@
         <v>54</v>
       </c>
       <c r="L20" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M20" t="s">
         <v>29</v>
       </c>
       <c r="N20" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O20" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q20" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I21" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J21" t="s">
         <v>54</v>
@@ -2314,75 +2301,22 @@
         <v>54</v>
       </c>
       <c r="L21" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M21" t="s">
         <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="O21" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s">
-        <v>54</v>
+        <v>271</v>
       </c>
       <c r="Q21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" t="s">
-        <v>270</v>
-      </c>
-      <c r="H22" t="s">
-        <v>271</v>
-      </c>
-      <c r="I22" t="s">
         <v>272</v>
-      </c>
-      <c r="J22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" t="s">
-        <v>273</v>
-      </c>
-      <c r="M22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/measures.xlsx
+++ b/data/measures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte - laufende\Startjahr 2022\M20_042I SuzAnNa\Projektbearbeitung\AP3\Streamlit_Suzanna\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F2FB9B-3875-4E09-BD0E-58AE050EE367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5FC871-5F4F-4C94-AC00-38E93364DEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16380" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,28 +82,28 @@
     <t>Verbesserung der ÖPNV-Angebote</t>
   </si>
   <si>
-    <t>&lt;p&gt;In Regionen, in denen der Schienenverkehr nicht ausreicht, werden überregionale Busverkehre als räumliche und qualitative Ergänzung des Schienenpersonennahverkehrs eingesetzt. Diese Busangebote zeichnen sich durch hohe Bedien- und Qualitätsstandards aus, mit regelmäßigen Verbindungen und kurzen, festen Taktzeiten, auch an Wochenenden. Die Anschlüsse an andere Bus- oder Bahnlinien sind optimal abgestimmt. Zusätzlich sind manche Fahrzeuge mit besonderen Ausstattungsmerkmalen wie Steckdosen und WLAN versehen.&lt;/p&gt; &lt;p&gt;Abhängig vom jeweiligen Gebiet und den Qualitätskriterien tragen diese Buslinien in verschiedenen Bundesländern unterschiedliche Namen, wie z. B. "landesbedeutsame Buslinien", "Regiobus", "PlusBus", "Taktbus" oder "ExpressBus" (Regling et al. 2020, s.94) .&lt;/p&gt; &lt;p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;PlusBus:&lt;/b&gt; PlusBus-Linien bieten einen stündlichen Taktfahrplan, auch an Wochenenden. Sie sind so konzipiert, dass sie an wichtigen Verkehrsknotenpunkten halten und dort Anschlüsse an andere Buslinien, Bahnhöfe oder Verkehrsmittel mit maximal 15 Minuten Umsteigezeit bieten. Die Marken PlusBus wurden vom Mitteldeutschen Verkehrsverbund (MDV) entwickelt und markenrechtlich geschützt.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;TaktBus:&lt;/b&gt; Der TaktBus ist eine kleinere Variante des PlusBus, verkehrt alle zwei Stunden und verbindet auch kleinere Orte mit dem nächsten Zentrum, inklusive guter Anschlussmöglichkeiten an weiterführende Linien.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Express- oder Schnellbus:&lt;/b&gt; Schnell- oder Expressbusse bieten im Vergleich zu regulären Stadt- und Regionalbussen eine höhere Reisegeschwindigkeit, da sie auf direktem Linienweg ohne Umwege verkehren. Sie bedienen wichtige Verknüpfungspunkte sowie eine ausgewählte Anzahl von Haltestellen entlang der Strecke mit hoher Fahrgastnachfrage.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Plusbus und TaktBus in MDV und anderen Bundesländern&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Expressbus im Saarland&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;RegioBus in Baden-Württemberg&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;In Regionen, in denen der Schienenverkehr nicht ausreicht, werden überregionale Busverkehre als räumliche und qualitative Ergänzung des Schienenpersonennahverkehrs eingesetzt. Diese Busangebote zeichnen sich durch hohe Bedien- und Qualitätsstandards aus, mit regelmäßigen Verbindungen und kurzen, festen Taktzeiten, auch an Wochenenden. Die Anschlüsse an andere Bus- oder Bahnlinien sind optimal abgestimmt. Zusätzlich sind manche Fahrzeuge mit besonderen Ausstattungsmerkmalen wie Steckdosen und WLAN versehen. &lt;/p&gt;&lt;p&gt;Abhängig vom jeweiligen Gebiet und den Qualitätskriterien tragen diese Buslinien in verschiedenen Bundesländern unterschiedliche Namen, wie z.B. "landesbedeutsame Buslinien", "Regiobus", "PlusBus", "Taktbus" oder "ExpressBus" (Regling et al. 2020, s.94).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;PlusBus:&lt;/b&gt; PlusBus-Linien bieten einen stündlichen Taktfahrplan, auch an Wochenenden. Sie sind so konzipiert, dass sie an wichtigen Verkehrsknotenpunkten halten und dort Anschlüsse an andere Buslinien, Bahnhöfe oder Verkehrsmittel mit maximal 15 Minuten Umsteigezeit bieten. Die Marken PlusBus wurden vom Mitteldeutschen Verkehrsverbund (MDV) entwickelt und markenrechtlich geschützt.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;TaktBus:&lt;/b&gt; Der TaktBus ist eine kleinere Variante des PlusBus, verkehrt alle zwei Stunden und verbindet auch kleinere Orte mit dem nächsten Zentrum, inklusive guter Anschlussmöglichkeiten an weiterführende Linien.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Express- oder Schnellbus:&lt;/b&gt; Schnell- oder Expressbusse bieten im Vergleich zu regulären Stadt- und Regionalbussen eine höhere Reisegeschwindigkeit, da sie auf direktem Linienweg ohne Umwege verkehren. Sie bedienen wichtige Verknüpfungspunkte sowie eine ausgewählte Anzahl von Haltestellen entlang der Strecke mit hoher Fahrgastnachfrage.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Plusbus und TaktBus in MDV und anderen Bundesländern&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Expressbus im Saarland&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;RegioBus in Baden-Württemberg&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Verkehrsunternehmen sind Anbietende des ÖPNV&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen (Landkreis oder Städte) bzw. Verkehrsverbünde:&lt;/b&gt; sind Aufgabentragende des Nahverkehrs und übernehmen die Planungsaufgaben. Für das Konzept ist überregionale Kooperation notwendig.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Länder:&lt;/b&gt; bieten Finanzierung oder Teilfinanzierung der Angebote und können die Qualitätskriterien beispielweise durch Förderrichtlinien formulieren.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen (Landkreis oder Städte) bzw. Verkehrsverbünde:&lt;/b&gt; sind Aufgabentragende des Nahverkehrs und übernehmen die Planungsaufgaben. Für das Konzept ist überregionale Kooperation notwendig.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Länder:&lt;/b&gt; bieten Finanzierung oder Teilfinanzierung der Angebote und können die Qualitätskriterien beispielweise durch Förderrichtlinien formulieren.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Personenbeförderungsgesetz (PBefG), Regionalisierungsgesetz (RegG)&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Beispiele für Förderungen auf Landesebene:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Förderrichtlinie für landesbedeutsame Buslinien in Niedersachsen&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Förderprogramm Regiobuslinien in Baden-Württemberg&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Richtlinie zum Förderprogramm Ergänzender Nahverkehrsangebote zur Verbesserung der Mobilität im ländlichen Raum mit bedarfsorientierten Bedienformen des allgemeinen ÖPNV und Pilotprojekten landkreisübergreifender Expressbusverbindungen im Omnibusverkehr in Bayern&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Durch den Ausbau und die Qualitätsv erbesserung der ÖPNV-Angebote bieten Bus-Linien eine attraktive Alternative zum eigenen Auto für ländlichen Gebieten , mit einem geringen zeitlichen Mehrbedarf. Sie tragen zur Reduktion des motorisierten Individualverkehrs (MIV) bei und verbessern die soziale Teilhabe in ländlichen Gebieten, indem sie Menschen ohne eigenes Auto eine bessere Mobilität ermöglichen.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Beispiele für Förderungen auf Landesebene:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Förderrichtlinie für landesbedeutsame Buslinien in Niedersachsen&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Förderprogramm Regiobuslinien in Baden-Württemberg&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Richtlinie zum Förderprogramm Ergänzender Nahverkehrsangebote zur Verbesserung der Mobilität im ländlichen Raum mit bedarfsorientierten Bedienformen des allgemeinen ÖPNV und Pilotprojekten landkreisübergreifender Expressbusverbindungen im Omnibusverkehr in Bayern&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Durch den Ausbau und die Qualitätsverbesserung der ÖPNV-Angebote bieten Bus-Linien eine attraktive Alternative zum eigenen Auto für ländlichen Gebieten, mit einem geringen zeitlichen Mehrbedarf. Sie tragen zur Reduktion des motorisierten Individualverkehrs (MIV) bei und verbessern die soziale Teilhabe in ländlichen Gebieten, indem sie Menschen ohne eigenes Auto eine bessere Mobilität ermöglichen.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;kleinstädtischer und ländlicher Raum&lt;/p&gt;</t>
@@ -112,55 +112,55 @@
     <t>&lt;p&gt;Alle&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;M1 , M5&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Das Konzept des Mitteldeutschen Verkehrsverbundes (MDV) wurde im Jahr 2010 in enger Zusammenarbeit mit Verkehrsunternehmen und Aufgabenträgern entwickelt. Seitdem hat es sich in sechs Bundesländern etabliert und dient als Vorbild für ähnliche Angebote, die mittlerweile in fast allen Bundesländern, zumindest in Teilgebieten, verfügbar sind.&lt;/p&gt; &lt;p&gt;Eine detaillierte Analyse der genauen Nachfrageeffekte liegt bisher nicht vor, da viele der Angebotsänderungen erst vor wenigen Jahren eingeführt wurden. Dennoch sind das hohe Potenzial und die Akzeptanz der Kunden klar erkennbar: Laut MDV sind die Fahrgastzahlen seit 2013 um 86 Prozent gestiegen, was das starke Interesse der Nutzer unterstreicht (MDV 2024) .&lt;/p&gt; &lt;p&gt;Für die zukünftige Verbreitung und Weiterentwicklung des Konzepts sind folgende Faktoren von zentraler:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Ein nahtlos integriertes Bus-Bahn-Angebot mit garantierten Anschlussmöglichkeiten erfordert einen höheren technischen Aufwand.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Der Ausbau und die Modernisierung der Infrastruktur sind entscheidend. Dazu gehört sowohl die Verbesserung von Straßen- und Schienennetzen als auch die bessere Koordination verschiedener Mobilitätsangebote, um den Zugang und die Vernetzung effizienter zu gestalten. Insbesondere die Weiterentwicklung digitaler Systeme, die Echtzeitinformationen liefern und Verbindungen optimieren, spielt dabei eine Schlüsselrolle.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Der politische Wille, solche Angebote umzusetzen, ist dabei entscheidend. Eine enge Zusammenarbeit zwischen Landes- und Kommunalebene spielt eine wichtige Rolle, um eine nachhaltige und erfolgreiche Umsetzung zu gewährleisten. Des Weiteren stellt die Finanzierung der Angebote weiterhin eine wesentliche Herausforderung dar. Um die langfristige wirtschaftliche Stabilität zu sichern, sind Fördermaßnahmen auf regionaler und nationaler Ebene notwendig.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; Eine starke Markenpräsenz, wie durch die Bezeichnungen "PlusBus" und "TaktBus", unterstützt die Bekanntmachung und den Wiedererkennungswert des Angebots (Agora Verkehrswende 2023, s.26) .&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Agora Verkehrswende (2023): Mobilitätsgarantie für Deutschland – Teil I. Ausgangslage und Praxisbeispiele für eine bundesweit garantierte Grundversorgung mit Bus und Bahn. Analyse.&lt;/p&gt; &lt;p&gt;VDV (2023): Linienbedarfsverkehr: zukunftsgerecht, integriert und nachfragegesteuert. Warum eine ÖPNV-Angebotsoffensive im Linien- und Linienbedarfsverkehr notwendig ist (Positionspapier, März 2023).&lt;/p&gt; &lt;p&gt;Mitteldeutscher Verkehrsverbund GmbH (MDV) (2024): PlusBus. TaktBus. Mein Bus. Die Erfolgsmodelle aus Mitteldeutschland. Online verfügbar unter &lt;a href="https://www.plusbus-deutschland.de/wp-content/uploads/2024/04/Broschuere-PlusBus_min.pdf"&gt;https://www.plusbus-deutschland.de/wp-content/uploads/2024/04/Broschuere-PlusBus_min.pdf&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Regling, Lea; Stein, Axel; Werner, Jan; Karl, Astrid; Bauermeister, Marcel; Frölicher, Jonas et al. (2020): Grundlagen für ein umweltorientiertes Recht der Personenbeförderung. Teilbericht 2. Hg. v. Umweltbundesamt. Dessau-Roßlau (Texte, 213/2020).&lt;/p&gt;</t>
+    <t>&lt;p&gt;M1, M5&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Konzept des Mitteldeutschen Verkehrsverbundes (MDV) wurde im Jahr 2010 in enger Zusammenarbeit mit Verkehrsunternehmen und Aufgabenträgern entwickelt. Seitdem hat es sich in sechs Bundesländern etabliert und dient als Vorbild für ähnliche Angebote, die mittlerweile in fast allen Bundesländern, zumindest in Teilgebieten, verfügbar sind.&lt;/p&gt;&lt;p&gt;Eine detaillierte Analyse der genauen Nachfrageeffekte liegt bisher nicht vor, da viele der Angebotsänderungen erst vor wenigen Jahren eingeführt wurden. Dennoch sind das hohe Potenzial und die Akzeptanz der Kunden klar erkennbar: Laut MDV sind die Fahrgastzahlen seit 2013 um 86 Prozent gestiegen, was das starke Interesse der Nutzer unterstreicht (MDV 2024).&lt;/p&gt;&lt;p&gt;Für die zukünftige Verbreitung und Weiterentwicklung des Konzepts sind folgende Faktoren von zentraler:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Ein nahtlos integriertes Bus-Bahn-Angebot mit garantierten Anschlussmöglichkeiten erfordert einen höheren technischen Aufwand. &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Der Ausbau und die Modernisierung der Infrastruktur sind entscheidend. Dazu gehört sowohl die Verbesserung von Straßen- und Schienennetzen als auch die bessere Koordination verschiedener Mobilitätsangebote, um den Zugang und die Vernetzung effizienter zu gestalten. Insbesondere die Weiterentwicklung digitaler Systeme, die Echtzeitinformationen liefern und Verbindungen optimieren, spielt dabei eine Schlüsselrolle.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Der politische Wille, solche Angebote umzusetzen, ist dabei entscheidend. Eine enge Zusammenarbeit zwischen Landes- und Kommunalebene spielt eine wichtige Rolle, um eine nachhaltige und erfolgreiche Umsetzung zu gewährleisten. Des Weiteren stellt die Finanzierung der Angebote weiterhin eine wesentliche Herausforderung dar. Um die langfristige wirtschaftliche Stabilität zu sichern, sind Fördermaßnahmen auf regionaler und nationaler Ebene notwendig.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; Eine starke Markenpräsenz, wie durch die Bezeichnungen "PlusBus" und "TaktBus", unterstützt die Bekanntmachung und den Wiedererkennungswert des Angebots (Agora Verkehrswende 2023, s.26).&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Agora Verkehrswende (2023): Mobilitätsgarantie für Deutschland – Teil I. Ausgangslage und Praxisbeispiele für eine bundesweit garantierte Grundversorgung mit Bus und Bahn. Analyse.&lt;/p&gt;&lt;p&gt;VDV (2023): Linienbedarfsverkehr: zukunftsgerecht, integriert und nachfragegesteuert. Warum eine ÖPNV-Angebotsoffensive im Linien- und Linienbedarfsverkehr notwendig ist (Positionspapier, März 2023).&lt;/p&gt;&lt;p&gt;Mitteldeutscher Verkehrsverbund GmbH (MDV) (2024): PlusBus. TaktBus. Mein Bus. Die Erfolgsmodelle aus Mitteldeutschland. Online verfügbar unter &lt;a href="https://www.plusbus-deutschland.de/wp-content/uploads/2024/04/Broschuere-PlusBus_min.pdf"&gt;https://www.plusbus-deutschland.de/wp-content/uploads/2024/04/Broschuere-PlusBus_min.pdf&lt;/a&gt;, zuletzt geprüft am 04.10.2024.&lt;/p&gt;&lt;p&gt;Regling, Lea; Stein, Axel; Werner, Jan; Karl, Astrid; Bauermeister, Marcel; Frölicher, Jonas et al. (2020): Grundlagen für ein umweltorientiertes Recht der Personenbeförderung. Teilbericht 2. Hg. v. Umweltbundesamt. Dessau-Roßlau (Texte, 213/2020).&lt;/p&gt;</t>
   </si>
   <si>
     <t>Flexible Bedienungsformen (On-Demand) im ÖPNV</t>
   </si>
   <si>
-    <t>&lt;p&gt;Flexible Bedienungsformen im öffentlichen Personennahverkehr (ÖPNV) zielen darauf ab, Fahrgäste bedarfsgesteuert und effizient durch die Zusammenführung mehrerer individueller Fahrtwünsche an ihr Ziel zu bringen. Der grundlegende Unterschied zum konventionellen Linienverkehr besteht darin, dass Fahrten nur dann durchgeführt werden, wenn tatsächlich ein Fahrtwunsch vorliegt. Mit der fortschreitenden Digitalisierung werden flexible Bedienungsformen zunehmend mit dem Begriff "On-Demand-Verkehr" gleichgesetzt, bei dem die Buchung und Bezahlung der Fahrten über digitale Plattformen oder Apps abgewickelt wird. Dies repräsentiert einen höheren Grad an Digitalisierung.&lt;/p&gt; &lt;p&gt;Inhaltlich ähnelt der On-Demand-Verkehr dem Ride-Pooling, bei dem verschiedene Fahrtwünsche in einem Verkehrsmittel gebündelt werden. Innerhalb eines festgelegten Geschäftsgebiets werden ähnliche Fahrten durch einen Algorithmus zusammengefasst, der die Route so optimiert, dass alle Anfragen effizient bedient werden können.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Diese Flexibilität von ÖPNV kann räumlich oder zeitlich sein. Die räumliche Flexibilisierung umfasst die flexible Gestaltung der Verbindung zwischen Quell- und Zielort (Bedarfslinienbetrieb, Richtungsbandbetrieb, Flächenbetrieb) sowie den Zu- und Ausstieg für den Fahrgast (Haustür- oder Haltestellenbedienung). Die zeitliche Flexibilisierung umfasst einen Betrieb mit und ohne Bindung an einen Fahrplan. Aus der Kombination von Elementen der räumlichen und zeitlichen Flexibilisierung ergeben sich die verschiedenen Angebotsformen (Siefer et al. 2023):&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Der &lt;b&gt;Anruflinienbus und das Anruflinientaxi&lt;/b&gt; verkehren fahrplangebunden auf einem festen Streckennetz von Haltestelle zu Haltestelle.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Ein &lt;b&gt;Anrufbus&lt;/b&gt; im Richtungsbandbetrieb verkehrt ebenfalls fahrplangebunden von Haltestelle zu Haltestelle auf einer festen Grundroute. Er bedient jedoch zusätzliche Bedarfshaltestellen innerhalb eines definierten Richtungsbandes, wenn ein Fahrtwunsch angemeldet wurde.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Anrufbus im Flächenbetrieb&lt;/b&gt; besitzen keine Fahrplan- oder Linienbindung und bieten dabei eine Haustür-zu-Haustür- oder Haltestelle-zu-Haltestelle- Bedienung.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Anrufsammeltaxis und Anrufsammelbusse&lt;/b&gt; verkehren fahrplangebunden, wobei die Abfahrtszeit an der Starthaltestelle festgelegt ist. Sie bedienen bedarfsabhängig von einer (Bedarfs-)Haltestelle zur Haustür der Kundin oder des Kunden.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;On-​Demand-Shuttle in der Region Frankfurt/RheinMain&lt;/p&gt; &lt;p&gt;BVG Muva, Berlin&lt;/p&gt; &lt;ul&gt;&lt;li&gt;MultiBus im Kreis Heinsberg&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die flexiblen Bedienungsformen im ÖPNV werden hauptsächlich durch die öffentlichen Verkehrsunternehmen selbst angeboten, um dieses neue Mobilitätsangebot tatsächlich als eine Erweiterung des Umweltverbundes zu planen. Die Angebote können auch von privaten Busunternehmen oder Taxiunternehmen übernommen werden.&lt;/p&gt; &lt;p&gt;Zusätzlich zu den ÖPNV-Anbietern existieren rein kommerzielle Ride-Pooling-Angebote, wie beispielsweise MOIA in Hamburg, die inhaltlich dem Konzept des "Anrufbus im Flächenbetrieb" ähneln. Diese kommerziellen Dienste werden derzeit vor allem in Großstädten eingesetzt und werden in diesem Steckbrief nicht weiter betrachtet.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Stadt- und Kreisverwaltungen&lt;/b&gt; &lt;b&gt;(ggf. auch die&lt;/b&gt; &lt;b&gt;Verkehrsverbünde&lt;/b&gt; &lt;b&gt;):&lt;/b&gt; sind Aufgabenträger des ÖPNVs. Sie sind politische und planerische Entscheidungsträger.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Plattformanbieter:&lt;/b&gt; unterstützen die digitalen Angebote bei der Bereitstellung der IT-Dienstleistung. Die Größte Anbieter in Deutschland sind Door2Door und ioki (ein Tochterunternehmen der Deutschen Bahn).&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Flexible Bedienungsformen im öffentlichen Personennahverkehr (ÖPNV) zielen darauf ab, Fahrgäste bedarfsgesteuert und effizient durch die Zusammenführung mehrerer individueller Fahrtwünsche an ihr Ziel zu bringen. Der grundlegende Unterschied zum konventionellen Linienverkehr besteht darin, dass Fahrten nur dann durchgeführt werden, wenn tatsächlich ein Fahrtwunsch vorliegt. Mit der fortschreitenden Digitalisierung werden flexible Bedienungsformen zunehmend mit dem Begriff "On-Demand-Verkehr" gleichgesetzt, bei dem die Buchung und Bezahlung der Fahrten über digitale Plattformen oder Apps abgewickelt wird. Dies repräsentiert einen höheren Grad an Digitalisierung.&lt;/p&gt;&lt;p&gt;Inhaltlich ähnelt der On-Demand-Verkehr dem Ride-Pooling, bei dem verschiedene Fahrtwünsche in einem Verkehrsmittel gebündelt werden. Innerhalb eines festgelegten Geschäftsgebiets werden ähnliche Fahrten durch einen Algorithmus zusammengefasst, der die Route so optimiert, dass alle Anfragen effizient bedient werden können.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Diese Flexibilität von ÖPNV kann räumlich oder zeitlich sein. Die räumliche Flexibilisierung umfasst die flexible Gestaltung der Verbindung zwischen Quell- und Zielort (Bedarfslinienbetrieb, Richtungsbandbetrieb, Flächenbetrieb) sowie den Zu- und Ausstieg für den Fahrgast (Haustür- oder Haltestellenbedienung). Die zeitliche Flexibilisierung umfasst einen Betrieb mit und ohne Bindung an einen Fahrplan. Aus der Kombination von Elementen der räumlichen und zeitlichen Flexibilisierung ergeben sich die verschiedenen Angebotsformen (Siefer et al. 2023):&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Der &lt;b&gt;Anruflinienbus und das Anruflinientaxi&lt;/b&gt; verkehren fahrplangebunden auf einem festen Streckennetz von Haltestelle zu Haltestelle.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Ein &lt;b&gt;Anrufbus&lt;/b&gt; im Richtungsbandbetrieb verkehrt ebenfalls fahrplangebunden von Haltestelle zu Haltestelle auf einer festen Grundroute. Er bedient jedoch zusätzliche Bedarfshaltestellen innerhalb eines definierten Richtungsbandes, wenn ein Fahrtwunsch angemeldet wurde.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Anrufbus im Flächenbetrieb&lt;/b&gt; besitzen keine Fahrplan- oder Linienbindung und bieten dabei eine Haustür-zu-Haustür- oder Haltestelle-zu-Haltestelle- Bedienung.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Anrufsammeltaxis und Anrufsammelbusse&lt;/b&gt; verkehren fahrplangebunden, wobei die Abfahrtszeit an der Starthaltestelle festgelegt ist. Sie bedienen bedarfsabhängig von einer (Bedarfs-)Haltestelle zur Haustür der Kundin oder des Kunden.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;On-​Demand-Shuttle in der Region Frankfurt/RheinMain&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;BVG Muva, Berlin&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;MultiBus im Kreis Heinsberg&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die flexiblen Bedienungsformen im ÖPNV werden hauptsächlich durch die öffentlichen Verkehrsunternehmen selbst angeboten, um dieses neue Mobilitätsangebot tatsächlich als eine Erweiterung des Umweltverbundes zu planen. Die Angebote können auch von privaten Busunternehmen oder Taxiunternehmen übernommen werden.&lt;/p&gt;&lt;p&gt;Zusätzlich zu den ÖPNV-Anbietern existieren rein kommerzielle Ride-Pooling-Angebote, wie beispielsweise MOIA in Hamburg, die inhaltlich dem Konzept des "Anrufbus im Flächenbetrieb" ähneln. Diese kommerziellen Dienste werden derzeit vor allem in Großstädten eingesetzt und werden in diesem Steckbrief nicht weiter betrachtet.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Stadt- und Kreisverwaltungen &lt;/b&gt;&lt;b&gt;(ggf. auch die &lt;/b&gt;&lt;b&gt;Verkehrsverbünde&lt;/b&gt;&lt;b&gt;):&lt;/b&gt; sind Aufgabenträger des ÖPNVs. Sie sind politische und planerische Entscheidungsträger.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Plattformanbieter: &lt;/b&gt;unterstützen die digitalen Angebote bei der Bereitstellung der IT-Dienstleistung. Die Größte Anbieter in Deutschland sind Door2Door und ioki (ein Tochterunternehmen der Deutschen Bahn).&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;In der bisherigen Rechtslage musste bei der Genehmigung der On-Demand-Verkehre überwiegend auf die Auffang- und Experimentierklausel gem. § 2 Abs. 6 und 7 PBefG zurückgegriffen werden. Mit der Novelle des Personenbeförderungsgesetzes (PBefG) 2021 wurden die § 44 „Linienbedarfsverkehr“ und § 50 „Gebündelter Bedarfsverkehr“ eingeführt.  Somit wurde die dauerhafte Genehmigungsmöglichkeit eines neuen, ÖPNV integrierten On-Demand-Angebots geschaffen.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Beispiele von Förderungen auf Landesebene:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;in Baden-Württemberg seit 2022&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;„NMOB On-Demand“ in Saarland&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Flexibler ÖPNV ist ein wichtiger Baustein für die Verbesserung der ÖPNV-Angebote. Er bietet attraktive Last-Mile-Angebote als Zubringer zu Haltestellen an Hauptlinien des Bus- und Schienenverkehrs. Die Erreichbarkeit von Randgebieten wird verbessert und er trägt als eine attraktive Alternative zum eigenen Auto zur Reduktion des motorisierten Individualverkehrs (MIV) bei.&lt;/p&gt; &lt;p&gt;Weiterhin wird die soziale Teilhabe in ländlichen Gebieten erhöht, indem Menschen ohne eigenes Auto eine bessere Mobilität ermöglicht wird. Auch die Eltern von Jugendlichen können entlastet werden, indem die Jugendliche als Fahrgäste den flexiblen ÖPNV nutzen.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Flexible Bedienungsformen eignen sich besonders zur Befriedigung von Mobilitätsbedürfnissen in dünn besiedelten oder suburbanen Räumen. Sie können entweder das bestehende ÖPNV-Angebot ergänzen oder als Zubringer für den herkömmlichen ÖPNV dienen. Auch in urbanen Gebieten können sie als Ergänzung zum konventionellen ÖPNV eingesetzt werden, wobei der konkrete Beitrag zur Reduzierung des Verkehrsaufkommens hier noch umstritten ist.&lt;/p&gt; &lt;p&gt;Nach VDV (2024) werden 47 % der On-Demand-Projekte im ländlichen Raum umgesetzt, ein Drittel entfällt auf Mittelzentren, und ein Viertel kommt in urbanen Gebieten zum Einsatz.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bisherige Untersuchungen zu den Nutzenden des Flexiblen ÖPNV, von On-Demand-Verkehr bzw. Ridepoolingverkehr beschränken sich auf einen großstädtischen Kontext. Die Auswertungen der Nutzungsdaten von MOIA in Hamburg (Kostorz et al., 2021) und Clevershuttle in vier deutschen Städten (Knie et al., 2020) zeigen, dass die jüngere Generation und die technologieaffine Gruppe dort die wichtigste Nutzungsgruppen darstellen.&lt;/p&gt; &lt;p&gt;Inwieweit der On-Demand-Verkehr den Mobilitätsbedarf anderer sozialer Gruppen decken kann, bedarf weiterer Forschung. Es besteht das Potenzial, weitere soziale Gruppen für den On-Demand-Verkehr zu gewinnen. Berufspendler*innen, ältere Menschen, Menschen mit eingeschränkter Mobilität, Schüler*innen und Personen ohne Zugang zu einem Pkw können vom On-Demand-Verkehr profitieren. Auch für grundsätzlich autoaffine Nutzer*innen ist es eine attraktive Alternative zum privaten Auto, da eine hohe Servicequalität geboten wird.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Beispiele von Förderungen auf Landesebene: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;a href="https://www.zukunftsnetzwerk-oepnv.de/foerdermittel/foerdermittel-des-landes/foerderprogramm-on-demand-verkehre"&gt;Förderprogramm On-Demand-Verkehre&lt;/a&gt; in Baden-Württemberg seit 2022 &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;„NMOB On-Demand“ in Saarland&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Flexibler ÖPNV ist ein wichtiger Baustein für die Verbesserung der ÖPNV-Angebote. Er bietet attraktive Last-Mile-Angebote als Zubringer zu Haltestellen an Hauptlinien des Bus- und Schienenverkehrs. Die Erreichbarkeit von Randgebieten wird verbessert und er trägt als eine attraktive Alternative zum eigenen Auto zur Reduktion des motorisierten Individualverkehrs (MIV) bei.&lt;/p&gt;&lt;p&gt;Weiterhin wird die soziale Teilhabe in ländlichen Gebieten erhöht, indem Menschen ohne eigenes Auto eine bessere Mobilität ermöglicht wird. Auch die Eltern von Jugendlichen können entlastet werden, indem die Jugendliche als Fahrgäste den flexiblen ÖPNV nutzen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Flexible Bedienungsformen eignen sich besonders zur Befriedigung von Mobilitätsbedürfnissen in dünn besiedelten oder suburbanen Räumen. Sie können entweder das bestehende ÖPNV-Angebot ergänzen oder als Zubringer für den herkömmlichen ÖPNV dienen. Auch in urbanen Gebieten können sie als Ergänzung zum konventionellen ÖPNV eingesetzt werden, wobei der konkrete Beitrag zur Reduzierung des Verkehrsaufkommens hier noch umstritten ist.&lt;/p&gt;&lt;p&gt;Nach VDV (2024) werden 47 % der On-Demand-Projekte im ländlichen Raum umgesetzt, ein Drittel entfällt auf Mittelzentren, und ein Viertel kommt in urbanen Gebieten zum Einsatz.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bisherige Untersuchungen zu den Nutzenden des Flexiblen ÖPNV, von On-Demand-Verkehr bzw. Ridepoolingverkehr beschränken sich auf einen großstädtischen Kontext. Die Auswertungen der Nutzungsdaten von MOIA in Hamburg (Kostorz et al., 2021) und Clevershuttle in vier deutschen Städten (Knie et al., 2020) zeigen, dass die jüngere Generation und die technologieaffine Gruppe dort die wichtigste Nutzungsgruppen darstellen. &lt;/p&gt;&lt;p&gt;Inwieweit der On-Demand-Verkehr den Mobilitätsbedarf anderer sozialer Gruppen decken kann, bedarf weiterer Forschung. Es besteht das Potenzial, weitere soziale Gruppen für den On-Demand-Verkehr zu gewinnen. Berufspendler*innen, ältere Menschen, Menschen mit eingeschränkter Mobilität, Schüler*innen und Personen ohne Zugang zu einem Pkw können vom On-Demand-Verkehr profitieren. Auch für grundsätzlich autoaffine Nutzer*innen ist es eine attraktive Alternative zum privaten Auto, da eine hohe Servicequalität geboten wird.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;M1, M3, M4, M5&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die Anzahl der On-Demand-Verkehre in Deutschland steigt kontinuierlich. Insbesondere seit der im April 2021 beschlossenen Gesetzesnovelle ist die Zahl der On-Demand-Projekte, die in den öffentlichen Verkehr integriert sind, sprunghaft angestiegen. Laut einer Branchenumfrage des Verbands Deutscher Verkehrsunternehmen (VDV) im Jahr 2022 gab es Ende 2022 über 80 ÖV-integrierte digitale On-Demand-Verkehrsprojekte (VDV 2024).&lt;/p&gt; &lt;p&gt;Für die weitere Verbreitung und Entwicklung von On-Demand-Verkehren spielen mehrere Faktoren eine zentrale Rolle.&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Technisch befinden sich diese Mobilitätsangebote noch in einer frühen Entwicklungsphase, und es existieren bislang keine etablierten Geschäftsmodelle, was einen weiteren Forschungsbedarf aufzeigt. Es gibt noch verschiedene Verbesserungsmöglichkeiten, z.B. Anschlussgewährleistungen, Barrierefreiheit, geeignete Fahrzeuge, einheitliche Hintergrundsysteme, Datenschutz usw. Darüber hinaus werden autonome On-Demand-Services erprobt.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Laut der Branchenumfrage des VDV aus dem Jahr 2022 (VDV 2024) sind fast alle On-Demand-Projekte nicht eigenwirtschaftlich und werden durch kommunale Verkehrsunternehmen oder staatliche Förderprogramme wie die DKV-Förderrichtlinie finanziert. Für die langfristige Sicherstellung der Angebote muss eine nachhaltige Finanzierungslösung gefunden werden. Dabei spielt politische Unterstützung eine entscheidende Rolle.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Agora Verkehrswende (2023): Mobilitätsoffensive für das Land. Wie Kommunen mit flexiblen Kleinbussen den ÖPNV von morgen gestalten können.&lt;/p&gt; &lt;p&gt;Gies, Jürgen; Langer, Victoria (2021): Mit On-Demand-Angeboten ÖPNV Bedarfsverkehre modernisieren. Werkstattbericht zu Chancen und Herausforderungen. Hg. v. Difu, Berlin.&lt;/p&gt; &lt;p&gt;Knie, Andreas; Ruhrort, Lisa (2020): Ride-Pooling-Dienste und ihre Bedeutung für den Verkehr. Nachfragemuster und Nutzungsmotive am Beispiel von „CleverShuttle“. - eine Untersuchung auf Grundlage von Buchungsdaten und Kundenbefragun-gen in vier deutschen Städten. Discussion Paper SP III 2020–601. Wissenschaftszentrum Berlin für Sozialforschung.&lt;/p&gt; &lt;p&gt;Kostorz-Weiss, Nadine; Fraedrich, Eva; Kagerbauer, Martin (2021): Ridepooling als Mobilitätsoption für alle? Erkenntnisse aus der Moia-Begleitforschung zu Nutzerinnen und Nutzern. In: Internationales Verkehrswesen ((73) 1), S. 67–71.&lt;/p&gt; &lt;p&gt;Siefer, Thomas; Sievers, Nina; Heemsoth, Jan Peter (2023): Handbuch zur Planung flexibler Bedienungsformen im ÖPNV. Ein Beitrag zur Sicherung der Daseinsvorsorge in nachfrageschwachen Räumen. Unter Mitarbeit von Rafael Kistner und Lucas Biermanski. Hg. v. BBSR, Bonn.&lt;/p&gt; &lt;p&gt;VDV (2024): Bedarfsverkehr per App kann Bus und Bahn ergänzen. Bessere Mobilität auf dem Land durch flexible Kleinbusangebote. Online verfügbar unter &lt;a href="https://www.vdv.de/ondemandumfrage22.aspx"&gt;https://www.vdv.de/ondemandumfrage22.aspx&lt;/a&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die Anzahl der On-Demand-Verkehre in Deutschland steigt kontinuierlich. Insbesondere seit der im April 2021 beschlossenen Gesetzesnovelle ist die Zahl der On-Demand-Projekte, die in den öffentlichen Verkehr integriert sind, sprunghaft angestiegen. Laut einer Branchenumfrage des Verbands Deutscher Verkehrsunternehmen (VDV) im Jahr 2022 gab es Ende 2022 über 80 ÖV-integrierte digitale On-Demand-Verkehrsprojekte (VDV 2024). &lt;/p&gt;&lt;p&gt;Für die weitere Verbreitung und Entwicklung von On-Demand-Verkehren spielen mehrere Faktoren eine zentrale Rolle.&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Technisch befinden sich diese Mobilitätsangebote noch in einer frühen Entwicklungsphase, und es existieren bislang keine etablierten Geschäftsmodelle, was einen weiteren Forschungsbedarf aufzeigt. Es gibt noch verschiedene Verbesserungsmöglichkeiten, z.B. Anschlussgewährleistungen, Barrierefreiheit, geeignete Fahrzeuge, einheitliche Hintergrundsysteme, Datenschutz usw. Darüber hinaus werden autonome On-Demand-Services erprobt. &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Laut der Branchenumfrage des VDV aus dem Jahr 2022 (VDV 2024) sind fast alle On-Demand-Projekte nicht eigenwirtschaftlich und werden durch kommunale Verkehrsunternehmen oder staatliche Förderprogramme wie die DKV-Förderrichtlinie finanziert. Für die langfristige Sicherstellung der Angebote muss eine nachhaltige Finanzierungslösung gefunden werden. Dabei spielt politische Unterstützung eine entscheidende Rolle.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Agora Verkehrswende (2023): Mobilitätsoffensive für das Land. Wie Kommunen mit flexiblen Kleinbussen den ÖPNV von morgen gestalten können.&lt;/p&gt;&lt;p&gt;Gies, Jürgen; Langer, Victoria (2021): Mit On-Demand-Angeboten ÖPNV Bedarfsverkehre modernisieren. Werkstattbericht zu Chancen und Herausforderungen. Hg. v. Difu, Berlin.&lt;/p&gt;&lt;p&gt;Knie, Andreas; Ruhrort, Lisa (2020): Ride-Pooling-Dienste und ihre Bedeutung für den Verkehr. Nachfragemuster und Nutzungsmotive am Beispiel von „CleverShuttle“. - eine Untersuchung auf Grundlage von Buchungsdaten und Kundenbefragun-gen in vier deutschen Städten. Discussion Paper SP III 2020–601. Wissenschaftszentrum Berlin für Sozialforschung.&lt;/p&gt;&lt;p&gt;Kostorz-Weiss, Nadine; Fraedrich, Eva; Kagerbauer, Martin (2021): Ridepooling als Mobilitätsoption für alle? Erkenntnisse aus der Moia-Begleitforschung zu Nutzerinnen und Nutzern. In: Internationales Verkehrswesen ((73) 1), S. 67–71.&lt;/p&gt;&lt;p&gt;Siefer, Thomas; Sievers, Nina; Heemsoth, Jan Peter (2023): Handbuch zur Planung flexibler Bedienungsformen im ÖPNV. Ein Beitrag zur Sicherung der Daseinsvorsorge in nachfrageschwachen Räumen. Unter Mitarbeit von Rafael Kistner und Lucas Biermanski. Hg. v. BBSR, Bonn.&lt;/p&gt;&lt;p&gt;VDV (2024): Bedarfsverkehr per App kann Bus und Bahn ergänzen. Bessere Mobilität auf dem Land durch flexible Kleinbusangebote. Online verfügbar unter &lt;a href="https://www.vdv.de/ondemandumfrage22.aspx"&gt;https://www.vdv.de/ondemandumfrage22.aspx&lt;/a&gt;, zuletzt geprüft am 04.10.2024.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Fahrradwerkstatt</t>
@@ -169,37 +169,37 @@
     <t>Förderung selbstaktiver Mobilität</t>
   </si>
   <si>
-    <t>&lt;p&gt;Eine Fahrradwerkstatt stellt Werkzeuge und Dienstleistungen zur Reparatur und Wartung von Fahrrädern bereit . Diese Einrichtungen sind wichtig, um die Funktionsfähigkeit und Sicherheit der Fahrräder zu gewährleisten, wodurch die Nutzung des Fahrrads als nachhaltiges Verkehrsmittel gefördert wird.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Fahrradwerkstätten können in verschiedenen Formen organisiert sein. Je nach den beteiligten Akteuren lassen sich folgende Varianten identifizieren:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommerzielle Fahrradwerkstatt:&lt;/b&gt; Professionelle Reparaturwerkstätten mit ausgebildeten Fahrradmechanikern, die Serviceleistungen gegen Bezahlung anbieten.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Selbsthilfewerkstatt:&lt;/b&gt; Werkstätten, in denen Nutzer unter Anleitung von Fachpersonal oder freiwilligen Helfern ihr Fahrrad selbst reparieren können. Oftmals wird Werkzeug zur Verfügung gestellt und es gibt eine gemeinschaftliche Lernatmosphäre (ADAC Saar) .&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kleine Self-Service-Stationen:&lt;/b&gt; Speziell eingerichtete Stationen im öffentlichen Raum, die Radfahrenden die Möglichkeit bieten, kleinere Reparaturen und Wartungsarbeiten selbstständig durchzuführen. Diese Stationen sind mit grundlegenden Werkzeugen und einer Luftpumpe ausgestattet, um gängige Probleme wie platte Reifen, lockere Schrauben oder falsch eingestellte Sättel schnell zu beheben. Dies kann auch mit E-Ladepunkte verknüpft werden ( RadKultur-Baden-Württemberg ) .&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;ADAC-Selbsthilfewerkstätten&lt;/p&gt; &lt;p&gt;BIKE IT! RadServiceStationen, Bremen&lt;/p&gt; &lt;p&gt;RadService in Baden-Württemberg&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Fahrradwerkstätten können von privaten Unternehmen, gemeinnützigen Organisationen, Vereinen oder als Teil kommunaler Projekte betrieben werden.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Viele Werkstätten sind auch mit Fahrradgeschäften kombiniert, die zusätzlich den Verkauf von Fahrrädern und Zubehör anbieten.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen&lt;/b&gt; : können Fahrradwerkstätten als Teil ihrer Mobilitätsstrategien fördern.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunalen Einrichtungen und Unternehmen:&lt;/b&gt; können Fahrradreparatur-Service bereitstellen.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Eine Fahrradwerkstatt stellt Werkzeuge und Dienstleistungen zur Reparatur und Wartung von Fahrrädern bereit. Diese Einrichtungen sind wichtig, um die Funktionsfähigkeit und Sicherheit der Fahrräder zu gewährleisten, wodurch die Nutzung des Fahrrads als nachhaltiges Verkehrsmittel gefördert wird.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Fahrradwerkstätten können in verschiedenen Formen organisiert sein. Je nach den beteiligten Akteuren lassen sich folgende Varianten identifizieren:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommerzielle Fahrradwerkstatt:&lt;/b&gt; Professionelle Reparaturwerkstätten mit ausgebildeten Fahrradmechanikern, die Serviceleistungen gegen Bezahlung anbieten.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Selbsthilfewerkstatt: &lt;/b&gt;Werkstätten, in denen Nutzer unter Anleitung von Fachpersonal oder freiwilligen Helfern ihr Fahrrad selbst reparieren können. Oftmals wird Werkzeug zur Verfügung gestellt und es gibt eine gemeinschaftliche Lernatmosphäre (ADAC Saar).&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kleine Self-Service-Stationen: &lt;/b&gt;Speziell eingerichtete Stationen im öffentlichen Raum, die Radfahrenden die Möglichkeit bieten, kleinere Reparaturen und Wartungsarbeiten selbstständig durchzuführen. Diese Stationen sind mit grundlegenden Werkzeugen und einer Luftpumpe ausgestattet, um gängige Probleme wie platte Reifen, lockere Schrauben oder falsch eingestellte Sättel schnell zu beheben. Dies kann auch mit E-Ladepunkte verknüpft werden (RadKultur-Baden-Württemberg).&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ADAC-Selbsthilfewerkstätten&lt;/p&gt;&lt;p&gt;BIKE IT! RadServiceStationen, Bremen&lt;/p&gt;&lt;p&gt;RadService in Baden-Württemberg&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Fahrradwerkstätten können von privaten Unternehmen, gemeinnützigen Organisationen, Vereinen oder als Teil kommunaler Projekte betrieben werden. &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Viele Werkstätten sind auch mit Fahrradgeschäften kombiniert, die zusätzlich den Verkauf von Fahrrädern und Zubehör anbieten. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen&lt;/b&gt;: können Fahrradwerkstätten als Teil ihrer Mobilitätsstrategien fördern.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunalen Einrichtungen und Unternehmen:&lt;/b&gt; können Fahrradreparatur-Service bereitstellen.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Beispiel auf Landesebene:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;RadKULTUR-Förderung In Baden-Württemberg&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Mit Fahrradwerkstätten können die Service-Angebote für Fahrrad verbessert werden und das Fahrradfahren attraktive machen. Damit soll der Anteil des Rad ver kehrs am Gesamt ver kehr im Land lang fris tig gestei gert wer den.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Beispiel auf Landesebene: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;RadKULTUR-Förderung In Baden-Württemberg &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mit Fahrradwerkstätten können die Service-Angebote für Fahrrad verbessert werden und das Fahrradfahren attraktive machen. Damit soll der Anteil des Radverkehrs am Gesamtverkehr im Land langfristig gesteigert werden.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;M1, M2, M3, M4, M5&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Es besteht ein zunehmender Bedarf an einem Ausbau der Fahrradservice-Angebote, um das Radfahren attraktiver zu gestalten. Mit dem wachsenden Anteil an E-Bikes und Lastenrädern gewinnt ein professionelles Serviceangebot immer mehr an Bedeutung.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;ADFC-Saar: Selbsthilfe-Werkstatt des ADFC Saar im Haus der Umwelt Kontakt zum Artikel. Online verfügbar unter , zuletzt geprüft am 03.12.2024.&lt;/p&gt; &lt;p&gt;RadKultur-Baden-Württemberg: Rad­Service-Punkte. Was steckt hinter dem Modul? Online verfügbar unter , zuletzt geprüft am 03.10.2024.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Es besteht ein zunehmender Bedarf an einem Ausbau der Fahrradservice-Angebote, um das Radfahren attraktiver zu gestalten. Mit dem wachsenden Anteil an E-Bikes und Lastenrädern gewinnt ein professionelles Serviceangebot immer mehr an Bedeutung. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ADFC-Saar: Selbsthilfe-Werkstatt des ADFC Saar im Haus der Umwelt Kontakt zum Artikel. Online verfügbar unter &lt;a href="https://saarland.adfc.de/artikel/selbsthilfe-werkstatt-des-adfc-saar-im-haus-der-umwelt"&gt;https://saarland.adfc.de/artikel/selbsthilfe-werkstatt-des-adfc-saar-im-haus-der-umwelt&lt;/a&gt;, zuletzt geprüft am 03.12.2024.&lt;/p&gt;&lt;p&gt;RadKultur-Baden-Württemberg: Rad­Service-Punkte. Was steckt hinter dem Modul? Online verfügbar unter &lt;a href="https://www.radkultur-bw.de/kommunen/radservice-punkt"&gt;https://www.radkultur-bw.de/kommunen/radservice-punkt&lt;/a&gt;, zuletzt geprüft am 03.10.2024.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Laufbus für Kinder</t>
@@ -208,7 +208,7 @@
     <t>&lt;p&gt;Laufbus, auch „Walking Bus“ genannt, ist eine organisierte Laufgemeinschaft, bei der Kinder sicher mit ihren Freund*innen zu Fuß zur Schule gehen können. Dabei treffen sich die Kinder mit demselben Schulweg an vorab festgelegten Punkten bzw. Haltestellen entlang des Schulwegs und laufen wie ein Linienbus gemeinsam auf einer festgelegten Route zur Schule. Die erwachsenen Begleitpersonen unterstützen, indem sie in schwierigen Situationen helfen und auf die Sicherheit der Kinder achten.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Der Laufende Schulbus, Heidelberg.&lt;/p&gt; &lt;p&gt;&lt;a href="http://schulexpress.de/"&gt;http://schulexpress.de/&lt;/a&gt; uf der Website des Netzwerks „Schulexpress“ werden Schulen aufgeführt, die bereits einen Laufbus anbieten: .&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;b&gt;Der Laufende Schulbus, Heidelberg.&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;A&lt;/b&gt;&lt;b&gt;uf der Website des Netzwerks „Schulexpress“ werden Schulen aufgeführt, die bereits einen Laufbus anbieten: &lt;/b&gt;&lt;a href="http://schulexpress.de/"&gt;http://schulexpress.de/&lt;/a&gt;&lt;b&gt;.&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Lokale Schulen und Elterninitiativen organisieren oft Laufbusse. Diese können durch wechselnde Elternbeteiligung ermöglicht werden oder durch dauerhaft von einer Organisation oder den Kommunen gestellte Begleitpersonen unterstützt werden.&lt;/p&gt;</t>
@@ -217,25 +217,25 @@
     <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunale Verwaltung oder örtliche Verkehrsvereine:&lt;/b&gt; unterstützen bei der Errichtung und Organisation&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Es gibt keine spezifischen gesetzlichen Anforderungen .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Verkehrssicherheitsprogramm der Bundesregierung 2021-2030&lt;/p&gt; &lt;p&gt;Finanzierung erfolgt teilweise durch kommunale Förderungen.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Durch das gemeinsame Zu-Fuß-Gehen steigt die Sicherheit für den Fußverkehr von Kindern, wodurch auf das sogenannte "Elterntaxi" verzichtet werden kann. Dies entlastet die Eltern zeitlich und reduziert gleichzeitig Verkehrsaufkommen sowie komplexe Wegeketten. Darüber hinaus fördert der Laufbus die Selbständigkeit der Kinder , was langfristig zu einem nachhaltigen Mobilitätsverhalten beiträgt.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Schüler*innen der Grundschule, zumeist von Klasse 1 bis 4, vor allem in der Stadt.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Es gibt keine spezifischen gesetzlichen Anforderungen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verkehrssicherheitsprogramm der Bundesregierung 2021-2030&lt;/p&gt;&lt;p&gt;Finanzierung erfolgt teilweise durch kommunale Förderungen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Durch das gemeinsame Zu-Fuß-Gehen steigt die Sicherheit für den Fußverkehr von Kindern, wodurch auf das sogenannte "Elterntaxi" verzichtet werden kann. Dies entlastet die Eltern zeitlich und reduziert gleichzeitig Verkehrsaufkommen sowie komplexe Wegeketten. Darüber hinaus fördert der Laufbus die Selbständigkeit der Kinder, was langfristig zu einem nachhaltigen Mobilitätsverhalten beiträgt.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Schüler*innen der Grundschule, zumeist von Klasse 1 bis 4, vor allem in der Stadt. &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;M1, M4&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Das Modell „Laufbus“ ist ein bekanntes Konzept und wird bereits in zahlreichen Schulen und Städten erfolgreich umgesetzt. Es lässt sich flexibel an unterschiedliche schulische und städtische Gegebenheiten anpassen, was sein Potenzial für eine flächendeckende Implementierung erheblich steigert.&lt;/p&gt; &lt;p&gt;Die Integration in städtische Mobilitätskonzepte, insbesondere in Kombination mit weiteren Maßnahmen zur Verbesserung der Verkehrssicherheit, kann die Einführung des Laufbusses nachhaltig fördern.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;VCD (2024): VCD Laufbus: Schulbus auf Füßen. Online verfügbar unter &lt;a href="https://www.vcd.org/artikel/vcd-laufbus-zusammen-sicher-zur-schule-gehen"&gt;https://www.vcd.org/artikel/vcd-laufbus-zusammen-sicher-zur-schule-gehen&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Stadt Heidelberg (2021): Der Laufende Schulbus. Online verfügbar unter &lt;a href="https://www.heidelberg.de/site/Heidelberg2021/get/documents_E-918811683/heidelberg/Objektdatenbank/31/PDF/Nachhaltigkeitskonzepte/31_pdf_Folder_Laufender_Schulbus_2014_k2.pdf"&gt;https://www.heidelberg.de/site/Heidelberg2021/get/documents_E-918811683/heidelberg/Objektdatenbank/31/PDF/Nachhaltigkeitskonzepte/31_pdf_Folder_Laufender_Schulbus_2014_k2.pdf&lt;/a&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;Das Modell „Laufbus“ ist ein bekanntes Konzept und wird bereits in zahlreichen Schulen und Städten erfolgreich umgesetzt. Es lässt sich flexibel an unterschiedliche schulische und städtische Gegebenheiten anpassen, was sein Potenzial für eine flächendeckende Implementierung erheblich steigert.&lt;/p&gt;&lt;p&gt;Die Integration in städtische Mobilitätskonzepte, insbesondere in Kombination mit weiteren Maßnahmen zur Verbesserung der Verkehrssicherheit, kann die Einführung des Laufbusses nachhaltig fördern.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;VCD (2024): VCD Laufbus: Schulbus auf Füßen. Online verfügbar unter &lt;a href="https://www.vcd.org/artikel/vcd-laufbus-zusammen-sicher-zur-schule-gehen"&gt;https://www.vcd.org/artikel/vcd-laufbus-zusammen-sicher-zur-schule-gehen&lt;/a&gt;, zuletzt aktualisiert am 01.05.2024, zuletzt geprüft am 04.10.2024.&lt;/p&gt;&lt;p&gt;Stadt Heidelberg (2021): Der Laufende Schulbus. Online verfügbar unter &lt;a href="https://www.heidelberg.de/site/Heidelberg2021/get/documents_E-918811683/heidelberg/Objektdatenbank/31/PDF/Nachhaltigkeitskonzepte/31_pdf_Folder_Laufender_Schulbus_2014_k2.pdf"&gt;https://www.heidelberg.de/site/Heidelberg2021/get/documents_E-918811683/heidelberg/Objektdatenbank/31/PDF/Nachhaltigkeitskonzepte/31_pdf_Folder_Laufender_Schulbus_2014_k2.pdf&lt;/a&gt;, zuletzt aktualisiert am 2021, zuletzt geprüft am 04.10.2024.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Carsharing Angebote</t>
@@ -247,25 +247,25 @@
     <t>&lt;p&gt;Beim Organisierten Carsharing handelt es sich um ein innovatives Mobilitätskonzept, bei dem Fahrzeuge von mehreren Teilnehmende gemeinsam genutzt werden, anstatt dass jede*r einzelne teilnehmende Person ein eigenes Auto besitzt. In der Regel fungiert der Carsharing-Anbieter als Fahrzeughalter und stellt die Flotte zur Verfügung. Die Teilnehmende schließen bei der Registrierung einen Rahmenvertrag mit dem Anbieter ab, der es ihnen ermöglicht, alle verfügbaren Fahrzeuge des Anbieters zu buchen und zu nutzen.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Carsharing umfasst verschiedene Modelle, darunter stationsbasiertes Carsharing sowie free-floating Carsharing, und es werden auch kombinierte Carsharing-Systeme angeboten:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Beim stationsbasierten Carsharing stehen die Fahrzeuge auf festen Parkplätzen in einem definierten Netzwerk von Stationen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Im Gegensatz dazu sind bei free-floating Carsharing die Fahrzeuge über die Stadt verteilt und können von den Nutzer*innen über eine Smartphone-App lokalisiert und gebucht werden. Nach der Fahrt können die Nutzer*innen das Fahrzeug innerhalb des Nutzungsgebiets an einem beliebigen legalen Parkplatz abstellen.&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;In Regionen mit geringer Nachfrage nach Carsharing, in denen konventionelle Modelle wirtschaftlich nicht tragfähig sind, bieten sich verschiedene alternative Ansätze zur Einführung von Carsharing an:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Corporate Carsharing:&lt;/b&gt; Hierbei handelt es sich um Carsharing-Angebote, die durch Kooperationen mit Ankermieter*innen (gewerbliche Nutzen) initiiert werden. In Zeiten, in denen Carsharing-Fahrzeuge nicht für dienstliche Zwecke benötigt werden – insbesondere nach Feierabend und am Wochenende – können die Autos von Mitarbeiter*innen und gegebenenfalls der Öffentlichkeit zur privaten Nutzung gebucht werden.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Carsharing Verein:&lt;/b&gt; Statt durch kommerzielle Anbieter werden die Carsharing-Angebote hauptsächlich durch Vereine oder Verbände für ihre Mitglieder bereitgestellt. Diese Angebote werden bürgerschaftlich organisiert und basieren auf ehrenamtlichem Engagement vor Ort.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Urbane Angebote expandieren in den ländlichen Raum:&lt;/b&gt; Manche Carsharing-Anbietende aus städtischen Regionen erweitern ihr Angebot gezielt in ländliche Gebiete, um dort den Zugang zu Carsharing zu ermöglichen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Gemeinde finanzierte Angebote:&lt;/b&gt; Die Gemeinde bestellt das Carsharing und leistet (wenn nötig) einen Defizit-Ausgleich.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Beispiel CarSharing Renningen&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Beispiel StadtMobil e.V.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Beispiel: Region.Mobil in Homburg&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Carsharing umfasst verschiedene Modelle, darunter stationsbasiertes Carsharing sowie free-floating Carsharing, und es werden auch kombinierte Carsharing-Systeme angeboten:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Beim stationsbasierten Carsharing stehen die Fahrzeuge auf festen Parkplätzen in einem definierten Netzwerk von Stationen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Im Gegensatz dazu sind bei free-floating Carsharing die Fahrzeuge über die Stadt verteilt und können von den Nutzer*innen über eine Smartphone-App lokalisiert und gebucht werden. Nach der Fahrt können die Nutzer*innen das Fahrzeug innerhalb des Nutzungsgebiets an einem beliebigen legalen Parkplatz abstellen.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;In Regionen mit geringer Nachfrage nach Carsharing, in denen konventionelle Modelle wirtschaftlich nicht tragfähig sind, bieten sich verschiedene alternative Ansätze zur Einführung von Carsharing an:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Corporate Carsharing:&lt;/b&gt; Hierbei handelt es sich um Carsharing-Angebote, die durch Kooperationen mit Ankermieter*innen (gewerbliche Nutzen) initiiert werden. In Zeiten, in denen Carsharing-Fahrzeuge nicht für dienstliche Zwecke benötigt werden – insbesondere nach Feierabend und am Wochenende – können die Autos von Mitarbeiter*innen und gegebenenfalls der Öffentlichkeit zur privaten Nutzung gebucht werden.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Carsharing Verein:&lt;/b&gt; Statt durch kommerzielle Anbieter werden die Carsharing-Angebote hauptsächlich durch Vereine oder Verbände für ihre Mitglieder bereitgestellt. Diese Angebote werden bürgerschaftlich organisiert und basieren auf ehrenamtlichem Engagement vor Ort.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Urbane Angebote expandieren in den ländlichen Raum: &lt;/b&gt;Manche Carsharing-Anbietende aus städtischen Regionen erweitern ihr Angebot gezielt in ländliche Gebiete, um dort den Zugang zu Carsharing zu ermöglichen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Gemeinde finanzierte Angebote: &lt;/b&gt;Die Gemeinde bestellt das Carsharing und leistet (wenn nötig) einen Defizit-Ausgleich.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Beispiel CarSharing Renningen&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Beispiel StadtMobil e.V. &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Beispiel: Region.Mobil in Homburg&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Carsharing wird von kommerziellen Anbietern sowie von bürgerschaftlich organisierten Vereinen bereitgestellt. Letztere basieren auf ehrenamtlichem Engagement.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; spielen bei Carsharing eine wesentliche Rolle. Sie weisen Parkplätze auf öffentlichen Flächen für Carsharing-Fahrzeuge aus und können Carsharing fördern, indem sie entsprechende Konzepte erstellen oder diese in die kommunale Mobilitäts- und Verkehrsplanung integrieren. Darüber hinaus können sie selbst als Nutzer von Carsharing-Diensten auftreten. Zudem können Kommunen Carsharing-Angebote initiieren und deren Umsetzung an Anbieter vergeben.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;ÖPNV-Anbietende:&lt;/b&gt; sind wichtige Partner für Carsharing-Anbieter, da sie eine sinnvolle Ergänzung im öffentlichen Nahverkehr darstellen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Stromnetzbetreiber&lt;/b&gt; : sind für die Bereitstellung der Ladeinfrastruktur für Elektrofahrzeuge verantwortlich, was insbesondere für E-Carsharing von Bedeutung ist.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Unternehmen:&lt;/b&gt; integrieren Carsharing zunehmend in ihre betriebliche Mobilitätsstrategie, um die Flexibilität ihrer Mitarbeiter zu erhöhen und Kosten zu senken.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Automobilkonzerne:&lt;/b&gt; beteiligen sich an der Entwicklung und Bereitstellung von Carsharing-Fahrzeugen und -Technologien.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Der Bundesverband Carsharing (bcs):&lt;/b&gt; fungiert als Interessenverband für Carsharing, vernetzt die Anbieter und stellt wichtige Informationen sowie Ressourcen bereit.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Mobility-as-a-Service (MaaS)-Dienstleister:&lt;/b&gt; entwickeln und betreiben Plattformen, über welche Carsharing-Angebote gebucht werden können&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Das Carsharing-Gesetz (CsgG) des Bundes regelt zusammen mit entsprechenden Landesregelungen die Vergabe von Stellplätzen für Carsharing-Fahrzeuge im öffentlichen Raum und schafft damit Planungs- und Rechtssicherheit.&lt;/p&gt; &lt;p&gt;Beispiele von Regelungen auf Landesebenen:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Saarländisches Carsharinggesetz (SCsgG)&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Bremer Landes-Carsharinggesetz (BremLCsgG)&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Regelungen zum stationsbasierten Carsharing in BaWü, NRW, THÜ, BAY&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Beispiele für Förderungen auf Landesebene:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Förderung der Vernetzten Mobilität und des Mobilitätsmanagements (FöRi-MM) in NRW&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Studien zeigen, dass Carsharing, insbesondere die stations-basierte Variante, aktiv den privaten Fahrzeugbesitz verringern kann (Nehrke und Loose 2018) . Car sharing kann dazu beitragen, die Abhängigkeit vom privaten Autoverkehr zu verringern, insbesondere wenn es in Kombination mit dem öffentlichen Personennahverkehr (ÖPNV) inter- und multimodales Verkehrsverhalten fördert. Die Reduzierung des Fahrzeugbestands führt zu einem erheblichen Flächengewinn, der vor allem in dicht bebauten innerstädtischen Gebieten neue städtebauliche Gestaltungsmöglichkeiten eröffnet.&lt;/p&gt; &lt;p&gt;Carsharing bietet zudem bestimmten sozialen Gruppen mehr Teilhabe im Bereich Mobilität, indem es kostengünstig Zugang zu Fahrzeugen ermöglicht.&lt;/p&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; spielen bei Carsharing eine wesentliche Rolle. Sie weisen Parkplätze auf öffentlichen Flächen für Carsharing-Fahrzeuge aus und können Carsharing fördern, indem sie entsprechende Konzepte erstellen oder diese in die kommunale Mobilitäts- und Verkehrsplanung integrieren. Darüber hinaus können sie selbst als Nutzer von Carsharing-Diensten auftreten. Zudem können Kommunen Carsharing-Angebote initiieren und deren Umsetzung an Anbieter vergeben.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;ÖPNV-Anbietende:&lt;/b&gt; sind wichtige Partner für Carsharing-Anbieter, da sie eine sinnvolle Ergänzung im öffentlichen Nahverkehr darstellen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Stromnetzbetreiber&lt;/b&gt;: sind für die Bereitstellung der Ladeinfrastruktur für Elektrofahrzeuge verantwortlich, was insbesondere für E-Carsharing von Bedeutung ist.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Unternehmen: &lt;/b&gt;integrieren Carsharing zunehmend in ihre betriebliche Mobilitätsstrategie, um die Flexibilität ihrer Mitarbeiter zu erhöhen und Kosten zu senken.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Automobilkonzerne:&lt;/b&gt; beteiligen sich an der Entwicklung und Bereitstellung von Carsharing-Fahrzeugen und -Technologien.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Der Bundesverband Carsharing (bcs):&lt;/b&gt; fungiert als Interessenverband für Carsharing, vernetzt die Anbieter und stellt wichtige Informationen sowie Ressourcen bereit.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Mobility-as-a-Service (MaaS)-Dienstleister:&lt;/b&gt; entwickeln und betreiben Plattformen, über welche Carsharing-Angebote gebucht werden können&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Carsharing-Gesetz (CsgG) des Bundes regelt zusammen mit entsprechenden Landesregelungen die Vergabe von Stellplätzen für Carsharing-Fahrzeuge im öffentlichen Raum und schafft damit Planungs- und Rechtssicherheit.&lt;/p&gt;&lt;p&gt;Beispiele von Regelungen auf Landesebenen:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Saarländisches Carsharinggesetz (SCsgG)&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Bremer Landes-Carsharinggesetz (BremLCsgG)&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Regelungen zum stationsbasierten Carsharing in BaWü, NRW, THÜ, BAY&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beispiele für Förderungen auf Landesebene:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Förderung der Vernetzten Mobilität und des Mobilitätsmanagements (FöRi-MM) in NRW&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Studien zeigen, dass Carsharing, insbesondere die stations-basierte Variante, aktiv den privaten Fahrzeugbesitz verringern kann (Nehrke und Loose 2018). Carsharing kann dazu beitragen, die Abhängigkeit vom privaten Autoverkehr zu verringern, insbesondere wenn es in Kombination mit dem öffentlichen Personennahverkehr (ÖPNV) inter- und multimodales Verkehrsverhalten fördert. Die Reduzierung des Fahrzeugbestands führt zu einem erheblichen Flächengewinn, der vor allem in dicht bebauten innerstädtischen Gebieten neue städtebauliche Gestaltungsmöglichkeiten eröffnet.&lt;/p&gt;&lt;p&gt;Carsharing bietet zudem bestimmten sozialen Gruppen mehr Teilhabe im Bereich Mobilität, indem es kostengünstig Zugang zu Fahrzeugen ermöglicht.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Carsharing kann sowohl in städtischen als auch ländlichen Gebieten angeboten werden. Jedoch stellen Kleinstädte und ländliche Regionen größere Herausforderungen dar.&lt;/p&gt;</t>
@@ -274,70 +274,67 @@
     <t>&lt;p&gt;Carsharing wird von Nutzer*innen aus allen sozialen Gruppen in Anspruch genommen (Nehrke und Loose 2018). Haushalte mit demographischen Merkmalen wie höherer Bildung, jüngerem Alter und höheren Einkommen neigen dazu, in Carsharing-Angebote schneller einzusteigen. Zur Nutzung der Free-Floating-Varianten tendiert insbesondere die jüngere Generation.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;M1, M3 , M5&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Seit den 1980er-Jahren haben sich Carsharing-Pionierprojekte in Deutschland stetig professionalisiert und weiterentwickelt. Zum 1. Januar 2024 waren deutschlandweit mehr als 5,5 Millionen Fahrberechtigte beim Car-Sharing registriert, was einem Anstieg von 23,1 Prozent gegenüber dem Vorjahr entspricht, verteilt auf 1.285 Städte und Gemeinden. Das Angebot reicht von Großstädten bis hin zu kleinen Gemeinden (Quelle: Bundesverband Carsharing e.V.). Das kontinuierliche Wachstum der Nutzungszahlen sowie die Ausweitung der Angebote verdeutlichen das Potenzial von Carsharing, sich weiter zu etablieren. Besonders in urbanen Räumen, aber zunehmend auch in kleineren Orten, zeigt Carsharing seine Stärke als flexible Mobilitätslösung.&lt;/p&gt; &lt;p&gt;Verschiedene Faktoren können dies unterstützen (Auswertung von Expert*inneninterviews im Rahmen des Projekts):&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Wie sich Carsharing-Angebote langfristig ausdehnen, hängt davon ab, ob sie eigenwirtschaftlich betrieben werden können. Ein ausgewogenes Verhältnis zwischen Auslastung und Fahrzeugverfügbarkeit ist dabei von zentraler Bedeutung. Die wirtschaftliche Tragfähigkeit des Geschäftsmodells wurde durch die langjährige Praxis in Deutschland bereits nachgewiesen. Für einen schnelleren Aufbau von Carsharing-Angeboten spielen insbesondere Unternehmen und Verwaltungen, die Carsharing für ihre dienstliche Mobilität nutzen, eine Schlüsselrolle. Derzeit ist die Integration von Carsharing-Angeboten in ein MaaS-System ein wichtiges Thema für Carsharing-Anbieter. Diese steht jedoch noch vor technischen und rechtlichen Herausforderungen, insbesondere im Hinblick auf Datenverfügbarkeit und Datenschutz.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Da Carsharing auf den gelegentlichen Pkw-Bedarf ausgerichtet ist, sind eine gute ÖPNV-Versorgung sowie eine gut ausgebaute Fuß- und Radverkehrsinfrastruktur essenziell. Zunehmend wird auch der Aufbau einer Ladeinfrastruktur notwendig, um die Elektrifizierung der Fahrzeugflotten voranzutreiben, wobei die hohen Kosten derzeit eine Herausforderung für die Anbieter darstellen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Carsharing wird zunehmend als wichtiges Element der kommunalen Verkehrswende anerkannt, viele Kommunen initiieren selbst Car s haring-Angebote. Die Unterstützung der Kommunen ist hierbei entscheidend, z. B. durch Markterkundungen, die Bereitstellung öffentlicher Stellplätze und die Entwicklung von Standortkonzepten.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; In der Kommunikation können Aspekte wie Kostenersparnis und geringer Aufwand im Vordergrund stehen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nehrke, Gunnar; Loose, Willi (2018): Nutzer und Mobilitätsverhalten in verschiedenen CarSharing-Varianten. Projektbericht. Hg. v. bcs.&lt;/p&gt; &lt;p&gt;Loose, Willi (2016): Vom Solidarhandeln zur Marktorientierung – 25 Jahre CarSharing im Überblick. In: Bundesverband CarSharing e.V. (Hg.): CarSharing in Deutschland – von den Anfängen bis heute. Brühl: ksv kölner stadt- und verkehrs-verlag, S. 17–28.&lt;/p&gt;</t>
+    <t>&lt;p&gt;M1, M3, M5&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Seit den 1980er-Jahren haben sich Carsharing-Pionierprojekte in Deutschland stetig professionalisiert und weiterentwickelt. Zum 1. Januar 2024 waren deutschlandweit mehr als 5,5 Millionen Fahrberechtigte beim Car-Sharing registriert, was einem Anstieg von 23,1 Prozent gegenüber dem Vorjahr entspricht, verteilt auf 1.285 Städte und Gemeinden. Das Angebot reicht von Großstädten bis hin zu kleinen Gemeinden (Quelle: Bundesverband Carsharing e.V.). Das kontinuierliche Wachstum der Nutzungszahlen sowie die Ausweitung der Angebote verdeutlichen das Potenzial von Carsharing, sich weiter zu etablieren. Besonders in urbanen Räumen, aber zunehmend auch in kleineren Orten, zeigt Carsharing seine Stärke als flexible Mobilitätslösung.&lt;/p&gt;&lt;p&gt;Verschiedene Faktoren können dies unterstützen (Auswertung von Expert*inneninterviews im Rahmen des Projekts):&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Wie sich Carsharing-Angebote langfristig ausdehnen, hängt davon ab, ob sie eigenwirtschaftlich betrieben werden können. Ein ausgewogenes Verhältnis zwischen Auslastung und Fahrzeugverfügbarkeit ist dabei von zentraler Bedeutung. Die wirtschaftliche Tragfähigkeit des Geschäftsmodells wurde durch die langjährige Praxis in Deutschland bereits nachgewiesen. Für einen schnelleren Aufbau von Carsharing-Angeboten spielen insbesondere Unternehmen und Verwaltungen, die Carsharing für ihre dienstliche Mobilität nutzen, eine Schlüsselrolle. Derzeit ist die Integration von Carsharing-Angeboten in ein MaaS-System ein wichtiges Thema für Carsharing-Anbieter. Diese steht jedoch noch vor technischen und rechtlichen Herausforderungen, insbesondere im Hinblick auf Datenverfügbarkeit und Datenschutz.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Da Carsharing auf den gelegentlichen Pkw-Bedarf ausgerichtet ist, sind eine gute ÖPNV-Versorgung sowie eine gut ausgebaute Fuß- und Radverkehrsinfrastruktur essenziell. Zunehmend wird auch der Aufbau einer Ladeinfrastruktur notwendig, um die Elektrifizierung der Fahrzeugflotten voranzutreiben, wobei die hohen Kosten derzeit eine Herausforderung für die Anbieter darstellen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Carsharing wird zunehmend als wichtiges Element der kommunalen Verkehrswende anerkannt, viele Kommunen initiieren selbst Carsharing-Angebote. Die Unterstützung der Kommunen ist hierbei entscheidend, z. B. durch Markterkundungen, die Bereitstellung öffentlicher Stellplätze und die Entwicklung von Standortkonzepten.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; In der Kommunikation können Aspekte wie Kostenersparnis und geringer Aufwand im Vordergrund stehen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nehrke, Gunnar; Loose, Willi (2018): Nutzer und Mobilitätsverhalten in verschiedenen CarSharing-Varianten. Projektbericht. Hg. v. bcs.&lt;/p&gt;&lt;p&gt;Loose, Willi (2016): Vom Solidarhandeln zur Marktorientierung – 25 Jahre CarSharing im Überblick. In: Bundesverband CarSharing e.V. (Hg.): CarSharing in Deutschland – von den Anfängen bis heute. Brühl: ksv kölner stadt- und verkehrs-verlag, S. 17–28.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Privates (Peer-to-Peer) Carsharing</t>
   </si>
   <si>
-    <t>&lt;p&gt;Privates Carsharing oder Peer-to-Peer-Carsharing bezeichnet Fahrzeugmiete und -vermietung zwischen Privatpersonen zur Nutzung. Im Gegensatz zum kommerziellen Carsharing werden die Fahrzeuge nicht ausschließlich für Zweck e des Sharing verwendet , sondern von den Besitzenden selbst genutzt. Das Autoteilen wird somit privat betrieben.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;G&lt;/b&gt; &lt;b&gt;emeinsame Nutzung von Fahrzeugen&lt;/b&gt; &lt;b&gt;innerhalb&lt;/b&gt; &lt;b&gt;eine&lt;/b&gt; &lt;b&gt;s&lt;/b&gt; &lt;b&gt;bestimmten und beschränkten Personenkreis&lt;/b&gt; &lt;b&gt;es&lt;/b&gt; : Viele Initiativen haben sich zu professionellen Carsharing- Anbieter n entwickelt (vgl. Carsharing-Verein).&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Über d&lt;/b&gt; &lt;b&gt;igitale Plattformen organisierte&lt;/b&gt; &lt;b&gt;s&lt;/b&gt; &lt;b&gt;Teilen&lt;/b&gt; :  Des Weiteren haben k ommerzielle Anbieter , z.B. SnapCar und Getaround (ehemals Drivy) diesen Prozess durch Online-Plattformen professionalisiert, die Vermietungen von privat zu privat ermöglichen und zusätzlich Versicherungsdienstleistungen anbieten. Diese Plattformen fungieren als Schnittstelle, auf der Privatpersonen ihre eigenen Fahrzeuge zur Vermietung anbieten können, während potenzielle Mieter die Angebote durchsuchen und nutzen können.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Private Personen als Anbieter von Autos .&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Kommerzielle Unternehmen als Anbieter von Plattformen .&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Privates Carsharing oder Peer-to-Peer-Carsharing bezeichnet Fahrzeugmiete und -vermietung zwischen Privatpersonen zur Nutzung. Im Gegensatz zum kommerziellen Carsharing werden die Fahrzeuge nicht ausschließlich für Zwecke des Sharing verwendet, sondern von den Besitzenden selbst genutzt. Das Autoteilen wird somit privat betrieben.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;G&lt;/b&gt;&lt;b&gt;emeinsame Nutzung von Fahrzeugen &lt;/b&gt;&lt;b&gt;innerhalb&lt;/b&gt;&lt;b&gt; eine&lt;/b&gt;&lt;b&gt;s&lt;/b&gt;&lt;b&gt; bestimmten und beschränkten Personenkreis&lt;/b&gt;&lt;b&gt;es&lt;/b&gt;: Viele Initiativen haben sich zu professionellen Carsharing-Anbietern entwickelt (vgl. Carsharing-Verein).&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Über d&lt;/b&gt;&lt;b&gt;igitale Plattformen organisierte&lt;/b&gt;&lt;b&gt;s&lt;/b&gt;&lt;b&gt; Teilen&lt;/b&gt;:  Des Weiteren haben kommerzielle Anbieter, z.B. SnapCar und Getaround (ehemals Drivy) diesen Prozess durch Online-Plattformen professionalisiert, die Vermietungen von privat zu privat ermöglichen und zusätzlich Versicherungsdienstleistungen anbieten. Diese Plattformen fungieren als Schnittstelle, auf der Privatpersonen ihre eigenen Fahrzeuge zur Vermietung anbieten können, während potenzielle Mieter die Angebote durchsuchen und nutzen können.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Private Personen als Anbieter von Autos.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Kommerzielle Unternehmen als Anbieter von Plattformen.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Keine spezifischen rechtlichen Rahmenbedingungen&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Das private Carsharing trägt zur besseren Ausn utzung der vorhandenen Fahrzeugflotte bei und birgt damit ein Potenzial zu r Reduktion de s MIV. Es bietet eine Ergänzung zu ÖPNV und ermöglicht einen besseren Zugang zur Mobilität .&lt;/p&gt;</t>
+    <t>&lt;p&gt;Das private Carsharing trägt zur besseren Ausnutzung der vorhandenen Fahrzeugflotte bei und birgt damit ein Potenzial zur Reduktion des MIV. Es bietet eine Ergänzung zu ÖPNV und ermöglicht einen besseren Zugang zur Mobilität.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Nach Nehrke und Loose (2018) richtet sich das Peer-to-Peer-Carsharing an eine andere Zielgruppe als die stationsbasierten oder Free-Floating-Carsharing-Varianten. Die Nutzer des Peer-to-Peer-Carsharing haben ein niedrigeres Einkommen als die Nutzer anderer Carsharing-Modelle. Dies wird insgesamt mit geringerer Regelmäßigkeit genutzt.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;M1, M3, M5&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Es wird keine Erfassung der Nutzung veröffentlicht, damit ist es schwierig, die Potenziale für die weitere Verbreitung abzuschätzen.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Forschungs-Informations-System (2023): Privates Autoteilen. Online verfügbar unter &lt;a href="https://www.forschungsinformationssystem.de/servlet/is/81497/"&gt;https://www.forschungsinformationssystem.de/servlet/is/81497/&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Nehrke, Gunnar; Loose, Willi (2018): Nutzer und Mobilitätsverhalten in verschiedenen CarSharing-Varianten. Projektbericht. Hg. v. bcs.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Forschungs-Informations-System (2023): Privates Autoteilen. Online verfügbar unter &lt;a href="https://www.forschungsinformationssystem.de/servlet/is/81497/"&gt;https://www.forschungsinformationssystem.de/servlet/is/81497/&lt;/a&gt;, zuletzt aktualisiert am 07.02.2023, zuletzt geprüft am 04.10.2024.&lt;/p&gt;&lt;p&gt;Nehrke, Gunnar; Loose, Willi (2018): Nutzer und Mobilitätsverhalten in verschiedenen CarSharing-Varianten. Projektbericht. Hg. v. bcs.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Fahrgemeinschaft und Ridesharing-Angebote</t>
   </si>
   <si>
-    <t>&lt;p&gt;Unter Ridesharing werden öffentlich zugängliche Mitnahmesysteme verstanden, bei denen freie Plätze im privaten Pkw Dritten zur Verfügung gestellt und über eine i n der Regel internetbasierte Plattform zugänglich gemacht werden.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Ridesharing-Angebote&lt;/b&gt; werden &lt;b&gt;über digitale Plattformen&lt;/b&gt; für Mitfahrgelegenheiten, wie beispielsweise BlaBlaCar, organisiert.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;A&lt;/b&gt; &lt;b&gt;uf Pendler fokussierte Angebote&lt;/b&gt; , bei denen Unternehmen oder öffentliche Verwaltungen mit Plattformanbietern kooperieren, um Fahrgemeinschaften für Pendelwege intern oder zwischen verschiedenen Organisationen zu abzustimm en.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Pampa ride-sharing app&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Pendlerportal Landesregierung Nordrhein-Westfalen&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;GoFLUX&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Plattformanbieter: Verantwortlich für die Bereitstellung von Plattformen zur Vermittlung von Fahrgemeinschaften.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Privatpersonen: Bieten Fahrten ohne kommerziellen Profit an, indem sie freie Plätze in ihren Fahrzeugen zur Verfügung stellen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen oder Regionen&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; beschaffen Plattformen für ihr Gebiet und stellen diese ihren Einwohner*innen zur Verfügung.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Öffentliche Einrichtungen und Unternehmen:&lt;/b&gt; Beschaffen die Plattformen und stellen diese ihren Mitarbeiter*innen zur Nutzung zur Verfügung.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Verkehrsverbund:&lt;/b&gt; Kooperiert als Partner zur Integration von Fahrgemeinschaftsangeboten in den öffentlichen Nahverkehr.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Sogenannte Gefälligkeitsmitnahmen, bei denen die Beförderung unentgeltlich ist oder das Gesamtentgelt nicht die Betriebskosten übersteigt, unterliegen nicht dem PBefG (§ 1 Abs. 2 PBefG). Damit gibt es hierzu k eine spezifischen rechtlichen Rahmenbedingungen .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;In NRW werden die Pendlerportal e durch das LANUV eingeführt und durch MWIKE finanziert und sind für alle Pendler*innen frei verfügbar.&lt;/p&gt; &lt;p&gt;Viele Kommunen haben mit Kooperation von Plattformanbieter n die Plattform für Pendler eingeführt und finanziert.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;D ie Fahrgemeinschaft trägt zur effizienteren Nutzung der vorhandenen Fahrzeugflotte bei und ist eine gute Ergänzung zu m ÖPNV , insbesondere in Zeiten und Räumen geringer Nachfrage . In der Folge s ink en die Verkehrsbelastung und der Parkdruck in Stadtquartieren . H i er ist jedoch in Ergänzung des bestehenden Verkehrssystems die Zielerreichung insgesamt zu fördern.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Unter Ridesharing werden öffentlich zugängliche Mitnahmesysteme verstanden, bei denen freie Plätze im privaten Pkw Dritten zur Verfügung gestellt und über eine in der Regel internetbasierte Plattform zugänglich gemacht werden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Ridesharing-Angebote &lt;/b&gt;werden &lt;b&gt;über digitale Plattformen&lt;/b&gt; für Mitfahrgelegenheiten, wie beispielsweise BlaBlaCar, organisiert.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;A&lt;/b&gt;&lt;b&gt;uf Pendler fokussierte Angebote&lt;/b&gt;, bei denen Unternehmen oder öffentliche Verwaltungen mit Plattformanbietern kooperieren, um Fahrgemeinschaften für Pendelwege intern oder zwischen verschiedenen Organisationen zu abzustimmen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Pampa ride-sharing app&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Pendlerportal Landesregierung Nordrhein-Westfalen&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;GoFLUX&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Plattformanbieter: Verantwortlich für die Bereitstellung von Plattformen zur Vermittlung von Fahrgemeinschaften.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Privatpersonen: Bieten Fahrten ohne kommerziellen Profit an, indem sie freie Plätze in ihren Fahrzeugen zur Verfügung stellen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen oder Regionen&lt;/b&gt;&lt;b&gt;:&lt;/b&gt; beschaffen Plattformen für ihr Gebiet und stellen diese ihren Einwohner*innen zur Verfügung.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Öffentliche Einrichtungen und Unternehmen:&lt;/b&gt; Beschaffen die Plattformen und stellen diese ihren Mitarbeiter*innen zur Nutzung zur Verfügung.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Verkehrsverbund:&lt;/b&gt; Kooperiert als Partner zur Integration von Fahrgemeinschaftsangeboten in den öffentlichen Nahverkehr.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sogenannte Gefälligkeitsmitnahmen, bei denen die Beförderung unentgeltlich ist oder das Gesamtentgelt nicht die Betriebskosten übersteigt, unterliegen nicht dem PBefG (§ 1 Abs. 2 PBefG). Damit gibt es hierzu keine spezifischen rechtlichen Rahmenbedingungen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In NRW werden die Pendlerportale durch das LANUV eingeführt und durch MWIKE finanziert und sind für alle Pendler*innen frei verfügbar.&lt;/p&gt;&lt;p&gt;Viele Kommunen haben mit Kooperation von Plattformanbietern die Plattform für Pendler eingeführt und finanziert.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Fahrgemeinschaft trägt zur effizienteren Nutzung der vorhandenen Fahrzeugflotte bei und ist eine gute Ergänzung zum ÖPNV, insbesondere in Zeiten und Räumen geringer Nachfrage. In der Folge sinken die Verkehrsbelastung und der Parkdruck in Stadtquartieren. Hier ist jedoch in Ergänzung des bestehenden Verkehrssystems die Zielerreichung insgesamt zu fördern.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Pendler*innen&lt;/p&gt;</t>
@@ -349,37 +346,37 @@
     <t>&lt;p&gt;Da bisher keine Nutzungsdaten oder Untersuchung zu den Ridesharing-Angeboten veröffentlicht wurden, ist es schwer, deren aktuelle Verbreitung genau zu erfassen und das Potenzial für eine weitere Verbreitung einzuschätzen. Dennoch bieten die pendlerorientierten Angebote vielversprechende Perspektiven und weisen ein hohes Potenzial hinsichtlich der zukünftigen Verbreitung auf.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Bundesministerium für Verkehr und digitale Infrastruktur (BMVI) (Hg.) (2016): Mobilitäts- und Angebotsstrategien in ländlichen Räumen. Planungsleitfaden für Handlungsmöglichkeiten von ÖPNV-Aufgabenträgern und Verkehrsunternehmen unter besonderer Berücksichtigung wirtschaftlicher Aspekte flexibler Bedienungsformen.&lt;/p&gt; &lt;p&gt;Forschungs-Informations-System (2023): Fahrgemeinschaften und Gelegenheitsmitfahrten. Online verfügbar unter &lt;a href="https://www.forschungsinformationssystem.de/servlet/is/85241/"&gt;https://www.forschungsinformationssystem.de/servlet/is/85241/&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Heinitz, Florian (2020): Potenziale und Hemmnisse für Pkw-Fahrgemeinschaften in Deutschland. Teilbericht. Hg. v. Umweltbundesamt. Dessau-Roßlau (Texte, 216/2020). Online verfügbar unter &lt;a href="https://www.umweltbundesamt.de/potenziale-hemmnisse-pkw-fahrgemeinschaften"&gt;https://www.umweltbundesamt.de/potenziale-hemmnisse-pkw-fahrgemeinschaften&lt;/a&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;Bundesministerium für Verkehr und digitale Infrastruktur (BMVI) (Hg.) (2016): Mobilitäts- und Angebotsstrategien in ländlichen Räumen. Planungsleitfaden für Handlungsmöglichkeiten von ÖPNV-Aufgabenträgern und Verkehrsunternehmen unter besonderer Berücksichtigung wirtschaftlicher Aspekte flexibler Bedienungsformen.&lt;/p&gt;&lt;p&gt;Forschungs-Informations-System (2023): Fahrgemeinschaften und Gelegenheitsmitfahrten. Online verfügbar unter &lt;a href="https://www.forschungsinformationssystem.de/servlet/is/85241/"&gt;https://www.forschungsinformationssystem.de/servlet/is/85241/&lt;/a&gt;, zuletzt aktualisiert am 07.02.2023, zuletzt geprüft am 04.10.2024.&lt;/p&gt;&lt;p&gt;Heinitz, Florian (2020): Potenziale und Hemmnisse für Pkw-Fahrgemeinschaften in Deutschland. Teilbericht. Hg. v. Umweltbundesamt. Dessau-Roßlau (Texte, 216/2020). Online verfügbar unter &lt;a href="https://www.umweltbundesamt.de/potenziale-hemmnisse-pkw-fahrgemeinschaften"&gt;https://www.umweltbundesamt.de/potenziale-hemmnisse-pkw-fahrgemeinschaften&lt;/a&gt;, zuletzt geprüft am 04.10.2024.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Bikesharing</t>
   </si>
   <si>
-    <t>&lt;p&gt;Bikesharing bezeichnet das Angebot eines räumlich und zeitlich flexiblen Fahrradverleihsystems, welches die aufeinanderfolgende Nutzung von Fahrrädern durch mehrere Personen ermöglicht. Neben herkömmlichen Fahrrädern können auch Lastenr ä d er und elektrisch unterstützte Fahrräder zum Einsatz kommen .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Fahrräder werden durch eine Online-Buchung oder eine vollautomatische Sofort-Ausleihe rund um die Uhr angeboten. Ähnlich wie beim Carsharing können die Bikesharing - Angebote grundsätzlich in stationsbasierte, Free-Floating- und kombinierte Bikes haring-Systeme unterschieden werden .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;a href="https://www.vdv.de/liste-bike-sharing.aspx"&gt;https://www.vdv.de/liste-bike-sharing.aspx&lt;/a&gt; -Angeboten in Deutschland ist auf der Website von vdv zu finden: (letzter Zugriff: 11.10.2024)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;In Deutschland dominieren zwei kommerzielle Anbieter den Bike s haring-Markt: Nextbike und Call a Bike ( ein Tochterunternehmen von Deutsche Bahn) .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; Initiierung oder Unterstützen der Etablierung der Projekte. Mache Kommunen betr e iben selb st die Projekte .&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ob das Bereitstellen von Leihrädern unter die „Sondernutzung“ öffentlicher Flächen, die der Erlaubnis der zuständigen Straßenbaubehörde bedarf oder unter den „Gemeingebrauch“, der keine ausdrückliche Erlaubnis der Kommune erfordert, wird nicht einheitlich reguliert (Agora Verkehrswende 2019) .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bikesharing kann dazu beitragen, die Abhängigkeit vom Autoverkehr zu verringern, insbesondere wenn es in Kombination mit dem öffentlichen Personennahverkehr (ÖPNV) inter- und multimodales Verkehrsverhalten fördert. Dies ist insbesondere eine Mobilitätsoption für Nutzungsgruppe n , die kein Auto besitzen. Jedoch ist de r Effekt, allein durch die Fahrrad s haring Angebote , Auto s zu ersetzen, gering.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Mehr als die Hälfte der mit Bikesharing-Angeboten ausgestatteten Städte zählen zu den metropolitanen Stadtregione n , 28% zu regiopolitanen Regionen und 19% zu ländlichen Regionen (Kagerbauer et al. 2022, S.47 ).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Beim Bikes haring haben die Nutze nde oft eine enge Bindung zum ÖPNV und sind überdurchschnittlich häufig Mitglieder von Carsharing-Diensten. Dennoch bevorzugt ein großer Teil der fahrradorientierten Bevölkerung weiterhin das eigene Fahrrad und nutzt daher das Sharing-Angebot nicht. Die Nutze nde des Bikes harings weisen im Vergleich zur Gesamtbevölkerung einen höheren Anteil an jüngeren, gut ausgebildeten Personen auf, die entweder berufstätig oder studierend sind (Kagerbauer et al. 2022, S.47).&lt;/p&gt;</t>
+    <t>&lt;p&gt;Bikesharing bezeichnet das Angebot eines räumlich und zeitlich flexiblen Fahrradverleihsystems, welches die aufeinanderfolgende Nutzung von Fahrrädern durch mehrere Personen ermöglicht. Neben herkömmlichen Fahrrädern können auch Lastenräder und elektrisch unterstützte Fahrräder zum Einsatz kommen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Fahrräder werden durch eine Online-Buchung oder eine vollautomatische Sofort-Ausleihe rund um die Uhr angeboten. Ähnlich wie beim Carsharing können die Bikesharing-Angebote grundsätzlich in stationsbasierte, Free-Floating- und kombinierte Bikesharing-Systeme unterschieden werden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Eine Liste von aktuellen Fahrrad-Sharing&lt;/b&gt;&lt;b&gt;-Angeboten&lt;/b&gt;&lt;b&gt; in Deutschland ist auf der Website von vdv zu finden: &lt;/b&gt;&lt;a href="https://www.vdv.de/liste-bike-sharing.aspx"&gt;https://www.vdv.de/liste-bike-sharing.aspx&lt;/a&gt;&lt;b&gt; (letzter Zugriff: 11.10.2024)&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In Deutschland dominieren zwei kommerzielle Anbieter den Bikesharing-Markt: Nextbike und Call a Bike (ein Tochterunternehmen von Deutsche Bahn).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; Initiierung oder Unterstützen der Etablierung der Projekte. Mache Kommunen betreiben selbst die Projekte.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ob das Bereitstellen von Leihrädern unter die „Sondernutzung“ öffentlicher Flächen, die der Erlaubnis der zuständigen Straßenbaubehörde bedarf oder unter den „Gemeingebrauch“, der keine ausdrückliche Erlaubnis der Kommune erfordert, wird nicht einheitlich reguliert (Agora Verkehrswende 2019).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bikesharing kann dazu beitragen, die Abhängigkeit vom Autoverkehr zu verringern, insbesondere wenn es in Kombination mit dem öffentlichen Personennahverkehr (ÖPNV) inter- und multimodales Verkehrsverhalten fördert. Dies ist insbesondere eine Mobilitätsoption für Nutzungsgruppen, die kein Auto besitzen. Jedoch ist der Effekt, allein durch die Fahrradsharing Angebote, Autos zu ersetzen, gering.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Mehr als die Hälfte der mit Bikesharing-Angeboten ausgestatteten Städte zählen zu den metropolitanen Stadtregionen, 28% zu regiopolitanen Regionen und 19% zu ländlichen Regionen (Kagerbauer et al. 2022, S.47).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beim Bikesharing haben die Nutzende oft eine enge Bindung zum ÖPNV und sind überdurchschnittlich häufig Mitglieder von Carsharing-Diensten. Dennoch bevorzugt ein großer Teil der fahrradorientierten Bevölkerung weiterhin das eigene Fahrrad und nutzt daher das Sharing-Angebot nicht. Die Nutzende des Bikesharings weisen im Vergleich zur Gesamtbevölkerung einen höheren Anteil an jüngeren, gut ausgebildeten Personen auf, die entweder berufstätig oder studierend sind (Kagerbauer et al. 2022, S.47).&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;M3&lt;/p&gt;</t>
@@ -388,46 +385,46 @@
     <t>&lt;p&gt;Die Anzahl der Nutzer*innen im deutschen Bikesharing-Markt wächst kontinuierlich (Statista 2024). Jedoch ist das Potenzial für eine weitere Verbreitung ohne mehr Forschung schwer zu beurteilen.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Agora Verkehrswende (Hg.) (2018): Bikesharing im Wandel. Handlungsempfehlungen für deutsche Städte und Gemeinden zum Umgang mit stationslosen Systemen. Online verfügbar unter &lt;a href="https://www.agora-verkehrswende.de/fileadmin/Projekte/2018/Stationslose_Bikesharing_Systeme/Agora_Verkehrswende_Bikesharing_WEB.pdf"&gt;https://www.agora-verkehrswende.de/fileadmin/Projekte/2018/Stationslose_Bikesharing_Systeme/Agora_Verkehrswende_Bikesharing_WEB.pdf&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Kagerbauer, Martin; Wörle, Tim; Schmitt, Milan; Fanderl, Nora; Kern, Mira; Bengel, Steffen; Weiß, Fabio: Schlussbericht. Wirkungen neuer Mobilitätsformen auf das Verkehrsverhalten. Forschungsprojekt im Auftrag des BMDV FE-Nr. 70.0968/2019.&lt;/p&gt; &lt;p&gt;Statista Market Insights (2024): Bikesharing – Deutschland. Online verfügbar unter &lt;a href="https://de.statista.com/outlook/mmo/shared-mobility/bikesharing/deutschland"&gt;https://de.statista.com/outlook/mmo/shared-mobility/bikesharing/deutschland&lt;/a&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;Agora Verkehrswende (Hg.) (2018): Bikesharing im Wandel. Handlungsempfehlungen für deutsche Städte und Gemeinden zum Umgang mit stationslosen Systemen. Online verfügbar unter &lt;a href="https://www.agora-verkehrswende.de/fileadmin/Projekte/2018/Stationslose_Bikesharing_Systeme/Agora_Verkehrswende_Bikesharing_WEB.pdf"&gt;https://www.agora-verkehrswende.de/fileadmin/Projekte/2018/Stationslose_Bikesharing_Systeme/Agora_Verkehrswende_Bikesharing_WEB.pdf&lt;/a&gt;, zuletzt geprüft am 04.10.2024.&lt;/p&gt;&lt;p&gt;Kagerbauer, Martin; Wörle, Tim; Schmitt, Milan; Fanderl, Nora; Kern, Mira; Bengel, Steffen; Weiß, Fabio: Schlussbericht. Wirkungen neuer Mobilitätsformen auf das Verkehrsverhalten. Forschungsprojekt im Auftrag des BMDV FE-Nr. 70.0968/2019.&lt;/p&gt;&lt;p&gt;Statista Market Insights (2024): Bikesharing – Deutschland. Online verfügbar unter &lt;a href="https://de.statista.com/outlook/mmo/shared-mobility/bikesharing/deutschland"&gt;https://de.statista.com/outlook/mmo/shared-mobility/bikesharing/deutschland&lt;/a&gt;, zuletzt aktualisiert am Juli 2024, zuletzt geprüft am 21.10.2024.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Lastenradsharing</t>
   </si>
   <si>
-    <t>&lt;p&gt;Neben herkömmliche m Bike s haring können auch Lastenräder und elektrisch unterstützte Fahrräder zum Einsatz kommen.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Vollautomatische Verleihsystem&lt;/b&gt; &lt;b&gt;e&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; Die Fahrräder und Lastenräder werden durch eine Online-Buchung oder eine vollautomatische Sofort-Ausleihe rund um die Uhr angeboten. Beim Lastenrad s haring existieren derzeit hauptsächlich stationsbasierte Varianten, in denen Lastenräder an festen Stationen ausgeliehen und zurückgegeben werden.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Freier Lastenradverleih&lt;/b&gt; : neben kommerziellen Angeboten gibt es viele ehrenamtliche Initiativen zum Lastenradverleih, die von Privatpersonen oder Verbänden initiiert wurden und kein wirtschaftliches Ziel verfolgen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Beispiel: Projekt "RadLader" in Saarbrücken&lt;/p&gt; &lt;p&gt;Beispiel: Heinerbike in Darmstadt&lt;/p&gt; &lt;p&gt;Beispiel: TINT.BIKE&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Einige kommerzielle n Anbieter für Bike sharing (z.B. Nextbike) bieten sowohl konventionelle Fahrräder als auch E-Bikes und Lastenräder an. Auch manche Carsharing-Anbieter haben Lastenräder in ihre Flotte integriert. Zudem gibt es Lastenrad-fokussierte kommerzielle Angebote wie Sigo und Cargoroo .&lt;/p&gt; &lt;p&gt;Darüber hinaus gibt es Privatpersonen oder Verbänden , die die freien Lastenradverleihe n betrieben und kein wirtschaftliches Ziel verfolgen.&lt;/p&gt; &lt;p&gt;In einigen Kommunen werden die Verleihsysteme direkt von den Kommunen initiiert. Solche Angebote werden entweder bei externe n Dienstleister n beauftragt oder von kommunalen Unternehmen (Verkehrsverbund, Stadtwerke usw.) betrieben.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; Initiierung oder Unterstützen der Etablierung der Projekte. Ma n che Kommunen betre i ben die Projekte selbst.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Vereine und Verbände&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; Vernetzung der Lastenrad s haring-Initiativen . Sie bieten vielfältige Informationen und Tipps rund um Lastenräder an und unterstützen lokale Initiativen und Projekte. Beispiele sind der Verband Freie Lastenräder e.V. , das Forum Freie Lastenräder, der VCD (Verkehrsclub Deutschland e.V.) und der ADFC (Allgemeine Deutsche Fahrrad-Club) .&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Lokale Betriebe (wie Fahrradladen, Café, Läden, Poststellen usw.):&lt;/b&gt; pflegen die Fahrrad ver leihstationen und übergeben Fahrräder an Kunden *innen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Nationale Ebene: Sonderprogramm „Stadt und Land“&lt;/p&gt; &lt;p&gt;Lastenradförderung en in verschiedenen Bundesländern förder n den Kauf e ine s Lastenrades&lt;/p&gt; &lt;p&gt;LastenradBayern: Unterstützung der Etablierung de s k ommunalen Lastenrad s haring&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Das Lastenrad s haring trägt zur Reduktion der PKW-Nutzung bei, da es die Funktionalität des Fahrrads erweitert und sowohl für den Transport von Kindern als auch von Gütern genutzt werden kann. Becker (2018) zeigt in einer Untersuchung, dass über 46 % der Nutzer *innen eines freien Lastenradverleihs das Auto genutzt hätten, wenn kein Lastenrad s haring verfügbar gewesen wäre. Ähnliche Ergebnisse liefert eine Studie über kommerzielle Angebote in Bayern, in der Scheffler et al. (2023) feststellten, dass 55 % der Fahrten mit Lastenrädern Autofahrten ersetzt haben.&lt;/p&gt; &lt;p&gt;Ein weiterer Vorteil von Lastenrad s haring-Systemen besteht darin, dass die Sharing-Modelle eine kostengünstige Alternative zu Anschaffung neuer (e-)Lastenfahrräder bieten und so den Zugang zu Lastenfahrrädern erleichtern. Dies erhöht die soziale Gerechtigkeit und Gleichheit für alle Arten von Mobilitätsnutzern.&lt;/p&gt; &lt;p&gt;Zudem fördert das Lastenrad s haring suffizienzorientierte Verhaltensänderungen, indem es Menschen die Möglichkeit bietet, neue Mobilitätsformen zu erproben. Besonders für Personen, die bislang keine Erfahrung mit Lastenrädern hatten, eröffnet das Sharing-Modell die Chance, diese in ihren Alltag zu integrieren und langfristig den Einsatz privater Autos weiter zu verringern.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;D ie Lastenrad s haring-Systeme sind vor allem in urbanen Gebieten präsent. In ländlichen Regionen gestaltet sich die Umsetzung von Bike- und Lastenrad s haring jedoch schwieriger, da hier oft größere Transportdistanzen zu überwinden sind, was die Attraktivität und Praktikabilität solcher Angebote eingeschränkt. Jedoch gibt es auch guten Beispiele in ländlichen Gebieten .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Das Lastenrad s haring wird überwiegend von Menschen genutzt, die bereits regelmäßig Fahrrad fahren – sie machen 71 % der Nutzerschaft f reier Lastenradverleihe aus (Becker und Rudolf 2018). Eine Umfrage aus Bayern (Scheffler et al. 2023) ergab zudem, dass alle Befragten Zugang zu einem Auto haben, wobei 98 % sogar ein eigenes Fahrzeug im Haushalt besitzen. Dies Zeigt das Potenzial von Lastenrad s haring, Personen zu erreichen, die ihre Autonutzung reduzieren könnten.&lt;/p&gt; &lt;p&gt;Insbesondere sind Familien eine relevante Nutzungsgruppe von Lastenr ä d ern , da die Kinder be förderung eine wichtige Rolle spielt.&lt;/p&gt; &lt;p&gt;Insgesamt richtet sich das Lastenrad s haring besonders an Personen mit einer starken Affinität zu umweltfreundlichen Mobilitätsformen.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Neben herkömmlichem Bikesharing können auch Lastenräder und elektrisch unterstützte Fahrräder zum Einsatz kommen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Vollautomatische Verleihsystem&lt;/b&gt;&lt;b&gt;e&lt;/b&gt;&lt;b&gt;:&lt;/b&gt; Die Fahrräder und Lastenräder werden durch eine Online-Buchung oder eine vollautomatische Sofort-Ausleihe rund um die Uhr angeboten. Beim Lastenradsharing existieren derzeit hauptsächlich stationsbasierte Varianten, in denen Lastenräder an festen Stationen ausgeliehen und zurückgegeben werden.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Freier Lastenradverleih&lt;/b&gt;: neben kommerziellen Angeboten gibt es viele ehrenamtliche Initiativen zum Lastenradverleih, die von Privatpersonen oder Verbänden initiiert wurden und kein wirtschaftliches Ziel verfolgen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Beispiel: Projekt "RadLader" in Saarbrücken&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Beispiel: Heinerbike in Darmstadt&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Beispiel: TINT.BIKE&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Einige kommerziellen Anbieter für Bikesharing (z.B. Nextbike) bieten sowohl konventionelle Fahrräder als auch E-Bikes und Lastenräder an. Auch manche Carsharing-Anbieter haben Lastenräder in ihre Flotte integriert. Zudem gibt es Lastenrad-fokussierte kommerzielle Angebote wie Sigo und Cargoroo.&lt;/p&gt;&lt;p&gt;Darüber hinaus gibt es Privatpersonen oder Verbänden, die die freien Lastenradverleihen betrieben und kein wirtschaftliches Ziel verfolgen.&lt;/p&gt;&lt;p&gt;In einigen Kommunen werden die Verleihsysteme direkt von den Kommunen initiiert. Solche Angebote werden entweder bei externen Dienstleistern beauftragt oder von kommunalen Unternehmen (Verkehrsverbund, Stadtwerke usw.) betrieben.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; Initiierung oder Unterstützen der Etablierung der Projekte. Manche Kommunen betreiben die Projekte selbst.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Vereine und Verbände&lt;/b&gt;&lt;b&gt;:&lt;/b&gt; Vernetzung der Lastenradsharing-Initiativen. Sie bieten vielfältige Informationen und Tipps rund um Lastenräder an und unterstützen lokale Initiativen und Projekte. Beispiele sind der Verband Freie Lastenräder e.V., das Forum Freie Lastenräder, der VCD (Verkehrsclub Deutschland e.V.) und der ADFC (Allgemeine Deutsche Fahrrad-Club).&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Lokale Betriebe (wie Fahrradladen, Café, Läden, Poststellen usw.):&lt;/b&gt; pflegen die Fahrradverleihstationen und übergeben Fahrräder an Kunden*innen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nationale Ebene: Sonderprogramm „Stadt und Land“&lt;/p&gt;&lt;p&gt;Lastenradförderungen in verschiedenen Bundesländern fördern den Kauf eines Lastenrades&lt;/p&gt;&lt;p&gt;LastenradBayern: Unterstützung der Etablierung des kommunalen Lastenradsharing&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Lastenradsharing trägt zur Reduktion der PKW-Nutzung bei, da es die Funktionalität des Fahrrads erweitert und sowohl für den Transport von Kindern als auch von Gütern genutzt werden kann. Becker (2018) zeigt in einer Untersuchung, dass über 46 % der Nutzer*innen eines freien Lastenradverleihs das Auto genutzt hätten, wenn kein Lastenradsharing verfügbar gewesen wäre. Ähnliche Ergebnisse liefert eine Studie über kommerzielle Angebote in Bayern, in der Scheffler et al. (2023) feststellten, dass 55 % der Fahrten mit Lastenrädern Autofahrten ersetzt haben.&lt;/p&gt;&lt;p&gt;Ein weiterer Vorteil von Lastenradsharing-Systemen besteht darin, dass die Sharing-Modelle eine kostengünstige Alternative zu Anschaffung neuer (e-)Lastenfahrräder bieten und so den Zugang zu Lastenfahrrädern erleichtern. Dies erhöht die soziale Gerechtigkeit und Gleichheit für alle Arten von Mobilitätsnutzern.&lt;/p&gt;&lt;p&gt;Zudem fördert das Lastenradsharing suffizienzorientierte Verhaltensänderungen, indem es Menschen die Möglichkeit bietet, neue Mobilitätsformen zu erproben. Besonders für Personen, die bislang keine Erfahrung mit Lastenrädern hatten, eröffnet das Sharing-Modell die Chance, diese in ihren Alltag zu integrieren und langfristig den Einsatz privater Autos weiter zu verringern.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Lastenradsharing-Systeme sind vor allem in urbanen Gebieten präsent. In ländlichen Regionen gestaltet sich die Umsetzung von Bike- und Lastenradsharing jedoch schwieriger, da hier oft größere Transportdistanzen zu überwinden sind, was die Attraktivität und Praktikabilität solcher Angebote eingeschränkt. Jedoch gibt es auch guten Beispiele in ländlichen Gebieten.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Lastenradsharing wird überwiegend von Menschen genutzt, die bereits regelmäßig Fahrrad fahren – sie machen 71 % der Nutzerschaft freier Lastenradverleihe aus (Becker und Rudolf 2018). Eine Umfrage aus Bayern (Scheffler et al. 2023) ergab zudem, dass alle Befragten Zugang zu einem Auto haben, wobei 98 % sogar ein eigenes Fahrzeug im Haushalt besitzen. Dies Zeigt das Potenzial von Lastenradsharing, Personen zu erreichen, die ihre Autonutzung reduzieren könnten.&lt;/p&gt;&lt;p&gt;Insbesondere sind Familien eine relevante Nutzungsgruppe von Lastenrädern, da die Kinderbeförderung eine wichtige Rolle spielt.&lt;/p&gt;&lt;p&gt;Insgesamt richtet sich das Lastenradsharing besonders an Personen mit einer starken Affinität zu umweltfreundlichen Mobilitätsformen.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;M1, M3&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Lastenradsharing gehört im Vergleich zu Carsharing zu den neueren Mobilitätsangeboten und hat in den letzten Jahren zunehmend Verbreitung in Deutschland gefunden. Laut der aktuellen Liste von cargobike.jetzt existieren bundesweit derzeit 271 Städte mit 337 Lastenradsharing-Systemen (Stand 13.11.24) .  Das zunehmende Interesse der Kommunen, Lastenradsharing auf lokaler Ebene zu etablieren, verdeutlicht das große Potenzial, diese Systeme auch in weiteren Kommunen zu implementieren.&lt;/p&gt; &lt;p&gt;Für die weitere Verbreitung sind mehrere Faktoren entscheidend (Auswertung von Expert*inneninterviews in Rahmen des Projekts):&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; eine Weiterentwicklung der Geschäftsmodelle hin zu einem eigenwirtschaftlichen Betrieb ist von zentraler Bedeutung. Relevante Themen auf dem Weg dahin sind etwa die Ausgestaltung eines effizienteren Betriebes, Verhütung von Vandalismus durch bessere Schlosstechnik, autonomes Fahren, usw. Derzeit sind viele Angebote noch auf externe Förderungen angewiesen, was langfristig verändert werden muss, um die Systeme finanziell unabhängig und stabil zu machen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Sichere und gut ausgebaute Fahrradwege, ausreichend Fahrradparkplätze und zugängliche Fahrrad-Services sind essenziell, um das Fahrradfahren – und damit auch die Nutzung von Bike- und Lastenradsharing – attraktiver zu gestalten. Da das Fahrradfahren besonders für kürzere Strecken geeignet ist, spielt eine wohnortnahe Versorgung bzw. „Stadt der kurzen Wege“ eine zentrale Rolle, um die Abhängigkeit vom Auto zu verringern.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung&lt;/b&gt; :  Da die bestehenden Lastenradsharing-Angebote bisher häufig nicht eigenwirtschaftlich betrieben werden können, könnte politische Unterstützung, etwa durch Subventionen und gezielte Programme zur Förderung von Sharing-Systemen, die nötigen Rahmenbedingungen für den langfristigen Erfolg schaffen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation&lt;/b&gt; : Der Mehrwert durch Lastenradfahren, wie Kostenersparnis und Freude beim Transport von Kindern, sollte bei Kommunikationsstrategien im Vordergrund stehen.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Becker, Sophia; Rudolf, Clemens (2018): Exploring the Potential of Free Cargo-Bikesharing for Sustainable Mobility. In: GAIA - Ecological Perspectives for Science and Society (27(1)), S. 156–164.&lt;/p&gt; &lt;p&gt;cargobike.jetzt: Lastenrad-Sharing. &lt;a href="https://www.cargobike.jetzt/lastenrad-sharing-staedteliste/"&gt;https://www.cargobike.jetzt/lastenrad-sharing-staedteliste/&lt;/a&gt; Online verfügbar unter , zuletzt geprüft am 13.11.24.&lt;/p&gt; &lt;p&gt;&lt;a href="https://radkompetenz.at/wp-content/uploads/2024/03/e-fect_Bericht_Evaluation_Modellprojekt-MLS-BY_end.pdf"&gt;https://radkompetenz.at/wp-content/uploads/2024/03/e-&lt;/a&gt; &lt;a href="https://radkompetenz.at/wp-content/uploads/2024/03/e-fect_Bericht_Evaluation_Modellprojekt-MLS-BY_end.pdf"&gt;fect_Bericht_Evaluation_Modellprojekt-MLS-BY_end.pdf&lt;/a&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;Lastenradsharing gehört im Vergleich zu Carsharing zu den neueren Mobilitätsangeboten und hat in den letzten Jahren zunehmend Verbreitung in Deutschland gefunden. Laut der aktuellen Liste von cargobike.jetzt existieren bundesweit derzeit 271 Städte mit 337 Lastenradsharing-Systemen (Stand 13.11.24).  Das zunehmende Interesse der Kommunen, Lastenradsharing auf lokaler Ebene zu etablieren, verdeutlicht das große Potenzial, diese Systeme auch in weiteren Kommunen zu implementieren.&lt;/p&gt;&lt;p&gt;Für die weitere Verbreitung sind mehrere Faktoren entscheidend (Auswertung von Expert*inneninterviews in Rahmen des Projekts):&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; eine Weiterentwicklung der Geschäftsmodelle hin zu einem eigenwirtschaftlichen Betrieb ist von zentraler Bedeutung. Relevante Themen auf dem Weg dahin sind etwa die Ausgestaltung eines effizienteren Betriebes, Verhütung von Vandalismus durch bessere Schlosstechnik, autonomes Fahren, usw. Derzeit sind viele Angebote noch auf externe Förderungen angewiesen, was langfristig verändert werden muss, um die Systeme finanziell unabhängig und stabil zu machen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Sichere und gut ausgebaute Fahrradwege, ausreichend Fahrradparkplätze und zugängliche Fahrrad-Services sind essenziell, um das Fahrradfahren – und damit auch die Nutzung von Bike- und Lastenradsharing – attraktiver zu gestalten. Da das Fahrradfahren besonders für kürzere Strecken geeignet ist, spielt eine wohnortnahe Versorgung bzw. „Stadt der kurzen Wege“ eine zentrale Rolle, um die Abhängigkeit vom Auto zu verringern.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung&lt;/b&gt;:  Da die bestehenden Lastenradsharing-Angebote bisher häufig nicht eigenwirtschaftlich betrieben werden können, könnte politische Unterstützung, etwa durch Subventionen und gezielte Programme zur Förderung von Sharing-Systemen, die nötigen Rahmenbedingungen für den langfristigen Erfolg schaffen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation&lt;/b&gt;: Der Mehrwert durch Lastenradfahren, wie Kostenersparnis und Freude beim Transport von Kindern, sollte bei Kommunikationsstrategien im Vordergrund stehen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Becker, Sophia; Rudolf, Clemens (2018): Exploring the Potential of Free Cargo-Bikesharing for Sustainable Mobility. In: GAIA - Ecological Perspectives for Science and Society (27(1)), S. 156–164.&lt;/p&gt;&lt;p&gt;cargobike.jetzt: Lastenrad-Sharing. Städteliste für Deutschland, Österreich und die Schweiz. Online verfügbar unter &lt;a href="https://www.cargobike.jetzt/lastenrad-sharing-staedteliste/"&gt;https://www.cargobike.jetzt/lastenrad-sharing-staedteliste/&lt;/a&gt;, zuletzt geprüft am 13.11.24.&lt;/p&gt;&lt;p&gt;Scheffler, Dirk; Hemming, Nadja; Wilke, Fiona (2023): Bericht der Evaluation der verkehrlichen Wirkungen von stationsbasierten Miet-Lastenrädern im Vergleich von sieben bayrischen Kommunen des Modellprojekts „Lastenrad mieten, Kommunen entlasten“. Hg. v. TINK GmbH. Online verfügbar unter &lt;a href="https://radkompetenz.at/wp-content/uploads/2024/03/e-fect_Bericht_Evaluation_Modellprojekt-MLS-BY_end.pdf"&gt;https://radkompetenz.at/wp-content/uploads/2024/03/e-fect_Bericht_Evaluation_Modellprojekt-MLS-BY_end.pdf&lt;/a&gt;, zuletzt geprüft am 15.12.2024.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Mobile Versorgungsangebote</t>
@@ -436,16 +433,16 @@
     <t>Transportdienstleistungen und Lieferdienste</t>
   </si>
   <si>
-    <t>&lt;p&gt;Zu den mobilen Angeboten zählen beispielsweise mobile Bürgerbüros, Bibliotheken, Lebensmittelläden etc. Das heißt, die öffentliche Verwaltung, Dienstleistungseinrichtungen oder auch Lebensmittelhändler kommen an bestimmten Tagen in die Dörfer bzw. Ortsteile und bieten de r ansässigen Bevölkerung die Möglichkeit, sich „vor Ort“ zu versorgen (Siefer 2023, s. 125).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Rollende Arztpraxis&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Rollende&lt;/b&gt; &lt;b&gt;r&lt;/b&gt; &lt;b&gt;Supermarkt&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Zu den mobilen Angeboten zählen beispielsweise mobile Bürgerbüros, Bibliotheken, Lebensmittelläden etc. Das heißt, die öffentliche Verwaltung, Dienstleistungseinrichtungen oder auch Lebensmittelhändler kommen an bestimmten Tagen in die Dörfer bzw. Ortsteile und bieten der ansässigen Bevölkerung die Möglichkeit, sich „vor Ort“ zu versorgen (Siefer 2023, s. 125).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Rollende Arztpraxis&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Rollende&lt;/b&gt;&lt;b&gt;r&lt;/b&gt;&lt;b&gt; Supermarkt&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;die rollende Arztpraxis DB Medibus&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Je nach a ngebotenen Produkte n und Dienstleistungen , gibt es verschiedene Gesetzlage n .&lt;/p&gt;</t>
+    <t>&lt;p&gt;Je nach angebotenen Produkten und Dienstleistungen, gibt es verschiedene Gesetzlagen.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Mobile Versorgungsangebote können dazu beitragen, die Wege zu Versorgungseinrichtungen deutlich zu verkürzen. Besonders für mobilitätseingeschränkte Bevölkerungsgruppen in ländlichen Gebieten mit geringer Versorgungsdichte bieten sie die Möglichkeit, leichter Zugang zu wichtigen Dienstleistungen und Gütern zu erhalten.&lt;/p&gt;</t>
@@ -460,10 +457,10 @@
     <t>&lt;p&gt;M5&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Es gibt nur einzelne Beispiele für mobile Dienstleistungen .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Klaas, Katharina; Kaas Elias, Alexander (2021): Verkehrswende im ländlichen Raum. VCD Factsheet zur Rolle des Autos in ländlichen Räumen, den Herausforderungen und Möglichkeiten des ÖPNV und seiner Bedeutung für die soziale Teilhabe. VCD (04/2021).&lt;/p&gt; &lt;p&gt;Siefer, Thomas; Sievers, Nina; Heemsoth, Jan Peter (Hg.) (2023): Handbuch zur Planung flexibler Bedienungsformen im ÖPNV. Ein Beitrag zur Sicherung der Daseinsvorsorge in nachfrageschwachen Räumen. Unter Mitarbeit von Rafael Kistner und Lucas Biermanski. Technische Universität Braunschweig; Bundesinstitut für Bau-, Stadt- und Raumforschung; Deutschland. Stand Oktober 2023. Bonn: Bundesinstitut für Bau- Stadt- und Raumforschung im Bundesamt für Bauwesen und Raumordnung.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Es gibt nur einzelne Beispiele für mobile Dienstleistungen. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Klaas, Katharina; Kaas Elias, Alexander (2021): Verkehrswende im ländlichen Raum. VCD Factsheet zur Rolle des Autos in ländlichen Räumen, den Herausforderungen und Möglichkeiten des ÖPNV und seiner Bedeutung für die soziale Teilhabe. VCD (04/2021).&lt;/p&gt;&lt;p&gt;Siefer, Thomas; Sievers, Nina; Heemsoth, Jan Peter (Hg.) (2023): Handbuch zur Planung flexibler Bedienungsformen im ÖPNV. Ein Beitrag zur Sicherung der Daseinsvorsorge in nachfrageschwachen Räumen. Unter Mitarbeit von Rafael Kistner und Lucas Biermanski. Technische Universität Braunschweig; Bundesinstitut für Bau-, Stadt- und Raumforschung; Deutschland. Stand Oktober 2023. Bonn: Bundesinstitut für Bau- Stadt- und Raumforschung im Bundesamt für Bauwesen und Raumordnung.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Mobilitätsstationen</t>
@@ -472,82 +469,82 @@
     <t>Vernetzung der Angebote</t>
   </si>
   <si>
-    <t>&lt;p&gt;Mobilitätsstationen sind zentrale Knotenpunkte, die verschiedene Mobilitätsangebote räumlich eng miteinander verbinden. Sie erleichtern den Übergang zwischen unterschiedlichen Verkehrsmitteln und fördern das intermodale und multimodale Verkehrsverhalten. Eine einheitliche Begriffsbestimmung für dieses Angebot existiert bislang noch nicht, da Gestaltung und Dimensionierung der Mobilitätsstationen sehr viel fältig ausfallen . Es gibt eine Vielzahl von synonym verwendeten Begriffen wie z.B. Mobilstation, Mobilit äts hubs oder Mobilitätspunkte.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Hinsichtlich der Ausstattungsmerkmale, der Größe der Stationen und ihrer Standorte ergibt sich eine zunehmende Differenzierung zwischen verschiedenen Arten von Mobilitätsstationen. Zu den möglichen Mobilitätsangeboten zählen unter anderem ÖPNV-Haltestellen, Car- und Bikesharing, (E-)Lastenräder, Fahrradabstellplätze sowie On-Demand-Mobilität. Darüber hinaus können zusätzliche Komponenten wie Reparaturstationen, Ladeinfrastruktur, Quartierslogistik oder lokale Dienstleistungen wie Leihläden integriert werden.&lt;/p&gt; &lt;p&gt;Je nach Standort der Mobilitätsstationen lassen sich Stationen mit regionaler, zentraler oder nachbarschaftlicher Funktion unterscheiden.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Mobilitätsstation in einer kleinere n Stadt: EinfachMobil , Offenburg&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Mobilitätsstation in einer Großstadt: mobil.punkte in Bremen&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;MOBIL IM QUARTIER - ALTERSGERECHTE MOBILSTATION ZWICKAU&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;Für w eitere Beispiele vgl. Stein und Bauer 2019 ; Oswalt et al. 2023, S. 45&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Verkehrsunternehmen oder andere kommunale Unternehmen: Häufig Federführung der Mobilitätsstationen (Bauen und Betrieb)&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Anbieter des Car- /Fahrrad-Sharing usw. stellen d ie Dienstleistung bereit&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Anbieter für weitere Dienstleistungen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Zuständigkeiten für den Aufbau und Betrieb der Mobilitätsstationen sind bislang nicht eindeutig definiert. Mögliche Akteure sind:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Energieversorger&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; E-Ladesäule-Infrastruktur&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; Träger der Verkehrsplanung, Koordinator in der Planungsphase, Flächenverfügbarkeit (mögliche relevante Fach ä mt er : Verkehrsplanung, Bauamt, Stadtplanung)&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Quartier/Stadtteil:&lt;/b&gt; Mitwirken bei der Planungsphase, Umsetzung auf Quartiersebene&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Weitere Akteure:&lt;/b&gt; Wohn ungs unternehmen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;S tädtebauliche Entwicklung gemäß Baugesetzbuch (BauGB) ,&lt;/p&gt; &lt;p&gt;Bau und Betrieb von Straßen gemäß den Straßengesetzen der Lände r ,&lt;/p&gt; &lt;p&gt;Sondernutzung der öffentlichen Straßenflächen durch Car s haring Gesetz&lt;/p&gt;</t>
+    <t>&lt;p&gt;Mobilitätsstationen sind zentrale Knotenpunkte, die verschiedene Mobilitätsangebote räumlich eng miteinander verbinden. Sie erleichtern den Übergang zwischen unterschiedlichen Verkehrsmitteln und fördern das intermodale und multimodale Verkehrsverhalten. Eine einheitliche Begriffsbestimmung für dieses Angebot existiert bislang noch nicht, da Gestaltung und Dimensionierung der Mobilitätsstationen sehr vielfältig ausfallen. Es gibt eine Vielzahl von synonym verwendeten Begriffen wie z.B. Mobilstation, Mobilitätshubs oder Mobilitätspunkte.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hinsichtlich der Ausstattungsmerkmale, der Größe der Stationen und ihrer Standorte ergibt sich eine zunehmende Differenzierung zwischen verschiedenen Arten von Mobilitätsstationen. Zu den möglichen Mobilitätsangeboten zählen unter anderem ÖPNV-Haltestellen, Car- und Bikesharing, (E-)Lastenräder, Fahrradabstellplätze sowie On-Demand-Mobilität. Darüber hinaus können zusätzliche Komponenten wie Reparaturstationen, Ladeinfrastruktur, Quartierslogistik oder lokale Dienstleistungen wie Leihläden integriert werden.&lt;/p&gt;&lt;p&gt;Je nach Standort der Mobilitätsstationen lassen sich Stationen mit regionaler, zentraler oder nachbarschaftlicher Funktion unterscheiden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Mobilitätsstation in einer kleineren Stadt: EinfachMobil, Offenburg&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Mobilitätsstation in einer Großstadt: mobil.punkte in Bremen&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;MOBIL IM QUARTIER - ALTERSGERECHTE MOBILSTATION ZWICKAU&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;b&gt;Für w&lt;/b&gt;&lt;b&gt;eitere Beispiele vgl.&lt;/b&gt;&lt;b&gt; &lt;/b&gt;&lt;b&gt;Stein&lt;/b&gt;&lt;b&gt; und&lt;/b&gt;&lt;b&gt; Bauer&lt;/b&gt;&lt;b&gt; &lt;/b&gt;&lt;b&gt;2019&lt;/b&gt;&lt;b&gt;;&lt;/b&gt;&lt;b&gt; Oswalt et al. 2023, &lt;/b&gt;&lt;b&gt;S.&lt;/b&gt;&lt;b&gt;45&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Verkehrsunternehmen oder andere kommunale Unternehmen: Häufig Federführung der Mobilitätsstationen (Bauen und Betrieb)&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Anbieter des Car-/Fahrrad-Sharing usw. stellen die Dienstleistung bereit&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Anbieter für weitere Dienstleistungen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Zuständigkeiten für den Aufbau und Betrieb der Mobilitätsstationen sind bislang nicht eindeutig definiert. Mögliche Akteure sind:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Energieversorger&lt;/b&gt;&lt;b&gt;:&lt;/b&gt; E-Ladesäule-Infrastruktur&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; Träger der Verkehrsplanung, Koordinator in der Planungsphase, Flächenverfügbarkeit (mögliche relevante Fachämter: Verkehrsplanung, Bauamt, Stadtplanung) &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Quartier/Stadtteil: &lt;/b&gt;Mitwirken bei der Planungsphase, Umsetzung auf Quartiersebene&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Weitere Akteure:&lt;/b&gt; Wohnungsunternehmen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Städtebauliche Entwicklung gemäß Baugesetzbuch (BauGB),&lt;/p&gt;&lt;p&gt;Bau und Betrieb von Straßen gemäß den Straßengesetzen der Länder,&lt;/p&gt;&lt;p&gt;Sondernutzung der öffentlichen Straßenflächen durch Carsharing Gesetz&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Nationale Klimaschutzinitiative (NKI), Kommunalrichtlinie, Maßnahmen zur Förderung klimafreundlicher Mobilität, M 4.2.5&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Mobilitätsstationen bieten ein vielversprechendes Potenzial zur Förderung von Suffizienz im Mobilitätssektor. Durch die Bündelung von Mobilitätsangeboten an zentralen Knotenpunkten ermöglichen sie eine effizientere und nachhaltigere Nutzung vorhandener Mobilitätsressourcen und erleichter n d ie Verlagerung von PKW -Fahrten auf multimodale und intermodale Verkehrslösungen.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Vor alle m in urbanen Gebieten, es besteht jedoch weitere s Potenzial in Stadtrandgebieten und ländlichen Gebieten.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;ÖPNV-affine Nutzende (Stein, Bauer 2019, S . 30)&lt;/p&gt;</t>
+    <t>&lt;p&gt;Mobilitätsstationen bieten ein vielversprechendes Potenzial zur Förderung von Suffizienz im Mobilitätssektor. Durch die Bündelung von Mobilitätsangeboten an zentralen Knotenpunkten ermöglichen sie eine effizientere und nachhaltigere Nutzung vorhandener Mobilitätsressourcen und erleichtern die Verlagerung von PKW-Fahrten auf multimodale und intermodale Verkehrslösungen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Vor allem in urbanen Gebieten, es besteht jedoch weiteres Potenzial in Stadtrandgebieten und ländlichen Gebieten.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ÖPNV-affine Nutzende (Stein, Bauer 2019, S. 30)&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;M1, M2, M3, M5&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die ersten Mobilitätsstationen in Deutschland wurden 2003 in Bremen eingerichtet. Eine zunehmende Zahl von Städten integriert Mobilitätsstationen als wichtigen Bestandteil in ihre Mobilitätsplanungen. Während sich Mobilitätsstationen zunächst vorwiegend in Großstädten befanden, gibt es mittlerweile auch vereinzelte Beispiele in stadtnahen Randlagen, Kleinstädten und ländlichen Gebieten. In einigen Gegenden entwickeln sich darüber hinaus regionale Konzepte für Mobilitätsstationen (z. B. Region Kiel, Region München).&lt;/p&gt; &lt;p&gt;Die steigende Nachfrage nach umweltfreundlichen und geteilten Mobilitätsformen, wie Carsharing und Bikesharing, bietet eine solide Grundlage für die weitere Verbreitung von Mobilitätsstationen. Wichtige Faktoren sind dabei (Stein und Bauer 2019):&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Da verschiedene Mobilitätsangebote verknüpft werden, stellen komplexe und integrierte Betreibermodelle eine Herausforderung dar.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur:&lt;/b&gt; Verfügbarkeit von Flächen und Ladeinfrastruktur sind entscheidend.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Es fehlt derzeit an einer klaren Aufgabenverteilung für den Aufbau und Betrieb von Mobilitätsstationen. Hierfür ist eine integrierte Verwaltungsarbeit erforderlich, was häufig zu hohem Zeitaufwand und administrativem Aufwand führt.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; Die Standortwahl kann auf Widerstand in der Bevölkerung stoßen. Eine frühzeitige Einbindung der Anwohner*innen ist daher von großer Bedeutung.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;IGES Institut GmbH (2021): MobistaR. Grundlagenpapier für Mobilitätsstationen in städtischen Randlagen. Abschlussbericht. Berlin.&lt;/p&gt; &lt;p&gt;Oswalt, Philipp; Rettich, Stefan; Gerth, Thimo; Meyer, Lola; Varelis, Georgios: Neue Mobilität und Mobilitäts-Hubs im ländlichen Raum. Bonn (BBSR-Online-Publikation, 30/2023).&lt;/p&gt; &lt;p&gt;Stein, Thomas; Bauer, Uta (Hg.): Mobilitätsstationen in der kommunalen Praxis. Erkenntnisse und Erfahrungen aus dem BMU-Forschungsprojekt City2Share und weiteren kommunalen Praxisbeispielen. 2. City2Share-Diskussionspapier. Berlin (Difu-Sonderveröffentlichung).&lt;/p&gt; &lt;p&gt;Werneke, Marie; Grobe, Johann; Blees, Volker: Wo stehen wir in Deutschland bei der Etablierung von kreisweiten bzw. verbundweiten Netzen an Mobilitätsstationen? - Eine Übersicht neuer Mobilitätsangebote im suburbanen und ländlichen Raum. (Arbeitsberichte der Fachgruppe Mobilitätsmanagement, Nr. 26.).&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die ersten Mobilitätsstationen in Deutschland wurden 2003 in Bremen eingerichtet. Eine zunehmende Zahl von Städten integriert Mobilitätsstationen als wichtigen Bestandteil in ihre Mobilitätsplanungen. Während sich Mobilitätsstationen zunächst vorwiegend in Großstädten befanden, gibt es mittlerweile auch vereinzelte Beispiele in stadtnahen Randlagen, Kleinstädten und ländlichen Gebieten. In einigen Gegenden entwickeln sich darüber hinaus regionale Konzepte für Mobilitätsstationen (z. B. Region Kiel, Region München).&lt;/p&gt;&lt;p&gt;Die steigende Nachfrage nach umweltfreundlichen und geteilten Mobilitätsformen, wie Carsharing und Bikesharing, bietet eine solide Grundlage für die weitere Verbreitung von Mobilitätsstationen. Wichtige Faktoren sind dabei (Stein und Bauer 2019):&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodelle:&lt;/b&gt; Da verschiedene Mobilitätsangebote verknüpft werden, stellen komplexe und integrierte Betreibermodelle eine Herausforderung dar.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastruktur: &lt;/b&gt;Verfügbarkeit von Flächen und Ladeinfrastruktur sind entscheidend.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Politische Unterstützung:&lt;/b&gt; Es fehlt derzeit an einer klaren Aufgabenverteilung für den Aufbau und Betrieb von Mobilitätsstationen. Hierfür ist eine integrierte Verwaltungsarbeit erforderlich, was häufig zu hohem Zeitaufwand und administrativem Aufwand führt.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; Die Standortwahl kann auf Widerstand in der Bevölkerung stoßen. Eine frühzeitige Einbindung der Anwohner*innen ist daher von großer Bedeutung.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;IGES Institut GmbH (2021): MobistaR. Grundlagenpapier für Mobilitätsstationen in städtischen Randlagen. Abschlussbericht. Berlin.&lt;/p&gt;&lt;p&gt;Oswalt, Philipp; Rettich, Stefan; Gerth, Thimo; Meyer, Lola; Varelis, Georgios: Neue Mobilität und Mobilitäts-Hubs im ländlichen Raum. Bonn (BBSR-Online-Publikation, 30/2023).&lt;/p&gt;&lt;p&gt;Stein, Thomas; Bauer, Uta (Hg.): Mobilitätsstationen in der kommunalen Praxis. Erkenntnisse und Erfahrungen aus dem BMU-Forschungsprojekt City2Share und weiteren kommunalen Praxisbeispielen. 2. City2Share-Diskussionspapier. Berlin (Difu-Sonderveröffentlichung).&lt;/p&gt;&lt;p&gt;Werneke, Marie; Grobe, Johann; Blees, Volker: Wo stehen wir in Deutschland bei der Etablierung von kreisweiten bzw. verbundweiten Netzen an Mobilitätsstationen? - Eine Übersicht neuer Mobilitätsangebote im suburbanen und ländlichen Raum. (Arbeitsberichte der Fachgruppe Mobilitätsmanagement, Nr. 26.).&lt;/p&gt;</t>
   </si>
   <si>
     <t>Mobility-as-a-Service</t>
   </si>
   <si>
-    <t>&lt;p&gt;Mobility-as-a-Service (MaaS) beschreibt eine Plattform, die verschiedene öffentliche und private Mobilitätsdienste integriert. Die Nutzer*innen können über eine App oder eine digitale Plattform einfachen Zugang zu multimodalen Verkehrsmitteln erhalten, diese direkt buchen und bezahlen. Die Nutzenden haben dabei Zugriff auf die in der Plattform enthaltenen Mobilitätsdienste, ohne ein direktes Vertragsverhältnis mit den Anbietern schließen zu müssen.&lt;/p&gt; &lt;p&gt;Das Konzept der Intermodalität – die flexible Nutzung verschiedener Verkehrsmittel wie Bus, Bahn, Fahrrad und Carsharing – steht im Mittelpunkt der MaaS-Systeme.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;MaaS-Plattformen können sowohl von privatwirtschaftlichen Akteuren als auch von öffentlichen Verkehrsbetrieben bereitgestellt werden. Es gibt drei wesentliche Varianten ( Piétron 2024 ) :&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;MaaS-Kartendienste:&lt;/b&gt; Plattformen wie Google Maps oder Moovit begannen als Navigationsdienste und haben nach und nach externe Mobilitätsdienste integriert. Sie bieten in der Regel keine direkte Buchungs- oder Bezahlfunktion, sondern zeigen lediglich die Verfügbarkeit von Verkehrsmitteln an.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;MaaS-Sharing-Plattformen:&lt;/b&gt; Diese Plattformen stellen eine Weiterentwicklung von Sharing-Anbietern und Fahrdiensten dar, dir zunehmend Car-, Bike- und Scooter s haring-Dienste in ihr Angebot aufnehmen . Sie zeichnen sich durch eine tiefere Integration aus, einschließlich Buchungs- und Bezahlfunktionen, konzentrieren sich jedoch auf kleinere geografische Gebiete und arbeiten mit ausgewählten Mobilitätsanbietern zusammen. Öffentliche Verkehrsmittel sind oft nur begrenzt verfügbar.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Öffentliche MaaS-Plattformen:&lt;/b&gt; Diese Plattformen werden von kommunalen oder staatlichen Akteuren betrieben und fokussieren sich auf den öffentlichen Nahverkehr. Sie binden Busse, Bahnen und private Mobilitätsdienste mit großer Integrationstiefe in einem klar abgegrenzten Versorgungsgebiet ein .&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Mobility-as-a-Service (MaaS) beschreibt eine Plattform, die verschiedene öffentliche und private Mobilitätsdienste integriert. Die Nutzer*innen können über eine App oder eine digitale Plattform einfachen Zugang zu multimodalen Verkehrsmitteln erhalten, diese direkt buchen und bezahlen. Die Nutzenden haben dabei Zugriff auf die in der Plattform enthaltenen Mobilitätsdienste, ohne ein direktes Vertragsverhältnis mit den Anbietern schließen zu müssen.&lt;/p&gt;&lt;p&gt;Das Konzept der Intermodalität – die flexible Nutzung verschiedener Verkehrsmittel wie Bus, Bahn, Fahrrad und Carsharing – steht im Mittelpunkt der MaaS-Systeme.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;MaaS-Plattformen können sowohl von privatwirtschaftlichen Akteuren als auch von öffentlichen Verkehrsbetrieben bereitgestellt werden. Es gibt drei wesentliche Varianten (Piétron 2024):&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;MaaS-Kartendienste:&lt;/b&gt; Plattformen wie Google Maps oder Moovit begannen als Navigationsdienste und haben nach und nach externe Mobilitätsdienste integriert. Sie bieten in der Regel keine direkte Buchungs- oder Bezahlfunktion, sondern zeigen lediglich die Verfügbarkeit von Verkehrsmitteln an.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;MaaS-Sharing-Plattformen:&lt;/b&gt; Diese Plattformen stellen eine Weiterentwicklung von Sharing-Anbietern und Fahrdiensten dar, dir zunehmend Car-, Bike- und Scootersharing-Dienste in ihr Angebot aufnehmen. Sie zeichnen sich durch eine tiefere Integration aus, einschließlich Buchungs- und Bezahlfunktionen, konzentrieren sich jedoch auf kleinere geografische Gebiete und arbeiten mit ausgewählten Mobilitätsanbietern zusammen. Öffentliche Verkehrsmittel sind oft nur begrenzt verfügbar.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Öffentliche MaaS-Plattformen:&lt;/b&gt; Diese Plattformen werden von kommunalen oder staatlichen Akteuren betrieben und fokussieren sich auf den öffentlichen Nahverkehr. Sie binden Busse, Bahnen und private Mobilitätsdienste mit großer Integrationstiefe in einem klar abgegrenzten Versorgungsgebiet ein.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Jelbei-App in Berlin&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Grundsätzlich k ann zwischen MaaS-Plattformen aus der Privatwirtschaft und dem öffentlichen Mobilitäts dienstleistern unterschieden werden.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommun&lt;/b&gt; &lt;b&gt;en&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Verkehrsbetrieb&lt;/b&gt; &lt;b&gt;e&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Technische Dienstleister und IT-Anbieter&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Grundsätzlich kann zwischen MaaS-Plattformen aus der Privatwirtschaft und dem öffentlichen Mobilitätsdienstleistern unterschieden werden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommun&lt;/b&gt;&lt;b&gt;en&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Verkehrsbetrieb&lt;/b&gt;&lt;b&gt;e&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Technische Dienstleister und IT-Anbieter&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Mobilitätsdatengesetz&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Förderlinie „Digitalisierung kommuna ler Verkehrssysteme“ , BMDV&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;MaaS-System e förder n m ultimod a le s Verkehrsverhalten. Durch die Reduzierung von Informations- und Transaktionskosten für gemeinsam genutzte Verkehrsmittel können die Hürden für die Nutzung nachhaltiger Mobilitätsoptionen gesenkt werden . Somit bieten MaaS-Systeme das Potenzial, den Individualverkehr mit Pkw zu reduzieren und umweltfreundliche Alternativen wie den ÖPNV, Radfahren und Zufußgehen zu fördern.&lt;/p&gt; &lt;p&gt;Jedoch lassen sich die positiven Umwelteffekte von MaaS-Plattformen bisher nicht eindeutig empirisch nachweisen (Wittstock und Teuteberg 2019) .  Entscheidend ist, in welchem Ausmaß der öffentliche Nahverkehr in diese Plattformen integriert wird.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Vor allem in urbanen Gebiete n aber auch im ländlichen Raum&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;B essere Informationen als Maßnahme erhalten besonders von jüngeren Personen hohe Zustimmung. Bestehende Untersuchungen zeigen, dass hauptsächlich jüngere und technikaffine Menschen MaaS -System nutzen, jedoch bleibt der Mehrwert für andere Nutzergruppen unklar (Maas 2022). Nutzer *innen , die ein eigenes Auto besaßen, zeigten geringere Motivation, den Dienst zu nutzen.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;MaaS-Plattformen haben sich bereits als neues Leitparadigma der urbanen Mobilität etabliert, und die Zahl neuer Plattformen wächst stetig. In Deutschland gibt es jedoch keine bundesweit einheitliche Mobilitäts-App; stattdessen existiert eine Vielzahl paralleler Angebote, die zudem stark ungleich verteilt sind ( Piétron 2024) . In ländlichen Regionen fehlen vergleichbare Plattformen oft vollständig, während in Großstädten teilweise ein Überangebot an parallelen öffentlichen MaaS-Plattformen besteht. Diese Fragmentierung erschwert eine nationale Skalierung der Angebote.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Maas, Benjamin (2022): Literature Review of Mobility as a Service. In: Sustainability 14 (14), S. 8962. DOI: 10.3390/su14148962.&lt;/p&gt; &lt;p&gt;Piétron, Dominik (2024): Mobilitätsplattformen in Deutschland. Soziotechnische Dynamiken zwischen digitalem Kapitalismus und Nachhaltigkeit. In: Soziologie und Nachhaltigkeit (Sonderband 3: Beschleunigter Wandel oder nachhaltige Nicht-Nachhaltigkeit?), S. 105–134. DOI: 10.17879/sun-2024-5273.&lt;/p&gt; &lt;p&gt;Wittstock, Rikka; Teuteberg, Frank (2019): Sustainability Impacts of Mobility as a Service: A Scoping Study for Technology Assessment. In: Frank Teuteberg, Maximilian Hempel und Liselotte Schebek (Hg.): Progress in Life Cycle Assessment 2018, Bd. 75. Cham: Springer International Publishing (Sustainable Production, Life Cycle Engineering and Management), S. 61–74.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Förderlinie „Digitalisierung kommunaler Verkehrssysteme“, BMDV&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;MaaS-Systeme fördern multimodales Verkehrsverhalten. Durch die Reduzierung von Informations- und Transaktionskosten für gemeinsam genutzte Verkehrsmittel können die Hürden für die Nutzung nachhaltiger Mobilitätsoptionen gesenkt werden. Somit bieten MaaS-Systeme das Potenzial, den Individualverkehr mit Pkw zu reduzieren und umweltfreundliche Alternativen wie den ÖPNV, Radfahren und Zufußgehen zu fördern.&lt;/p&gt;&lt;p&gt;Jedoch lassen sich die positiven Umwelteffekte von MaaS-Plattformen bisher nicht eindeutig empirisch nachweisen (Wittstock und Teuteberg 2019).  Entscheidend ist, in welchem Ausmaß der öffentliche Nahverkehr in diese Plattformen integriert wird.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Vor allem in urbanen Gebieten aber auch im ländlichen Raum&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bessere Informationen als Maßnahme erhalten besonders von jüngeren Personen hohe Zustimmung. Bestehende Untersuchungen zeigen, dass hauptsächlich jüngere und technikaffine Menschen MaaS-System nutzen, jedoch bleibt der Mehrwert für andere Nutzergruppen unklar (Maas 2022). Nutzer*innen, die ein eigenes Auto besaßen, zeigten geringere Motivation, den Dienst zu nutzen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;MaaS-Plattformen haben sich bereits als neues Leitparadigma der urbanen Mobilität etabliert, und die Zahl neuer Plattformen wächst stetig. In Deutschland gibt es jedoch keine bundesweit einheitliche Mobilitäts-App; stattdessen existiert eine Vielzahl paralleler Angebote, die zudem stark ungleich verteilt sind (Piétron 2024). In ländlichen Regionen fehlen vergleichbare Plattformen oft vollständig, während in Großstädten teilweise ein Überangebot an parallelen öffentlichen MaaS-Plattformen besteht. Diese Fragmentierung erschwert eine nationale Skalierung der Angebote.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Maas, Benjamin (2022): Literature Review of Mobility as a Service. In: Sustainability 14 (14), S. 8962. DOI: 10.3390/su14148962.&lt;/p&gt;&lt;p&gt;Piétron, Dominik (2024): Mobilitätsplattformen in Deutschland. Soziotechnische Dynamiken zwischen digitalem Kapitalismus und Nachhaltigkeit. In: Soziologie und Nachhaltigkeit (Sonderband 3: Beschleunigter Wandel oder nachhaltige Nicht-Nachhaltigkeit?), S. 105–134. DOI: 10.17879/sun-2024-5273.&lt;/p&gt;&lt;p&gt;Wittstock, Rikka; Teuteberg, Frank (2019): Sustainability Impacts of Mobility as a Service: A Scoping Study for Technology Assessment. In: Frank Teuteberg, Maximilian Hempel und Liselotte Schebek (Hg.): Progress in Life Cycle Assessment 2018, Bd. 75. Cham: Springer International Publishing (Sustainable Production, Life Cycle Engineering and Management), S. 61–74.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Gemeinschaftliche Wohnangebote</t>
@@ -559,28 +556,28 @@
     <t>Gemeinschaftliches Wohnen</t>
   </si>
   <si>
-    <t>&lt;p&gt;Gemeinschaftliche Wohnformen stellen innovative Konzepte dar, bei denen Einzelpersonen oder Familien innerhalb eines Hauses oder in eng beieinanderliegenden Wohnhäusern gemeinsam leben. Diese Wohnformen bieten den Bewohnerinnen nicht nur ihren eigenen privaten Wohnraum, sondern auch Zugang zu gemeinschaftlich genutzten Flächen. Solche Gemeinschaftsbereiche umfassen zum Beispiel Räume für Spielabende oder sportliche Aktivitäten, gemeinschaftlich bewirtschaftete Gärten, Werkstätten sowie Gemeinschaftsküchen. Die Bewohner*innen dieser Wohnprojekte bilden eine Gemeinschaft, die sich durch regelmäßige Zusammenkünfte sowie die gemeinsame Organisation und Gestaltung des Zusammenlebens auszeichnet. Bereits in der Planungsphase setzen sich die Mitglieder intensiv mit ihren Wohnvorstellungen, potenziellen Organisationsstrukturen und der Ausgestaltung eines aktiven, sozialen und verlässlichen nachbarschaftlichen Miteinanders auseinander, einschließlich gemeinsamer Freizeitgestaltung und gegenseitiger Unterstützung im Alltag ( FORUM Gemeinschaftliches Wohnen) .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gemeinschaftliche Wohnformen können je nach Vorstellungen der jeweiligen Gruppen unterschiedliche Ausrichtungen annehmen. Daraus sind vielfältige Konzepte entstanden, wie etwa Baugemeinschaft, Mehrgenerationenwohnen, inklusives Wohnen und Wohnen im Alter usw.&lt;/p&gt; &lt;p&gt;D ie Eigentums- und Finanzierungsmodelle sind vielfältig und umfassen sowohl Miet- als auch Eigentumsmodelle. Die möglichen rechtlichen Strukturen reichen von Eigentümer-Mieter-Kooperationen und Erbbaurechten über gemeinschaftliches Eigentum, Verein und Genossenschaften bis hin zum Modell des Miethäuser Syndikats.&lt;/p&gt; &lt;p&gt;Des Weiteren können sich gemeinschaftliche Wohnformen auch in der Organisation der gemeinschaftlich genutzten Räume unterscheiden : Hausgemeinschaft, Wohnungsgemeinschaft und Wohngemeinschaft (WG)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Collegium Academicum , Heid e lberg&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Ökodorf Sieben Linden&lt;/li&gt;&lt;/ul&gt; &lt;p&gt;Es stehen zahlreiche Informationen und Veröffentlichungen zu Beispielen für gemeinschaftliches Wohnen zur Verfügung. Beispiele hierfür sind:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Standortkarte des Mietshäuser Syndikats:&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;a href="https://www.gemeinschaftliches-wohnen.de/projektbeispiele-gemeinschaftliches-wohnen/"&gt;https://www.gemeinschaftliches-wohnen.de/projektbeispiele-gemeinschaftliches-wohnen/&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Die Projektgruppe initiiert das Projekt und gestalte t dies gemeinschaftlich durch partizipative Entscheidungsprozesse.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Bestehende Wohnprojekt e oder Genossenschaft en können freie Wohnungen zur Verfügung stellen, oder weitere Wohnprojekt e initiieren.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; schaffen die Rahmenbedingungen für die Realisierung gemeinschaftlicher Wohnprojekte, indem sie Anlaufstellen einrichten, Fördermöglichkeiten bereitstellen, kommunale Flächen zur Verfügung stellen. Zudem können sie sich aktiv an der Initiierung gemeinschaftlicher Wohnprojekte beteiligen .&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Eigentümer*innen von Grundstücken oder Immobilien&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; s tellen Grundstücke oder Bestand s immobilien für gemeinschaftliche Wohnprojekte bereit.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Wohnungsbaugesellschaften&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; können sich aktiv an der Initiierung und Umsetzung gemeinschaftlicher Wohnprojekte beteiligen. Sie übernehmen dabei unterschiedliche Ro llen, etwa als Investor*innen, Bauträger oder Hausverwaltungen .&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Dachgenossenschaften&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; unterstützen und beraten bei der Gründung neuer Genossenschaften.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Beratungsstellen und Fachberatende : bieten umfassende Unterstützung in vielfältigen Bereichen wie Architektur, Projektentwicklung sowie rechtlichen und finanziellen Fragestellungen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Finanzierungsinstitute : stellen Finanzierungsmöglichkeiten zur Verfügung.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Stiftungen, Vereine und Verbände: bieten Informationen, Vernetzung und Beratung&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;p&gt;Gemeinschaftliche Wohnformen stellen innovative Konzepte dar, bei denen Einzelpersonen oder Familien innerhalb eines Hauses oder in eng beieinanderliegenden Wohnhäusern gemeinsam leben. Diese Wohnformen bieten den Bewohnerinnen nicht nur ihren eigenen privaten Wohnraum, sondern auch Zugang zu gemeinschaftlich genutzten Flächen. Solche Gemeinschaftsbereiche umfassen zum Beispiel Räume für Spielabende oder sportliche Aktivitäten, gemeinschaftlich bewirtschaftete Gärten, Werkstätten sowie Gemeinschaftsküchen. Die Bewohner*innen dieser Wohnprojekte bilden eine Gemeinschaft, die sich durch regelmäßige Zusammenkünfte sowie die gemeinsame Organisation und Gestaltung des Zusammenlebens auszeichnet. Bereits in der Planungsphase setzen sich die Mitglieder intensiv mit ihren Wohnvorstellungen, potenziellen Organisationsstrukturen und der Ausgestaltung eines aktiven, sozialen und verlässlichen nachbarschaftlichen Miteinanders auseinander, einschließlich gemeinsamer Freizeitgestaltung und gegenseitiger Unterstützung im Alltag (FORUM Gemeinschaftliches Wohnen).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gemeinschaftliche Wohnformen können je nach Vorstellungen der jeweiligen Gruppen unterschiedliche Ausrichtungen annehmen. Daraus sind vielfältige Konzepte entstanden, wie etwa Baugemeinschaft, Mehrgenerationenwohnen, inklusives Wohnen und Wohnen im Alter usw. &lt;/p&gt;&lt;p&gt;Die Eigentums- und Finanzierungsmodelle sind vielfältig und umfassen sowohl Miet- als auch Eigentumsmodelle. Die möglichen rechtlichen Strukturen reichen von Eigentümer-Mieter-Kooperationen und Erbbaurechten über gemeinschaftliches Eigentum, Verein und Genossenschaften bis hin zum Modell des Miethäuser Syndikats. &lt;/p&gt;&lt;p&gt;Des Weiteren können sich gemeinschaftliche Wohnformen auch in der Organisation der gemeinschaftlich genutzten Räume unterscheiden: Hausgemeinschaft, Wohnungsgemeinschaft und Wohngemeinschaft (WG)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Collegium Academicum, Heidelberg &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Ökodorf Sieben Linden&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Es stehen zahlreiche Informationen und Veröffentlichungen zu Beispielen für gemeinschaftliches Wohnen zur Verfügung. Beispiele hierfür sind:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Standortkarte des Mietshäuser Syndikats: &lt;a href="https://www.syndikat.org/standortkarte/"&gt;https://www.syndikat.org/standortkarte/&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Projektbeispiele für gemeinschaftliches Wohnen: &lt;a href="https://www.gemeinschaftliches-wohnen.de/projektbeispiele-gemeinschaftliches-wohnen/"&gt;https://www.gemeinschaftliches-wohnen.de/projektbeispiele-gemeinschaftliches-wohnen/&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Projektgruppe initiiert das Projekt und gestaltet dies gemeinschaftlich durch partizipative Entscheidungsprozesse. &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Bestehende Wohnprojekte oder Genossenschaften können freie Wohnungen zur Verfügung stellen, oder weitere Wohnprojekte initiieren.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen&lt;/b&gt;&lt;b&gt;:&lt;/b&gt;&lt;b&gt; &lt;/b&gt;schaffen die Rahmenbedingungen für die Realisierung gemeinschaftlicher Wohnprojekte, indem sie Anlaufstellen einrichten, Fördermöglichkeiten bereitstellen, kommunale Flächen zur Verfügung stellen. Zudem können sie sich aktiv an der Initiierung gemeinschaftlicher Wohnprojekte beteiligen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Eigentümer*innen von Grundstücken oder Immobilien&lt;/b&gt;&lt;b&gt;:&lt;/b&gt;&lt;b&gt; &lt;/b&gt;stellen Grundstücke oder Bestandsimmobilien für gemeinschaftliche Wohnprojekte bereit.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Wohnungsbaugesellschaften&lt;/b&gt;&lt;b&gt;:&lt;/b&gt;&lt;b&gt; &lt;/b&gt;können sich aktiv an der Initiierung und Umsetzung gemeinschaftlicher Wohnprojekte beteiligen. Sie übernehmen dabei unterschiedliche Rollen, etwa als Investor*innen, Bauträger oder Hausverwaltungen. &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Dachgenossenschaften&lt;/b&gt;&lt;b&gt;:&lt;/b&gt; unterstützen und beraten bei der Gründung neuer Genossenschaften.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Beratungsstellen und Fachberatende: bieten umfassende Unterstützung in vielfältigen Bereichen wie Architektur, Projektentwicklung sowie rechtlichen und finanziellen Fragestellungen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Finanzierungsinstitute: &lt;b&gt;stellen Finanzierungsmöglichkeiten zur Verfügung.&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Stiftungen, Vereine und Verbände: &lt;b&gt;bieten Informationen, Vernetzung und Beratung&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Gemeinschaftliche Wohnprojekte unterliegen baurechtlichen Vorgaben, wie dem Baugesetzbuch (BauGB), weiteren Bauvorschriften und Genehmigungsverfahren. Die Wahl der Rechtsform, etwa Genossenschaft, GbR oder GmbH, beeinflusst zentrale Aspekte wie Haftung, Finanzierung und Organisation.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Mögliche öffentliche Förderungen umfassen Zuschüsse zur Anschubfinanzierung, zur Projektinitiierung und -entwicklung, Beratungsprämien sowie Fördermittel für Gemeinschaftsräume. Eine Übersicht über verfügbare Förderprogramme bietet die WIN-Förderdatenbank ( WIN für Gemeinschaftliches Wohnen) &lt;b&gt;.&lt;/b&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gemeinschaftlich e Wohnprojekte bieten den Teilnehmenden durch aktives Mitwirken erweiterte Gestaltungsmöglichkeiten für ihr Lebensumfeld und ermöglichen eine bedarfsgerechte Anpassung an individuelle Bedürfnisse. Durch die gemeinschaftlich genutzten Flächen bieten gemeinschaftliche Wohnformen Potenziale zur Reduktion des individuellen Wohnflächenbedarfs.&lt;/p&gt; &lt;p&gt;Gemeinschaftliches Wohnen ermöglich t Menschen in solidarischen Strukturen zusammenzuleben und förder t somit den sozialen Zusammenhalt und schaff t gegenseitige Unterstützung, was insbesondere für die ältere Bevölkerungsgruppe und einkommensschwächere Haushalte von Vorteil ist . Gemeinschaftliches Wohnen im Alter stellt eine attraktive Alternative dar, da es älteren Menschen den Umzug in kleinere Wohneinheiten erleichtert und zugleich größere Wohnflächen freigibt.&lt;/p&gt; &lt;p&gt;Abgesehen von der potenziellen Wohnflächenreduktion können weitere positive ökologische Nebeneffekte entstehen . So wird bei gemeinschaftlichen Wohnformen häufig bereits im Konzept eine ökologische Perspektive berücksichtigt (Wuppertal Institut 2022). Darüber hinaus fördern sie innovative Ansätze für die Entwicklung von Bestandsgebäuden und die Wiederbelebung von Leerständen (Netzwerk Zukunftsorte e. V. 2022).&lt;/p&gt;</t>
+    <t>&lt;p&gt;Mögliche öffentliche Förderungen umfassen Zuschüsse zur Anschubfinanzierung, zur Projektinitiierung und -entwicklung, Beratungsprämien sowie Fördermittel für Gemeinschaftsräume. Eine Übersicht über verfügbare Förderprogramme bietet die WIN-Förderdatenbank (WIN für Gemeinschaftliches Wohnen)&lt;b&gt;.&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gemeinschaftliche Wohnprojekte bieten den Teilnehmenden durch aktives Mitwirken erweiterte Gestaltungsmöglichkeiten für ihr Lebensumfeld und ermöglichen eine bedarfsgerechte Anpassung an individuelle Bedürfnisse. Durch die gemeinschaftlich genutzten Flächen bieten gemeinschaftliche Wohnformen Potenziale zur Reduktion des individuellen Wohnflächenbedarfs. &lt;/p&gt;&lt;p&gt;Gemeinschaftliches Wohnen ermöglicht Menschen in solidarischen Strukturen zusammenzuleben und fördert somit den sozialen Zusammenhalt und schafft gegenseitige Unterstützung, was insbesondere für die ältere Bevölkerungsgruppe und einkommensschwächere Haushalte von Vorteil ist . Gemeinschaftliches Wohnen im Alter stellt eine attraktive Alternative dar, da es älteren Menschen den Umzug in kleinere Wohneinheiten erleichtert und zugleich größere Wohnflächen freigibt.&lt;/p&gt;&lt;p&gt;Abgesehen von der potenziellen Wohnflächenreduktion können weitere positive ökologische Nebeneffekte entstehen. So wird bei gemeinschaftlichen Wohnformen häufig bereits im Konzept eine ökologische Perspektive berücksichtigt (Wuppertal Institut 2022). Darüber hinaus fördern sie innovative Ansätze für die Entwicklung von Bestandsgebäuden und die Wiederbelebung von Leerständen (Netzwerk Zukunftsorte e. V. 2022).&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Alle, jedoch ist ein Schwerpunkt der Projekte in den Ballungsräumen erkennbar.&lt;/p&gt;</t>
@@ -592,10 +589,10 @@
     <t>&lt;p&gt;W2, W3, W4&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Gemeinschaftliches Wohnen existiert seit den 1970er-Jahren als expandierendes Nischenprodukt auf dem Wohnungsmarkt. Die Anzahl und typologische Vielfalt solcher Projekte n eh m en kontinuierlich zu. Mit der steigenden Nachfrage birgt gemeinschaftliches Wohnen jedoch ein erhebliches Potenzial zur weiteren Verbreitung. Aktuell bilden ältere Menschen und Mieter*innen die Hauptzielgruppen. Doch gemäß der Suzanna-Befragung findet diese Wohnform auch bei jüngeren Generationen und Familien große Zustimmung, was auf ein hohes Potenzial in diesen Gruppen hinweist.&lt;/p&gt; &lt;p&gt;Folgende Faktoren für die weitere Verbreitung sind zu erkennen :&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodell:&lt;/b&gt; Eine sorgfältige Gruppenzusammensetzung stellt einen zentralen Erfolgsfaktor sowohl für die Projektentwicklung als auch für das spätere Zusammenleben dar. Professionelle Begleitung kann die Zusammenarbeit innerhalb der Gruppe wesentlich erleichtern. Zudem können innovative Organisationsformen, wie das Modell des Miethäuser Syndikats, und neue Geschäftsansätze, beispielsweise die Förderung gemeinschaftlicher Wohnformen durch kommunale Wohnungsbaugesellschaften, die Verbreitung des Konzepts unterstützen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastrukturen:&lt;/b&gt; Die Verfügbarkeit von geeigneten Flächen stellt eine der wesentlichen Hürden für die Realisierung gemeinschaftlicher Wohnprojekte dar. Besonders relevant ist hierbei die Vergabe öffentlicher Flächen auf Grundlage von Konzeptverfahren, da gemeinschaftliche Wohnformen andernfalls kaum Chancen auf Umsetzung haben. Auch die systematische Ermittlung von Leerstand kann dazu beitragen, passende Flächen für solche Projekte zu identifizieren.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Regulatorische Rahmenbedingungen und p&lt;/b&gt; &lt;b&gt;olitische Unterstützung:&lt;/b&gt; Politischer Wille ist entscheidend für die Verbreitung des Konzepts. Bund, Länder und Kommunen müssen gemeinschaftliche Wohnformen fördern und als wichtigen Beitrag zur Erweiterung des Wohnungsangebots sowie zur Umsetzung individueller und gesellschaftlich relevanter Wohnkonzepte anerkennen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation:&lt;/b&gt; Der soziale Zusammenhalt und die nachbarschaftliche Unterstützung, die gemeinschaftliche Wohnformen bieten, tragen maßgeblich zur Verbesserung der Wohnqualität bei. Diese Aspekte sollten durch gezielte Informationskampagnen und aktive Beratungsangebote stärker in den Fokus gerückt werden.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;FORUM Gemeinschaftliches Wohnen: &lt;a href="https://win.fgw-ev.de/lernbereich/orientieren/was-sind-gemeinschaftliche-wohnprojekte/?bt="&gt;https://win.fgw-ev.de/lernbereich/orientieren/was-sind-gemeinschaftliche-wohnprojekte/?bt=&lt;/a&gt; , zuletzt geprüft am 04.11.2024.&lt;/p&gt; &lt;p&gt;WIN für Gemeinschaftliches Wohnen: WIN-Förderdatenbank. Online verfügbar unter &lt;a href="https://win.fgw-ev.de/win-foerderdatenbank/"&gt;https://win.fgw-ev.de/win-foerderdatenbank/&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Netzwerk Zukunftsorte e. V. (2022): Übermorgen, vom Leerstand zum Zukunftsort. Potenziale und Werkzeuge der gemeinwohlorientierten Leerstandsentwicklung auf dem Land. 1. Auflage, Brandenburg.&lt;/p&gt; &lt;p&gt;Schröer, Achim (2019): Mehrfach:Nutzen – Mehrfachnutzung und Space Sharing als Strategie zur nachhaltigen Stadtentwicklung. In: Dietrich Henckel und Caroline Kramer (Hg.): Zeitgerechte Stadt. Konzepte und Perspektiven für die Planungspraxis. Hannover: Akademie für Raumforschung und Landesplanung Leibniz-Forum für Raumwissenschaften (Forschungsberichte der ARL, 9), S. 203–222.&lt;/p&gt; &lt;p&gt;Wuppertal Institut (2022): Gemeinschaftliches Wohnen für mehr Wohnsuffizienz? Bericht im Rahmen des Forschungsprojekts OptiWohn , Wuppertal.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Gemeinschaftliches Wohnen existiert seit den 1970er-Jahren als expandierendes Nischenprodukt auf dem Wohnungsmarkt. Die Anzahl und typologische Vielfalt solcher Projekte nehmen kontinuierlich zu. Mit der steigenden Nachfrage birgt gemeinschaftliches Wohnen jedoch ein erhebliches Potenzial zur weiteren Verbreitung. Aktuell bilden ältere Menschen und Mieter*innen die Hauptzielgruppen. Doch gemäß der Suzanna-Befragung findet diese Wohnform auch bei jüngeren Generationen und Familien große Zustimmung, was auf ein hohes Potenzial in diesen Gruppen hinweist.&lt;/p&gt;&lt;p&gt;Folgende Faktoren für die weitere Verbreitung sind zu erkennen:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Geschäftsmodell:&lt;/b&gt; Eine sorgfältige Gruppenzusammensetzung stellt einen zentralen Erfolgsfaktor sowohl für die Projektentwicklung als auch für das spätere Zusammenleben dar. Professionelle Begleitung kann die Zusammenarbeit innerhalb der Gruppe wesentlich erleichtern. Zudem können innovative Organisationsformen, wie das Modell des Miethäuser Syndikats, und neue Geschäftsansätze, beispielsweise die Förderung gemeinschaftlicher Wohnformen durch kommunale Wohnungsbaugesellschaften, die Verbreitung des Konzepts unterstützen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Infrastrukturen:&lt;/b&gt; Die Verfügbarkeit von geeigneten Flächen stellt eine der wesentlichen Hürden für die Realisierung gemeinschaftlicher Wohnprojekte dar. Besonders relevant ist hierbei die Vergabe öffentlicher Flächen auf Grundlage von Konzeptverfahren, da gemeinschaftliche Wohnformen andernfalls kaum Chancen auf Umsetzung haben. Auch die systematische Ermittlung von Leerstand kann dazu beitragen, passende Flächen für solche Projekte zu identifizieren.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Regulatorische Rahmenbedingungen und p&lt;/b&gt;&lt;b&gt;olitische Unterstützung:&lt;/b&gt; Politischer Wille ist entscheidend für die Verbreitung des Konzepts. Bund, Länder und Kommunen müssen gemeinschaftliche Wohnformen fördern und als wichtigen Beitrag zur Erweiterung des Wohnungsangebots sowie zur Umsetzung individueller und gesellschaftlich relevanter Wohnkonzepte anerkennen. &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunikation: &lt;/b&gt;Der soziale Zusammenhalt und die nachbarschaftliche Unterstützung, die gemeinschaftliche Wohnformen bieten, tragen maßgeblich zur Verbesserung der Wohnqualität bei. Diese Aspekte sollten durch gezielte Informationskampagnen und aktive Beratungsangebote stärker in den Fokus gerückt werden.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;FORUM Gemeinschaftliches Wohnen: Was sind gemeinschaftliche Wohnprojekte? Online verfügbar unter &lt;a href="https://win.fgw-ev.de/lernbereich/orientieren/was-sind-gemeinschaftliche-wohnprojekte/?bt="&gt;https://win.fgw-ev.de/lernbereich/orientieren/was-sind-gemeinschaftliche-wohnprojekte/?bt=&lt;/a&gt;, zuletzt geprüft am 04.11.2024.&lt;/p&gt;&lt;p&gt;WIN für Gemeinschaftliches Wohnen: WIN-Förderdatenbank. Online verfügbar unter &lt;a href="https://win.fgw-ev.de/win-foerderdatenbank/"&gt;https://win.fgw-ev.de/win-foerderdatenbank/&lt;/a&gt; , zuletzt geprüft am 04.11.2024.&lt;/p&gt;&lt;p&gt;Netzwerk Zukunftsorte e. V. (2022): Übermorgen, vom Leerstand zum Zukunftsort. Potenziale und Werkzeuge der gemeinwohlorientierten Leerstandsentwicklung auf dem Land. 1. Auflage, Brandenburg.&lt;/p&gt;&lt;p&gt;Schröer, Achim (2019): Mehrfach:Nutzen – Mehrfachnutzung und Space Sharing als Strategie zur nachhaltigen Stadtentwicklung. In: Dietrich Henckel und Caroline Kramer (Hg.): Zeitgerechte Stadt. Konzepte und Perspektiven für die Planungspraxis. Hannover: Akademie für Raumforschung und Landesplanung Leibniz-Forum für Raumwissenschaften (Forschungsberichte der ARL, 9), S. 203–222.&lt;/p&gt;&lt;p&gt;Wuppertal Institut (2022): Gemeinschaftliches Wohnen für mehr Wohnsuffizienz? Bericht im Rahmen des Forschungsprojekts OptiWohn, Wuppertal.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Beratung- und Information für gemeinschaftliches Wohnen</t>
@@ -604,22 +601,22 @@
     <t>&lt;p&gt;Gemeinschaftliche Wohnprojekte sind häufig anspruchsvolle Vorhaben, die eine sorgfältige Planung und enge Zusammenarbeit aller Beteiligten erfordern. Da solche Projekte auf Selbstorganisation, Mitbestimmung und kollektive Entscheidungen angewiesen sind, stehen die Projektgruppen vor spezifischen Herausforderungen. In jeder Entwicklungsphase eines gemeinschaftlichen Wohnprojekts – von der ersten Konzeptidee über die Planungs- und Bauphase bis hin zur langfristigen Verwaltung – können Fragestellungen entstehen, die nicht allein von der Gruppe gelöst werden können. In solchen Situationen ist es oft hilfreich und notwendig, auf externe Fachkenntnisse zurückzugreifen, um das Projekt erfolgreich und nachhaltig umzusetzen. Externe Beratungsangebote decken verschiedene spezialisierte Bereiche ab und unterstützen die Projektgruppe gezielt bei der Lösung spezifischer Aufgaben.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Zentrale Anlaufstelle&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; Zentrale Anlaufstellen bieten umfassende Beratungsangebote, die den Einstieg in gemeinschaftliche Wohnformen erleichtern und dabei rechtliche, finanzielle sowie organisatorische Fragen klären. Sie fördern zudem die Vernetzung und Koordination lokaler Akteure – von Initiativgruppen über Wohnungsbaugesellschaften bis hin zu öffentlichen Trägern. In manchen Kommunen sind ihre Angebote mit Wohn raum beratung kombiniert. Diese Anlaufstellen werden in der Regel durch landes- oder kommunale Verwaltungen finanziert und können entweder extern beauftragt oder verwaltungsintern angesiedelt sein.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Fachliche Beratungsangebote&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; Fachliche Beratungsangebote decken eine Vielzahl von Themen ab, darunter Architektur und Planung, Projektentwicklung und -steuerung, Kostencontrolling, Finanzierung, wirtschaftliche Beratung, Energieberatung und Projektverwaltung . Die Finanzierung dieser Beratungen erfolgt in der Regel durch Projektmittel oder öffentliche Zuschüsse.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Beispiele für zentrale Anlaufstellen:&lt;/p&gt; &lt;p&gt;Netzwerk Leipzig Freiheit , Leipzig&lt;/p&gt; &lt;p&gt;Netzwerkagentur Generation Wohnen , Berlin&lt;/p&gt; &lt;p&gt;Landesberatungsstelle Gemeinschaftliches Wohnen Hessen&lt;/p&gt; &lt;p&gt;&lt;a href="https://win.fgw-ev.de/win-kompass/"&gt;https://win.fgw-ev.de/win-kompass/&lt;/a&gt; t s i ch auf der Website „WIN Kompass“ des Forum s für Gemeinschaftliches Wohnen:&lt;/p&gt; &lt;p&gt;Eine Liste fachlicher Beratungsangebote ist beispielsweise auf der Website „wohnprojekte portal“ der Stiftung trias verfügbar:&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Anbietenden lassen sich in folgende Akteure unterteilen:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Öffentliche Verwaltung:&lt;/b&gt; Initiiert und finanziert zentrale Anlaufstellen für grundlegende Beratung und Projektkoordination.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Stiftungen und Vereine:&lt;/b&gt; Akteure wie das Forum Gemeinschaftliches Wohnen, die Stiftung trias und das Mietshäuser Syndikat bieten fundierte Unterstützung.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Örtlichen Genossenschaft:&lt;/b&gt; Geben ihre Erfahrungen weiter und beraten lokale Initiativen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Private und kommerzielle Berater*innen:&lt;/b&gt; Unterstützen mit fachlicher Expertise . Insbesondere spielen Architekturbüros eine wichtige Rolle bei Bedarfsermittlung , Planung und Projektmanagement.&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Zentrale Anlaufstelle&lt;/b&gt;&lt;b&gt;:&lt;/b&gt; Zentrale Anlaufstellen bieten umfassende Beratungsangebote, die den Einstieg in gemeinschaftliche Wohnformen erleichtern und dabei rechtliche, finanzielle sowie organisatorische Fragen klären. Sie fördern zudem die Vernetzung und Koordination lokaler Akteure – von Initiativgruppen über Wohnungsbaugesellschaften bis hin zu öffentlichen Trägern. In manchen Kommunen sind ihre Angebote mit Wohnraumberatung kombiniert. Diese Anlaufstellen werden in der Regel durch landes- oder kommunale Verwaltungen finanziert und können entweder extern beauftragt oder verwaltungsintern angesiedelt sein. &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Fachliche Beratungsangebote&lt;/b&gt;&lt;b&gt;: &lt;/b&gt;Fachliche Beratungsangebote decken eine Vielzahl von Themen ab, darunter Architektur und Planung, Projektentwicklung und -steuerung, Kostencontrolling, Finanzierung, wirtschaftliche Beratung, Energieberatung und Projektverwaltung. Die Finanzierung dieser Beratungen erfolgt in der Regel durch Projektmittel oder öffentliche Zuschüsse.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Beispiele für zentrale Anlaufstellen:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Netzwerk Leipzig Freiheit&lt;/b&gt;&lt;b&gt;, Leipzig&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Netzwerkagentur Generation Wohnen&lt;/b&gt;&lt;b&gt;, Berlin&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Landesberatungsstelle Gemeinschaftliches Wohnen&lt;/b&gt;&lt;b&gt; Hessen&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Eine Übersicht allgemeiner Angebote finde&lt;/b&gt;&lt;b&gt;t&lt;/b&gt;&lt;b&gt; &lt;/b&gt;&lt;b&gt;s&lt;/b&gt;&lt;b&gt;i&lt;/b&gt;&lt;b&gt;ch&lt;/b&gt;&lt;b&gt; auf der Website&lt;/b&gt;&lt;b&gt; „WIN Kompass“&lt;/b&gt;&lt;b&gt; des Forum&lt;/b&gt;&lt;b&gt;s&lt;/b&gt;&lt;b&gt; für Gemeinschaftliches Wohnen: &lt;/b&gt;&lt;a href="https://win.fgw-ev.de/win-kompass/"&gt;https://win.fgw-ev.de/win-kompass/&lt;/a&gt;&lt;/p&gt;&lt;p&gt;Eine Liste fachlicher Beratungsangebote ist beispielsweise auf der Website „wohnprojekte portal“ der Stiftung trias verfügbar: &lt;a href="https://www.wohnprojekte-portal.de/beraterinnen/uebersicht/"&gt;https://www.wohnprojekte-portal.de/beraterinnen/uebersicht/&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Anbietenden lassen sich in folgende Akteure unterteilen:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Öffentliche Verwaltung:&lt;/b&gt; Initiiert und finanziert zentrale Anlaufstellen für grundlegende Beratung und Projektkoordination.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Stiftungen und Vereine:&lt;/b&gt; Akteure wie das Forum Gemeinschaftliches Wohnen, die Stiftung trias und das Mietshäuser Syndikat bieten fundierte Unterstützung.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Örtlichen Genossenschaft:&lt;/b&gt; Geben ihre Erfahrungen weiter und beraten lokale Initiativen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Private und kommerzielle Berater*innen:&lt;/b&gt; Unterstützen mit fachlicher Expertise. Insbesondere spielen Architekturbüros eine wichtige Rolle bei Bedarfsermittlung, Planung und Projektmanagement.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Kommunale Wohnunternehmen finanzieren die Beratungen.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Beratungsprämie in Baden -W ürttemberg&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Da gemeinschaftliche Wohnprojekte häufig anspruchsvolle Vorhaben darstellen, sind Beratungsangebote für gemeinschaftliches Wohnen von zentraler Bedeutung für die erfolgreiche Realisierung solcher Projekte. Die kommunale Anlaufstelle kann interessierte Gruppen effizient und schnell an die richtigen Ansprechpartner vermitteln, während die Fachberatung die Projekte fachlich begleiten kann.&lt;/p&gt; &lt;p&gt;Darüber hinaus bieten diese Beratungsangebote die Möglichkeit, das Konzept der „Suffizienz“ als Leitgedanken zu kommunizieren und in den Planungsprozess zu integrieren.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Beratungsprämie in Baden-Württemberg&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Da gemeinschaftliche Wohnprojekte häufig anspruchsvolle Vorhaben darstellen, sind Beratungsangebote für gemeinschaftliches Wohnen von zentraler Bedeutung für die erfolgreiche Realisierung solcher Projekte. Die kommunale Anlaufstelle kann interessierte Gruppen effizient und schnell an die richtigen Ansprechpartner vermitteln, während die Fachberatung die Projekte fachlich begleiten kann.&lt;/p&gt;&lt;p&gt;Darüber hinaus bieten diese Beratungsangebote die Möglichkeit, das Konzept der „Suffizienz“ als Leitgedanken zu kommunizieren und in den Planungsprozess zu integrieren.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Land und Stadt, jedoch ist ein Schwerpunkt der Beratungsangebote in den Ballungsräumen erkennbar.&lt;/p&gt;</t>
@@ -628,10 +625,10 @@
     <t>&lt;p&gt;Derzeit liegt der Schwerpunkt der Wohnberatung auf der „älteren Gruppe“, wobei viele Angebote im Bereich des gemeinschaftlichen Wohnens speziell für ältere Menschen stattfinden. Potenziell richten sich die Beratungsangebote jedoch an alle sozialen Gruppen, insbesondere an Familien, die einen steigenden Bedarf haben.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Der steigende Bedarf an gemeinschaftlichen Wohnformen erfordert eine entsprechende Ausweitung von Beratungsangeboten. Dies spiegelt sich beispielsweise auf der Plattform WIN-Kompass wider, auf der insgesamt 80 Beratungsangebote für gemeinschaftliches Wohnen gelistet sind (Stand: 11/2024). Die wachsende Zahl solcher Angebote unterstreicht sowohl das Potenzial als auch die Notwendigkeit, entsprechende Beratungsstrukturen weiter auszubauen.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;WIN für Gemeinschaftliches Wohnen: &lt;a href="https://win.fgw-ev.de/win-kompass/"&gt;https://win.fgw-ev.de/win-kompass/&lt;/a&gt; Onli ne verfügbar unter , zuletzt geprüft am 04.11.2024.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Der steigende Bedarf an gemeinschaftlichen Wohnformen erfordert eine entsprechende Ausweitung von Beratungsangeboten. Dies spiegelt sich beispielsweise auf der Plattform WIN-Kompass wider, auf der insgesamt 80 Beratungsangebote für gemeinschaftliches Wohnen gelistet sind (Stand: 11/2024). Die wachsende Zahl solcher Angebote unterstreicht sowohl das Potenzial als auch die Notwendigkeit, entsprechende Beratungsstrukturen weiter auszubauen. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;WIN für Gemeinschaftliches Wohnen: Beratung für Gemeinschaftliches Wohnen. Online verfügbar unter &lt;a href="https://win.fgw-ev.de/win-kompass/"&gt;https://win.fgw-ev.de/win-kompass/&lt;/a&gt;, zuletzt geprüft am 04.11.2024.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Vermittlungsstelle für gemeinschaftliches Wohnen</t>
@@ -640,16 +637,16 @@
     <t>&lt;p&gt;Vermittlung für gemeinschaftliches Wohnen bezeichnet den Prozess und die Dienstleistungen, die darauf abzielen, Personen oder Gruppen, die an gemeinschaftlichen Wohnformen interessiert sind, mit geeigneten Wohnprojekten, Initiativen, Immobilienbesitzer*innen oder anderen Interessenten zusammenzubringen. Sie fungiert als Schnittstelle zwischen Angebot und Nachfrage im Bereich des gemeinschaftlichen Wohnens und unterstützt sowohl die Bildung neuer Wohnprojekte als auch die Integration von Individuen in bestehende Projekte.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Wohnprojektportale:&lt;/b&gt; Die Vermittlung erfolgt in der Regel in Form einer digitalen Plattform, wobei Kontakte zwischen potenziellen Bewohnern , Projektgruppen und Immobilieneigentümern vermittelt werden.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Immobilienagentur für gemeinschaftliches Wohnen:&lt;/b&gt; Es werden Kontakte zwischen Hauseigentümer*innen und Wohnungsbaugenossenschaften vermittelt, mit dem Ziel einer s ozialverträglichen Bewirtschaftung der Immobilien .&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Projektbörse des FORUM Gemeinschaftliches Wohnen e.V.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Wohnprojekte-Portal der Stiftung t rias&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Wohnportal Rheinland-Pfalz&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Bring-Together&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;GIMA-Berlin-Brandenburg eG.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Bei den bestehenden Wohnprojektportalen handelt es sich überwiegend um kostenlose Angebote von Vereinen/Stiftungen, Genossenschaften und der öffentlichen Verwaltung. Das einzige kommerzielle Angebot in Deutschland ist Bring-together .&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kommunale&lt;/p&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Wohnprojektportale:&lt;/b&gt; Die Vermittlung erfolgt in der Regel in Form einer digitalen Plattform, wobei Kontakte zwischen potenziellen Bewohnern, Projektgruppen und Immobilieneigentümern vermittelt werden.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Immobilienagentur für gemeinschaftliches Wohnen: &lt;/b&gt;Es werden Kontakte zwischen Hauseigentümer*innen und Wohnungsbaugenossenschaften vermittelt, mit dem Ziel einer sozialverträglichen Bewirtschaftung der Immobilien.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Projektbörse des FORUM Gemeinschaftliches Wohnen e.V.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Wohnprojekte-Portal der Stiftung trias&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Wohnportal Rheinland-Pfalz&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Bring-Together&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;GIMA-Berlin-Brandenburg eG.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bei den bestehenden Wohnprojektportalen handelt es sich überwiegend um kostenlose Angebote von Vereinen/Stiftungen, Genossenschaften und der öffentlichen Verwaltung. Das einzige kommerzielle Angebot in Deutschland ist Bring-together.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kommunale &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Die Vermittlung für gemeinschaftliches Wohnen spielt eine zentrale Rolle im gemeinschaftlichen Wohnen, indem sie Interessierte, Initiativen und bestehende Projekte miteinander vernetzt und den Weg zur Realisierung solcher Wohnformen ebnet. Dabei adressiert sie indirekt die Aspekte von Suffizienz, indem sie gemeinschaftliches Wohnen fördert.&lt;/p&gt;</t>
@@ -661,7 +658,7 @@
     <t>&lt;p&gt;Es gibt keine umfassenden Statistiken zur Nutzer- und Vermittlungszahl kostenloser Wohnprojektportale. Die Wirkungsanalyse der kommerziellen Plattform Bring-Together (2024) zeigt jedoch einen steigenden Bedarf an gemeinschaftlichem Wohnen. Ähnlich wie bei Beratungsangeboten unterstreicht der steigende Bedarf an gemeinschaftlichen Wohnformen die Relevanz und Notwendigkeit der Wohnprojektvermittlung.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;bring-together &lt;a href="https://www.bring-together.de/de/info/aktuelles/wirkungsanalyse-2023"&gt;https://www.bring-together.de/de/info/aktuelles/wirkungsanalyse-2023&lt;/a&gt; Wirkungsanalyse für gemeinsames Wohnen mit bring-together 2023 . Onli ne verfügbar unter , letzter Zugriff am 10.11.2024&lt;/p&gt;</t>
+    <t>&lt;p&gt;bring-together (2024):  Wirkungsanalyse für gemeinsames Wohnen mit bring-together 2023. Online verfügbar unter &lt;a href="https://www.bring-together.de/de/info/aktuelles/wirkungsanalyse-2023"&gt;https://www.bring-together.de/de/info/aktuelles/wirkungsanalyse-2023&lt;/a&gt;, letzter Zugriff am 10.11.2024&lt;/p&gt;</t>
   </si>
   <si>
     <t>Umnutzung von leerstehenden Gebäuden für neue Wohnmodelle</t>
@@ -670,7 +667,7 @@
     <t>Bestandsentwicklung vor Neubau</t>
   </si>
   <si>
-    <t>&lt;p&gt;Leerstände, also ungenutzte oder verfallene Gebäude, können strategisch und gemeinwohlorientiert wiederbelebt werden, um neue Angebote für Wohn-, Arbeits- oder Gemeinschaftszwecke zu schaffen. Insbesondere in ländlichen Gebieten stellt die Problematik von Leerständen eine große Herausforderung dar, da diese Regionen häufig von Abwanderung, demografischem Wandel und wirtschaftlichen Schwierigkeiten betroffen sind. Dabei stehen nicht nur die bauliche oder finanzielle Wiederbelebung sondern auch die Entwicklung innovativer Konzepte im Fokus .&lt;/p&gt;</t>
+    <t>&lt;p&gt;Leerstände, also ungenutzte oder verfallene Gebäude, können strategisch und gemeinwohlorientiert wiederbelebt werden, um neue Angebote für Wohn-, Arbeits- oder Gemeinschaftszwecke zu schaffen. Insbesondere in ländlichen Gebieten stellt die Problematik von Leerständen eine große Herausforderung dar, da diese Regionen häufig von Abwanderung, demografischem Wandel und wirtschaftlichen Schwierigkeiten betroffen sind. Dabei stehen nicht nur die bauliche oder finanzielle Wiederbelebung sondern auch die Entwicklung innovativer Konzepte im Fokus.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Verschiedene Beispiele sind in der Veröffentlichung des Netzwerks Zukunftsorte e.V. (2022) sowie im Modellprojekt „Junges Wohnen“ in Baden-Württemberg (PES e.V. et al., 2021) zu finden.&lt;/p&gt;</t>
@@ -679,49 +676,49 @@
     <t>&lt;p&gt;Immobilienbesitzer*innen leerstehender Gebäude und interessierte Gruppen entwickeln gemeinsam Projekte&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; sind Schlüsselakteure bei der Identifikation und Entwicklung von Leerständen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Netzwerke und Initiativen&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; unterstützen Kommunen und Akteure mit Expertise in gemeinwohlorientierter Immobilienentwicklung.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Projektentwickler*innen und Berater*innen&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; begleiten Projekte und beraten bei deren Umsetzung.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Zivilgesellschaft und lokale Initiativen&lt;/b&gt; &lt;b&gt;:&lt;/b&gt; s tärken die Nutzung und Wiederbelebung von Leerständen durch ihre Dienstleistungsangebote (z.B. kulturelle Angebote, lokale Laden).&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Finanzierungsinstitute : stellen Finanzierungsmöglichkeiten zur Verfügung.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;B aurechtlichen Vorgaben, wie d as Baugesetzbuch (BauGB) , Denkmalschutz und weitere Bauvorschriften und Genehmigungsverfahren.&lt;/p&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen&lt;/b&gt;&lt;b&gt;:&lt;/b&gt; sind Schlüsselakteure bei der Identifikation und Entwicklung von Leerständen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Netzwerke und Initiativen&lt;/b&gt;&lt;b&gt;:&lt;/b&gt;&lt;b&gt; &lt;/b&gt;unterstützen Kommunen und Akteure mit Expertise in gemeinwohlorientierter Immobilienentwicklung.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Projektentwickler*innen und Berater*innen&lt;/b&gt;&lt;b&gt;:&lt;/b&gt; begleiten Projekte und beraten bei deren Umsetzung.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Zivilgesellschaft und lokale Initiativen&lt;/b&gt;&lt;b&gt;:&lt;/b&gt;&lt;b&gt; &lt;/b&gt;stärken die Nutzung und Wiederbelebung von Leerständen durch ihre Dienstleistungsangebote (z.B. kulturelle Angebote, lokale Laden).&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Finanzierungsinstitute: &lt;b&gt;stellen Finanzierungsmöglichkeiten zur Verfügung.&lt;/b&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Baurechtlichen Vorgaben, wie das Baugesetzbuch (BauGB), Denkmalschutz und weitere Bauvorschriften und Genehmigungsverfahren.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Landesförderprogramm Kommunale Leerstandsaktivierung (Wiedervermietungsprämie) in Baden-Württemberg&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die Aktivierung von Leerständen trägt unmittelbar zur Suffizienz bei, da sie bestehende Ressourcen sinnvoll und nachhaltig nutzt, anstatt neuen Flächen zu beanspruchen. Indem bereits vorhandene Gebäude revitalisiert werden, wird der Verbrauch von Materialien und Energie minimiert.&lt;/p&gt; &lt;p&gt;Gleichzeitig fördert dieser Ansatz ein bewussteres und ressourcenschonendes Miteinander, indem er gemeinschaftliche Wohnformen und geteilte Nutzungsmöglichkeiten in den Vordergrund stellt.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Vorreitergruppen stehen insbesondere im Vordergrund, die bereit sind, innovative Projekte zu starten und aktiv an der Transformation von Leerständen mitzuwirken.&lt;/p&gt; &lt;p&gt;Jedoch steht die Wohnform allen sozialen Gruppen offen.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die Aktivierung von Leerständen trägt unmittelbar zur Suffizienz bei, da sie bestehende Ressourcen sinnvoll und nachhaltig nutzt, anstatt neuen Flächen zu beanspruchen. Indem bereits vorhandene Gebäude revitalisiert werden, wird der Verbrauch von Materialien und Energie minimiert. &lt;/p&gt;&lt;p&gt;Gleichzeitig fördert dieser Ansatz ein bewussteres und ressourcenschonendes Miteinander, indem er gemeinschaftliche Wohnformen und geteilte Nutzungsmöglichkeiten in den Vordergrund stellt.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Vorreitergruppen stehen insbesondere im Vordergrund, die bereit sind, innovative Projekte zu starten und aktiv an der Transformation von Leerständen mitzuwirken.&lt;/p&gt;&lt;p&gt;Jedoch steht die Wohnform allen sozialen Gruppen offen.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;W2&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die bestehenden Initiativen zeigen Wege auf, wie ländliche Räume durch Aktivierung von Leerständen als attraktive Standorte weiterentwickelt werden können. S ie dienen als Vorbilder, die zeigen, wie durch kreative Nutzung von Leerständen neue Lebens- und Arbeitsräume entstehen können. Dieses Potenzial lässt sich durch gezielte Förderung, Vernetzung und den Transfer von Best Practices weiter skalieren.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Netzwerk Zukunftsorte e. V. (2022): Übermorgen, vom Leerstand zum Zukunftsort. Potenziale und Werkzeuge der gemeinwohlorientierten Leerstandsentwicklung auf dem Land. 1. Auflage, Brandenburg&lt;/p&gt; &lt;p&gt;PES e.V., Sutter3, K-Punkt Ländliche Entwicklung (Hg.): Junges Wohnen: Zukunftsorientierte Wohnmodelle für junge Erwachsene durch Umnutzung von leerstehenden Gebäuden im Ortskern. Ein Modellprojekt in Baden-Württemberg. Freiburg. Online verfügbar unter &lt;a href="https://kpunktland-drs.de/wp-content/uploads/2020/10/JW_Dokumentation_WEB-final.pdf"&gt;https://kpunktland-drs.de/wp-content/uploads/2020/10/JW_Dokumentation_WEB-final.pdf&lt;/a&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die bestehenden Initiativen zeigen Wege auf, wie ländliche Räume durch Aktivierung von Leerständen als attraktive Standorte weiterentwickelt werden können. Sie dienen als Vorbilder, die zeigen, wie durch kreative Nutzung von Leerständen neue Lebens- und Arbeitsräume entstehen können. Dieses Potenzial lässt sich durch gezielte Förderung, Vernetzung und den Transfer von Best Practices weiter skalieren.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Netzwerk Zukunftsorte e. V. (2022): Übermorgen, vom Leerstand zum Zukunftsort. Potenziale und Werkzeuge der gemeinwohlorientierten Leerstandsentwicklung auf dem Land. 1. Auflage, Brandenburg&lt;/p&gt;&lt;p&gt;PES e.V., Sutter3, K-Punkt Ländliche Entwicklung (Hg.): Junges Wohnen: Zukunftsorientierte Wohnmodelle für junge Erwachsene durch Umnutzung von leerstehenden Gebäuden im Ortskern. Ein Modellprojekt in Baden-Württemberg. Freiburg. Online verfügbar unter &lt;a href="https://kpunktland-drs.de/wp-content/uploads/2020/10/JW_Dokumentation_WEB-final.pdf"&gt;https://kpunktland-drs.de/wp-content/uploads/2020/10/JW_Dokumentation_WEB-final.pdf&lt;/a&gt;, zuletzt geprüft am 16.12.2024&lt;/p&gt;</t>
   </si>
   <si>
     <t>Wohnraumberatung und Wohnraummobilisierung</t>
   </si>
   <si>
-    <t>&lt;p&gt;Durch die Wohnraumberatung werden Eigentümer bei der Entscheidungsfindung und Umsetzung von Maßnahmen zur optimierten Nutzung ihres Wohnraums unterstützt. Diese Beratung erfolgt häufig in Form von Anlaufstellen und wird oft mit weiteren Wohnb eratungsangeboten kombiniert. Die Wohnraumberatung und Wohnraummobilisierung zielt darauf ab, bestehende Wohnflächen effektiver zu nutzen und damit aktuellen Herausforderungen wie Wohnraummangel, Flächenkonflikten, Klimaschutz und demographischem Wandel zu begegnen.&lt;/p&gt; &lt;p&gt;Die relevanten Themen sind:&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Wohnungsteilung und Umbau von Gebäuden&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Vermietung&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Wohnen für Hilfe und Wohnen im Alter&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Umzug&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Gemeinschaftliches Wohnen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Wohnraumberatung Tübingen , Wohnraumagentur der Stadt Göttingen ( i m Rahmen von OptiWohn )&lt;/p&gt; &lt;p&gt;Kleiner wohnen – besser wohnen in Freiburg, Energieagentur Regio Freiburg&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Beratungs- und Unterstützungs-Angebote in Kreis „Steinfurt“ (i m Rahmen des Forschungsprojekts LebensRäume )&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Derzeit gibt es nur einzelne Beispiele für Anbieter einer Wohnraumberatung, dies sind vor allem Anlaufstellen, die öffentlich finanziert werden.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Durch die Wohnraumberatung werden Eigentümer bei der Entscheidungsfindung und Umsetzung von Maßnahmen zur optimierten Nutzung ihres Wohnraums unterstützt. Diese Beratung erfolgt häufig in Form von Anlaufstellen und wird oft mit weiteren Wohnberatungsangeboten kombiniert. Die Wohnraumberatung und Wohnraummobilisierung zielt darauf ab, bestehende Wohnflächen effektiver zu nutzen und damit aktuellen Herausforderungen wie Wohnraummangel, Flächenkonflikten, Klimaschutz und demographischem Wandel zu begegnen. &lt;/p&gt;&lt;p&gt;Die relevanten Themen sind:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Wohnungsteilung und Umbau von Gebäuden&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Vermietung&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Wohnen für Hilfe und Wohnen im Alter&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Umzug&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Gemeinschaftliches Wohnen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Wohnraumberatung Tübingen&lt;/b&gt;&lt;b&gt;,&lt;/b&gt;&lt;b&gt; Wohnraumagentur der Stadt Göttingen&lt;/b&gt;&lt;b&gt; (&lt;/b&gt;&lt;b&gt;i&lt;/b&gt;&lt;b&gt;m&lt;/b&gt;&lt;b&gt; Rahmen&lt;/b&gt;&lt;b&gt; von&lt;/b&gt;&lt;b&gt; OptiWohn&lt;/b&gt;&lt;b&gt;)&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Kleiner wohnen – besser wohnen in Freiburg, Energieagentur Regio Freiburg&lt;/b&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Beratungs- und Unterstützungs-Angebote in Kreis „Steinfurt“ (im Rahmen des Forschungsprojekts LebensRäume)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Derzeit gibt es nur einzelne Beispiele für Anbieter einer Wohnraumberatung, dies sind vor allem Anlaufstellen, die öffentlich finanziert werden. &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen:&lt;/b&gt; finanzieren die Angebote&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Beratungsprämie - Aktivierung von ungenutztem Wohnraum in BW&lt;/p&gt; &lt;p&gt;Wiedervermietungsprämie BW&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Die Wohnraumberatung konzentriert sich insbesondere auf die Aktivierung ungenutzten Wohnraums. Durch Kommunikation und Aufklärung können verschiedenen Zielgruppen für das Thema Wohnraum sensibilisiert und von der transparenten Beratung bis hin zur Umsetzung individueller Wohnlösungen unterstützt werden. Dies trägt unmittelbar zur Suffizienz bei, da bestehende Wohnflächen effizient genutzt werden, anstatt neue Flächen zu beanspruchen. Durch die Förderung kleinerer Wohnflächen wird der Verbrauch von Energie und Ressourcen reduziert.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Beratungsprämie - Aktivierung von ungenutztem Wohnraum in BW&lt;/p&gt;&lt;p&gt;Wiedervermietungsprämie BW&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Die Wohnraumberatung konzentriert sich insbesondere auf die Aktivierung ungenutzten Wohnraums. Durch Kommunikation und Aufklärung können verschiedenen Zielgruppen für das Thema Wohnraum sensibilisiert und von der transparenten Beratung bis hin zur Umsetzung individueller Wohnlösungen unterstützt werden. Dies trägt unmittelbar zur Suffizienz bei, da bestehende Wohnflächen effizient genutzt werden, anstatt neue Flächen zu beanspruchen. Durch die Förderung kleinerer Wohnflächen wird der Verbrauch von Energie und Ressourcen reduziert. &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Urbanen und ländliche Gebiete&lt;/p&gt;</t>
@@ -736,34 +733,34 @@
     <t>&lt;p&gt;Die Forschungsprojekte „OptiWohn“ (Wuppertal Institut 2021) und „Lebensräume“ (Paar 2020) zeigen sowohl die Notwendigkeit als auch die Chancen auf, Themen wie Wohnmobilisierung und Flächenoptimierung in Verbindung mit dem Konzept der „Suffizienz“ in bestehende Beratungsangebote zu integrieren.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Energieagentur Regio Freiburg GmbH (Hg.) (2022): Wie wohne ich kleiner besser? Alles auf einen Blick. Online verfügbar unter &lt;a href="https://energieagentur-regio-freiburg.eu/wp-content/uploads/2022/03/begleitbroschure-kleiner-besser-wohnen-web.pdf"&gt;https://energieagentur-regio-freiburg.eu/wp-content/uploads/2022/03/begleitbroschure-kleiner-besser-wohnen-web.pdf&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Paar, Angelika (2020): Wohnraummobilisierung – gut für Menschen, Kommune und Klima. Eine Handreichung. Online verfügbar unter &lt;a href="https://www.oeko.de/fileadmin/lebensraeume/Handreichung_Wohnraummobilisierung.pdf"&gt;https://www.oeko.de/fileadmin/lebensraeume/Handreichung_Wohnraummobilisierung.pdf&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Wuppertal Institut (2021): Wie könnten Beratungsangebote zur Optimierung der Wohnflächennutzung aussehen? Bericht im Rahmen des Forschungsprojekts OptiWohn. Wuppertal.&lt;/p&gt; &lt;p&gt;Wuppertal Institut (2022): Evaluation der Wohnraumberatung Tübingen im Projekt OptiWohn. Wuppertal.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Energieagentur Regio Freiburg GmbH (Hg.) (2022): Wie wohne ich kleiner besser? Alles auf einen Blick. Online verfügbar unter &lt;a href="https://energieagentur-regio-freiburg.eu/wp-content/uploads/2022/03/begleitbroschure-kleiner-besser-wohnen-web.pdf"&gt;https://energieagentur-regio-freiburg.eu/wp-content/uploads/2022/03/begleitbroschure-kleiner-besser-wohnen-web.pdf&lt;/a&gt;, zuletzt geprüft am 16.12.2024.&lt;/p&gt;&lt;p&gt;Paar, Angelika (2020): Wohnraummobilisierung – gut für Menschen, Kommune und Klima. Eine Handreichung. Online verfügbar unter &lt;a href="https://www.oeko.de/fileadmin/lebensraeume/Handreichung_Wohnraummobilisierung.pdf"&gt;https://www.oeko.de/fileadmin/lebensraeume/Handreichung_Wohnraummobilisierung.pdf&lt;/a&gt;, zuletzt geprüft am 16.12.2024.&lt;/p&gt;&lt;p&gt;Wuppertal Institut (2021): Wie könnten Beratungsangebote zur Optimierung der Wohnflächennutzung aussehen? Bericht im Rahmen des Forschungsprojekts OptiWohn. Wuppertal.&lt;/p&gt;&lt;p&gt;Wuppertal Institut (2022): Evaluation der Wohnraumberatung Tübingen im Projekt OptiWohn. Wuppertal.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Wohnungstauschplattformen</t>
   </si>
   <si>
-    <t>&lt;p&gt;Der Wohn ungs tausch bezeichnet den Prozess, bei dem zwei oder mehr Parteien ihre Wohnungen dauerhaft miteinander tauschen. Ein temporärer Wohnungstausch unter anderem zu Urlaubszwecken wird hier nicht betrachtet. Besonders in Ballungsgebieten mit angespanntem Wohnungsmarkt stellt der Wohnungstausch eine Alternative zur klassischen Wohnungssuche dar .&lt;/p&gt; &lt;p&gt;In diesem Zusammenhang werden viele Wohnungstauschplattformen oder Tauschbörsen etabliert, die den Nutzern ermöglichen, Wohnangebote gezielt zum Tausch anzubieten und zu suchen. Manche Plattform bieten auch zusätzliche Dienstleistungen, wie Hilfe bei dem Umzug, rechtliche Beratung oder Unterstützung bei der Vertragsgestaltung usw.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunale Plattform:&lt;/b&gt; Einige Städte und Gemeinden haben eigene Programme entwickelt, um den Wohnungstausch zu fördern. Diese Plattformen werden von S tadtverwaltungen oder städtischen Wohnungsgesellschaften betrieben und sind oft kostenfrei nutzbar. Sie richten sich primär an Einwohner*innen der jeweiligen Kommune oder Kund*innen der Wohnungsbaugesellschaften und zielen darauf ab, den lokalen Wohnungsmarkt zu entlasten.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommerzielle Angebote:&lt;/b&gt; Neben staatlichen Initiativen existieren auch private Plattformen, die den Wohnungstausch unterstützen. Diese werden von Unternehmen betrieben und finanzieren sich häufig über Mitgliedsbeiträge oder Vermittlungsgebühren. Kommerzielle Plattformen setzen oft auch Unterplattform für einzelne Kommunen bieten dort Dienstleistungen an. Beispiele hierfür sind Tauschwohnung.com und Wohnungsswap.de.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Tauschwohnung.com&lt;/p&gt; &lt;p&gt;inberlinwohnen.de&lt;/p&gt; &lt;p&gt;Wohnungstausch in Düsseldorf&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Die Anbieter von Wohnungstauschplattformen lassen sich in zwei Hauptkategorien unterteilen: kommunale und kommerziell e Plattformen. Die beiden größten kommerziellen Angebote in Deutschland sind Tauschwohnung.com und Wohnungsswap.de.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen&lt;/b&gt; initiieren kommunale Plattformen.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Mietervereine, Wohnungsbaugesellschaften und Genossenschaften&lt;/b&gt; fungieren als Kooperationspartner für Wohnungstausch- und Wechselprogramme.&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;&lt;b&gt;Vermieter&lt;/b&gt; sind Eigentümer der Immobilien.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Es gibt keine spezifischen rechtlichen Anforderungen .&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Beispiel auf kommunalen Ebenen :&lt;/p&gt; &lt;ul&gt;&lt;li&gt;Düsseldorf: Städtische Zuschuss zur Finanzierung der Umzugskosten, Zuschüsse für die Anmietung einer angemessenen Übergangswohnung sowie die vorübergehende Einlagerung des Hausstandes&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Der Wohnungstausch trägt zu suffiziente m Wohnen bei, indem er eine bedarfsgerechte Verteilung der bestehenden Wohnung ermöglicht. Durch den Tausch können Über- und Unterbelegungen reduziert werden, was zu einer effizienteren Nutzung der bestehenden Wohnflächen führt. Dies kann den Bedarf an Neubauten verringern und somit Ressourcen schonen.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Der Wohnungstausch bezeichnet den Prozess, bei dem zwei oder mehr Parteien ihre Wohnungen dauerhaft miteinander tauschen. Ein temporärer Wohnungstausch unter anderem zu Urlaubszwecken wird hier nicht betrachtet. Besonders in Ballungsgebieten mit angespanntem Wohnungsmarkt stellt der Wohnungstausch eine Alternative zur klassischen Wohnungssuche dar. &lt;/p&gt;&lt;p&gt;In diesem Zusammenhang werden viele Wohnungstauschplattformen oder Tauschbörsen etabliert, die den Nutzern ermöglichen, Wohnangebote gezielt zum Tausch anzubieten und zu suchen. Manche Plattform bieten auch zusätzliche Dienstleistungen, wie Hilfe bei dem Umzug, rechtliche Beratung oder Unterstützung bei der Vertragsgestaltung usw.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunale Plattform:&lt;/b&gt; Einige Städte und Gemeinden haben eigene Programme entwickelt, um den Wohnungstausch zu fördern. Diese Plattformen werden von Stadtverwaltungen oder städtischen Wohnungsgesellschaften betrieben und sind oft kostenfrei nutzbar. Sie richten sich primär an Einwohner*innen der jeweiligen Kommune oder Kund*innen der Wohnungsbaugesellschaften und zielen darauf ab, den lokalen Wohnungsmarkt zu entlasten. &lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommerzielle Angebote:&lt;/b&gt; Neben staatlichen Initiativen existieren auch private Plattformen, die den Wohnungstausch unterstützen. Diese werden von Unternehmen betrieben und finanzieren sich häufig über Mitgliedsbeiträge oder Vermittlungsgebühren. Kommerzielle Plattformen setzen oft auch Unterplattform für einzelne Kommunen bieten dort Dienstleistungen an. Beispiele hierfür sind Tauschwohnung.com und Wohnungsswap.de. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;Tauschwohnung.com&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;inberlinwohnen.de&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Wohnungstausch in Düsseldorf&lt;/b&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Anbieter von Wohnungstauschplattformen lassen sich in zwei Hauptkategorien unterteilen: kommunale und kommerzielle Plattformen. Die beiden größten kommerziellen Angebote in Deutschland sind Tauschwohnung.com und Wohnungsswap.de.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;Kommunen&lt;/b&gt; initiieren kommunale Plattformen.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Mietervereine, Wohnungsbaugesellschaften und Genossenschaften&lt;/b&gt; fungieren als Kooperationspartner für Wohnungstausch- und Wechselprogramme.&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;&lt;b&gt;Vermieter&lt;/b&gt; sind Eigentümer der Immobilien.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Es gibt keine spezifischen rechtlichen Anforderungen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Beispiel auf kommunalen Ebenen: &lt;/p&gt;&lt;ul&gt;&lt;li&gt;Düsseldorf: Städtische Zuschuss zur Finanzierung der Umzugskosten, Zuschüsse für die Anmietung einer angemessenen Übergangswohnung sowie die vorübergehende Einlagerung des Hausstandes&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der Wohnungstausch trägt zu suffizientem Wohnen bei, indem er eine bedarfsgerechte Verteilung der bestehenden Wohnung ermöglicht. Durch den Tausch können Über- und Unterbelegungen reduziert werden, was zu einer effizienteren Nutzung der bestehenden Wohnflächen führt. Dies kann den Bedarf an Neubauten verringern und somit Ressourcen schonen.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Kommunale Plattformen existieren vor allem in Großstädten, wie Berlin, München, Düsseldorf, Freiburg und Hamburg. Angesichts des angespannten Wohnungsmarktes in diesen Städten stellt der Wohnungstausch eine vielversprechende Alternative für Wohnungssuchende dar.&lt;/p&gt;</t>
@@ -772,10 +769,10 @@
     <t>&lt;p&gt;Mieter*innen, und ältere Leute werden häufig als Zielgruppe für eine Verkleinerung ihrer Wohnfläche definiert.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Der Wohnungstausch weist aufgrund der zunehmenden Nachfrage ein Potenzial für eine weitere Verbreitung auf, was sich an der steigenden Zahl registrierter Nutzerinnen und Nutzer auf den entsprechenden Plattformen zeigt. So w u rden in Jahr 2023 monatlich zwischen 6000 und 10.000 Wohnungen neu angeboten ( Melcher 2023) .&lt;/p&gt; &lt;p&gt;In der Praxis zeigt sich jedoch, dass trotz hoher Nachfrage bisher nur wenige Tauschprojekte realisiert wurden. Verschiedene Schwierigkeiten bei der Umsetzung solcher Tauschvorhaben können als Hemmnisse identifiziert werden. Vor allem lässt sich auf das drastische Missverhältnis von gesuchten und angebotenen Wohnungsgrößen verweis en. Insbesondere zeigt die ältere Zielgruppe eine geringe Bereitschaft zum Tausch, was vor allem auf emotionale Bindungen an die eigene Wohnung zurückzuführen ist. Zudem bietet der Wohnungstausch in angespannten Wohnungsmärkten oft nur einen begrenzten finanziellen Vorteil, während zusätzliche Kosten wie Umzug und Renovierung entstehen. Auch vermieterseitige Hürden, die Abstimmung von Mietvertragsbedingungen sowie die rechtliche Absicherung stellen weitere Herausforderungen dar (Kitzmann 2023).&lt;/p&gt; &lt;p&gt;Insgesamt zeigt sich, dass die anvisierte Zielgruppe oft nicht in dem Maße zum Wohnungstausch bereit ist, wie es für den Erfolg solcher Plattformen erforderlich wäre. Diese Diskrepanz zwischen Potenzial und tatsächlicher Nachfrage sollte bei der Weiterentwicklung entsprechender Angebote stärker berücksichtigt werden.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Kitzmann, Robert (2023) : Tauschst du schon oder suchst du noch? Kommunaler Wohnungstausch ist keine Erfolgsgeschichte. In: Forum Wohnen und Stadtentwicklung (5), S. 273–275.&lt;/p&gt; &lt;p&gt;Leiß, Birgit (2020): Wohnungstausch bei landeseigenen Wohnungsbaugesellschaften: Krasses Missverhältnis (MieterMagazin, 9/20). Online verfügbar unter &lt;a href="https://www.berliner-mieterverein.de/magazin/online/mm0920/wohnungstausch-bei-landeseigenen-wohnungsbaugesellschaften-krasses-missverhaeltnis-bei-angebot-und-nachfrage-092008a.htm"&gt;https://www.berliner-mieterverein.de/magazin/online/mm0920/wohnungstausch-bei-landeseigenen-wohnungsbaugesellschaften-krasses-missverhaeltnis-bei-angebot-und-nachfrage-092008a.htm&lt;/a&gt;&lt;/p&gt; &lt;p&gt;Melcher, Angelika (2023): Wohnungstausch. Was Sie beim Wohnungstausch beachten müssen? Online verfügbar unter &lt;a href="https://www.wiwo.de/politik/deutschland/wohnungstausch-was-sie-beim-wohnungstausch-beachten-muessen/29224158.html"&gt;https://www.wiwo.de/politik/deutschland/wohnungstausch-was-sie-beim-wohnungstausch-beachten-muessen/29224158.html&lt;/a&gt; 5 .11.2024.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Der Wohnungstausch weist aufgrund der zunehmenden Nachfrage ein Potenzial für eine weitere Verbreitung auf, was sich an der steigenden Zahl registrierter Nutzerinnen und Nutzer auf den entsprechenden Plattformen zeigt. So wurden in Jahr 2023 monatlich zwischen 6000 und 10.000 Wohnungen neu angeboten (Melcher 2023). &lt;/p&gt;&lt;p&gt;In der Praxis zeigt sich jedoch, dass trotz hoher Nachfrage bisher nur wenige Tauschprojekte realisiert wurden. Verschiedene Schwierigkeiten bei der Umsetzung solcher Tauschvorhaben können als Hemmnisse identifiziert werden. Vor allem lässt sich auf das drastische Missverhältnis von gesuchten und angebotenen Wohnungsgrößen verweisen. Insbesondere zeigt die ältere Zielgruppe eine geringe Bereitschaft zum Tausch, was vor allem auf emotionale Bindungen an die eigene Wohnung zurückzuführen ist. Zudem bietet der Wohnungstausch in angespannten Wohnungsmärkten oft nur einen begrenzten finanziellen Vorteil, während zusätzliche Kosten wie Umzug und Renovierung entstehen. Auch vermieterseitige Hürden, die Abstimmung von Mietvertragsbedingungen sowie die rechtliche Absicherung stellen weitere Herausforderungen dar (Kitzmann 2023).&lt;/p&gt;&lt;p&gt;Insgesamt zeigt sich, dass die anvisierte Zielgruppe oft nicht in dem Maße zum Wohnungstausch bereit ist, wie es für den Erfolg solcher Plattformen erforderlich wäre. Diese Diskrepanz zwischen Potenzial und tatsächlicher Nachfrage sollte bei der Weiterentwicklung entsprechender Angebote stärker berücksichtigt werden.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kitzmann, Robert (2023): Tauschst du schon oder suchst du noch? Kommunaler Wohnungstausch ist keine Erfolgsgeschichte. In: Forum Wohnen und Stadtentwicklung (5), S. 273–275.&lt;/p&gt;&lt;p&gt;Leiß, Birgit (2020): Wohnungstausch bei landeseigenen Wohnungsbaugesellschaften: Krasses Missverhältnis (MieterMagazin, 9/20). Online verfügbar unter &lt;a href="https://www.berliner-mieterverein.de/magazin/online/mm0920/wohnungstausch-bei-landeseigenen-wohnungsbaugesellschaften-krasses-missverhaeltnis-bei-angebot-und-nachfrage-092008a.htm"&gt;https://www.berliner-mieterverein.de/magazin/online/mm0920/wohnungstausch-bei-landeseigenen-wohnungsbaugesellschaften-krasses-missverhaeltnis-bei-angebot-und-nachfrage-092008a.htm&lt;/a&gt;, zuletzt aktualisiert am 02.09.2020, zuletzt geprüft am 15.11.2024.&lt;/p&gt;&lt;p&gt;Melcher, Angelika (2023): Wohnungstausch. Was Sie beim Wohnungstausch beachten müssen? Online verfügbar unter &lt;a href="https://www.wiwo.de/politik/deutschland/wohnungstausch-was-sie-beim-wohnungstausch-beachten-muessen/29224158.html"&gt;https://www.wiwo.de/politik/deutschland/wohnungstausch-was-sie-beim-wohnungstausch-beachten-muessen/29224158.html&lt;/a&gt;, zuletzt aktualisiert am 19.10.2023, zuletzt geprüft am 15.11.2024.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Energie-Sharing</t>
@@ -787,7 +784,7 @@
     <t>Mitgestaltung bei Erneuerbaren und Gebäudemaßnahmen</t>
   </si>
   <si>
-    <t>&lt;p&gt;Das Ziel des Konzepts des Energy-Sharings ist es, die dezentrale Erzeugung und den Verbrauch von erneuerbarer Energie zu fördern und dabei die lokale Gemeinschaft einzubinden. In einer typischen Energy-Sharing-Gemeinschaft in Form einer Bürgerenergiegesellschaft betreiben die Mitglieder – die aus Bürgern, Kommunen und kleinen bis mittleren Unternehmen (KMU) bestehen können – gemeinsam eine oder mehrere Erneuerbare-Energien-Anlagen, etwa Solarpanels oder Windkraftanlagen. Diese Gemeinschaften sind meist regional begrenzt. Die räumliche Begrenzung wird oft durch einen Umkreis von 50 Kilometern um die Gemeinde definiert. Die Mitglieder der Gemeinschaft können den von ihnen erzeugten Strom für den eigenen Bedarf nutzen und den überschüssigen Strom gemeinschaftlich auf dem Markt verkaufen. Sollte der eigene Bedarf nicht durch die erzeugte Energie gedeckt sein, kann zusätzlich Strom von außerhalb der Gemeinschaft bezogen werden.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Das Ziel des Konzepts des Energy-Sharings ist es, die dezentrale Erzeugung und den Verbrauch von erneuerbarer Energie zu fördern und dabei die lokale Gemeinschaft einzubinden. In einer typischen Energy-Sharing-Gemeinschaft in Form einer Bürgerenergiegesellschaft betreiben die Mitglieder – die aus Bürgern, Kommunen und kleinen bis mittleren Unternehmen (KMU) bestehen können – gemeinsam eine oder mehrere Erneuerbare-Energien-Anlagen, etwa Solarpanels oder Windkraftanlagen. Diese Gemeinschaften sind meist regional begrenzt. Die räumliche Begrenzung wird oft durch einen Umkreis von 50 Kilometern um die Gemeinde definiert. Die Mitglieder der Gemeinschaft können den von ihnen erzeugten Strom für den eigenen Bedarf nutzen und den überschüssigen Strom gemeinschaftlich auf dem Markt verkaufen. Sollte der eigene Bedarf nicht durch die erzeugte Energie gedeckt sein, kann zusätzlich Strom von außerhalb der Gemeinschaft bezogen werden. &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;EnergieSharing Bürgerwerk. E.V&lt;/li&gt;&lt;/ul&gt;</t>
@@ -799,7 +796,10 @@
     <t>&lt;ul&gt;&lt;li&gt;Bürger, Kommunen und kleine bis mittlere Unternehmen können Mitglied der Energiegenossenschaft und auch Anbieter der Flächen sein, auf denen die Erneuerbare-Energien-Anlagen errichtet werden.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die Beteiligung an einer Bürgerenergiegemeinschaft ermöglicht es auch Personen ohne Wohneigentum, an Erneuerbare-Energien-Anlagen teilzuhaben, was die Lebensqualität steigern kann.&lt;/p&gt; &lt;p&gt;Energiegenossenschaften tragen durch den Ausbau Erneuerbarer Energien insbesondere zur Umsetzung der Konsistenzstrategie bei. Als partizipative und demokratische Organisationsformen bieten sie zugleich hervorragende Voraussetzungen, um erfolgreich Suffizienz zu fördern. In einer Energiegemeinschaft agieren die Bewohner*innen gleichzeitig als Energieerzeuger* innen, -lieferant*i nnen und -verbraucher* innen. Durch diese Struktur wird eine stärkere lokale Bindung sowie ein erhöhtes Engagement für Erneuerbare Energien in der Gemeinschaft gefördert. Der Perspektivenwechsel vom passiven Konsum hin zu einer bewussten, an lokalen Bedingungen orientierten Energienutzung ist eine zentrale Voraussetzung für suffizientes Handeln (Brischke und Köhler, 2018, S. 10).&lt;/p&gt; &lt;p&gt;Darüber hinaus sind Energiegenossenschaften vielversprechende Multiplikatoren für (Energie-)Suffizienz. Auch wenn das Konzept „Suffizienz“ bislang nur von wenigen Energiegenossenschaften aktiv aufgegriffen wird, bieten sich dennoch zahlreiche Anknüpfungspunkte (Anger et al., 2022).&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die Beteiligung an einer Bürgerenergiegemeinschaft ermöglicht es auch Personen ohne Wohneigentum, an Erneuerbare-Energien-Anlagen teilzuhaben, was die Lebensqualität steigern kann.&lt;/p&gt;&lt;p&gt;Energiegenossenschaften tragen durch den Ausbau Erneuerbarer Energien insbesondere zur Umsetzung der Konsistenzstrategie bei. Als partizipative und demokratische Organisationsformen bieten sie zugleich hervorragende Voraussetzungen, um erfolgreich Suffizienz zu fördern. In einer Energiegemeinschaft agieren die Bewohner*innen gleichzeitig als Energieerzeuger*innen, -lieferant*innen und -verbraucher*innen. Durch diese Struktur wird eine stärkere lokale Bindung sowie ein erhöhtes Engagement für Erneuerbare Energien in der Gemeinschaft gefördert. Der Perspektivenwechsel vom passiven Konsum hin zu einer bewussten, an lokalen Bedingungen orientierten Energienutzung ist eine zentrale Voraussetzung für suffizientes Handeln (Brischke und Köhler, 2018, S. 10). &lt;/p&gt;&lt;p&gt;Darüber hinaus sind Energiegenossenschaften vielversprechende Multiplikatoren für (Energie-)Suffizienz. Auch wenn das Konzept „Suffizienz“ bislang nur von wenigen Energiegenossenschaften aktiv aufgegriffen wird, bieten sich dennoch zahlreiche Anknüpfungspunkte (Anger et al., 2022).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Alle &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Insbesondere weisen die Mitglieder von Energiegenossenschaften häufig ein stark ausgeprägtes Umweltbewusstsein sowie Offenheit gegenüber ressourcenschonenden Lebensstilen auf.&lt;/p&gt;</t>
@@ -808,10 +808,10 @@
     <t>&lt;p&gt;W1, W2, W3, W4&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Die Energiewende kann nur durch das Zusammenspiel der Strategien Konsistenz, Effizienz und Suffizienz erfolgreich gestaltet werden. Die Analyse verschiedener Bürgerbeteiligungsmodelle verdeutlicht, dass die verstärkte Förderung und Einbindung von Bürgerenergie in Energiesparmaßnahmen ein erhebliches Potenzial zur Aktivierung bislang ungenutzter Einsparmöglichkeiten birgt (Anger et al. 2020, Brischke und Köhler 2018).&lt;/p&gt; &lt;p&gt;Bürgerenergiegenossenschaften zeigen insgesamt vielfältige Potenziale, um die Energiewende voranzutreiben. Dies erfordert jedoch geeignete Marktrahmen und verlässliche Rahmenbedingungen, die einen wirtschaftlichen Betrieb sicherstellen (Wiesenthal 2022).&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Anger, Kathrin; Knörzer, Ulrike; Tornow, Maren; Frick, Vivian; Fülling, Julia; Schnee, Hannah (2022): Mit Suffizienz zur Energiewende. Wie Energiegenossenschaften Verbrauchsreduktion in Haushalten fördern können. Hg. v. IÖW / adelphi research gGmbH. Berlin (Schriftenreihe des IÖW, 224/22).&lt;/p&gt; &lt;p&gt;Brischke, Lars-arvid; Köhler, Thomas (2018): (Energie)-Suffizienz als Handlungsfeld und als innovatives Organisationsmodell zukünftiger Bürgerenergiegenossenschaften. In: Christian Lautermann (Hg.): Die Energiewende der Bürger stärken. Marburg: Metropolis-Verlag (Theorie der Unternehmung, Band 67).&lt;/p&gt; &lt;p&gt;Wiesenthal, Jan; Aretz, Astrid; Ouanes, Nesrine; Petrick, Kristian (2022): Energy Sharing: Eine Potenzialanalyse. Gemeinschaftlich Strom im Verteilnetz erzeugen und nutzen: Eine Studie zum Umsetzungsvorschlag im Rahmen von Artikel 22 der Erneuerbare-EnergienRichtlinie der EU. Gutachten im Auftrag des Bündnisses für Bürgerenergie e.V. Hg. v. IÖW. Berlin.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Die Energiewende kann nur durch das Zusammenspiel der Strategien Konsistenz, Effizienz und Suffizienz erfolgreich gestaltet werden. Die Analyse verschiedener Bürgerbeteiligungsmodelle verdeutlicht, dass die verstärkte Förderung und Einbindung von Bürgerenergie in Energiesparmaßnahmen ein erhebliches Potenzial zur Aktivierung bislang ungenutzter Einsparmöglichkeiten birgt (Anger et al. 2020, Brischke und Köhler 2018).&lt;/p&gt;&lt;p&gt;Bürgerenergiegenossenschaften zeigen insgesamt vielfältige Potenziale, um die Energiewende voranzutreiben. Dies erfordert jedoch geeignete Marktrahmen und verlässliche Rahmenbedingungen, die einen wirtschaftlichen Betrieb sicherstellen (Wiesenthal 2022).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Anger, Kathrin; Knörzer, Ulrike; Tornow, Maren; Frick, Vivian; Fülling, Julia; Schnee, Hannah (2022): Mit Suffizienz zur Energiewende. Wie Energiegenossenschaften Verbrauchsreduktion in Haushalten fördern können. Hg. v. IÖW / adelphi research gGmbH. Berlin (Schriftenreihe des IÖW, 224/22).&lt;/p&gt;&lt;p&gt;Brischke, Lars-arvid; Köhler, Thomas (2018): (Energie)-Suffizienz als Handlungsfeld und als innovatives Organisationsmodell zukünftiger Bürgerenergiegenossenschaften. In: Christian Lautermann (Hg.): Die Energiewende der Bürger stärken. Marburg: Metropolis-Verlag (Theorie der Unternehmung, Band 67).&lt;/p&gt;&lt;p&gt;Wiesenthal, Jan; Aretz, Astrid; Ouanes, Nesrine; Petrick, Kristian (2022): Energy Sharing: Eine Potenzialanalyse. Gemeinschaftlich Strom im Verteilnetz erzeugen und nutzen: Eine Studie zum Umsetzungsvorschlag im Rahmen von Artikel 22 der Erneuerbare-EnergienRichtlinie der EU. Gutachten im Auftrag des Bündnisses für Bürgerenergie e.V. Hg. v. IÖW. Berlin.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Leihladen und Bibliothek der Dinge</t>
@@ -823,16 +823,16 @@
     <t>&lt;p&gt;Ein Leihladen oder eine Bibliothek der Dinge ist eine gemeinnützige Einrichtung, die den Zugang zu Gebrauchsgegenständen durch Ausleihe ermöglicht, ähnlich wie traditionelle Bibliotheken Bücher verleihen. Diese Bibliotheken werden in der Regel durch Netzwerke ehrenamtlicher oder bezahlter Akteure betrieben und bieten eine nachhaltige Alternative zur individuellen Eigentumsbeschaffung. Die Gegenstände können für einen festgelegten Zeitraum ausgeliehen oder vor Ort genutzt werden, wobei in der Regel nur ein geringer Mitgliedsbeitrag erhoben wird. Ziel ist es, durch gemeinschaftliche Nutzung Ressourcen zu schonen und den ökologischen Fußabdruck zu reduzieren.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;Eine Liste der Leihläden in Deutschland ist auf der Website der Leihladen-Vernetzung unter folgendem Link zu finden:&lt;/p&gt;</t>
+    <t>&lt;p&gt;Eine Liste der Leihläden in Deutschland ist auf der Website der Leihladen-Vernetzung unter folgendem Link zu finden: &lt;a href="https://leihladen-vernetzung.de/liste/"&gt;https://leihladen-vernetzung.de/liste/&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;In der Regel werden die Leihladen von freiwilligen Initiativen angeboten.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Öffentliche Bibliothek&lt;/li&gt;&lt;/ul&gt; &lt;ul&gt;&lt;li&gt;Kommunen&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bibliotheken der Dinge tragen dazu bei, den Ressourcenverbrauch zu reduzieren, indem weniger Gegenstände individuell gekauft und stattdessen gemeinschaftlich genutzt werden. Dies reduziert den Bedarf an Neuanschaffungen und verringert die Umweltbelastung durch Produktion und Entsorgung .&lt;/p&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;Öffentliche Bibliothek&lt;/li&gt;&lt;/ul&gt;&lt;ul&gt;&lt;li&gt;Kommunen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bibliotheken der Dinge tragen dazu bei, den Ressourcenverbrauch zu reduzieren, indem weniger Gegenstände individuell gekauft und stattdessen gemeinschaftlich genutzt werden. Dies reduziert den Bedarf an Neuanschaffungen und verringert die Umweltbelastung durch Produktion und Entsorgung.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Die Anzahl der Leihläden und Bibliotheken der Dinge ist derzeit noch gering. Für eine flächendeckende Verbreitung müssen die Angebote in weiteren Städten und Quartieren ausgebaut werden. Aktuell bestehen jedoch verschiedene Hindernisse wie fehlende Ressourcen, eine geringe Bekanntheit sowie administrative Hürden, die überwunden werden müssen, um das volle Potenzial dieser Einrichtungen auszuschöpfen.&lt;/p&gt;</t>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1568,13 +1568,13 @@
         <v>93</v>
       </c>
       <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s">
         <v>94</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -1582,7 +1582,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1591,43 +1591,43 @@
         <v>73</v>
       </c>
       <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
         <v>98</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>99</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>100</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>101</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>103</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>104</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
       </c>
       <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
         <v>106</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>107</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>108</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -1635,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -1644,43 +1644,43 @@
         <v>73</v>
       </c>
       <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
         <v>111</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>112</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>113</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>114</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>115</v>
-      </c>
-      <c r="J9" t="s">
-        <v>116</v>
       </c>
       <c r="K9" t="s">
         <v>54</v>
       </c>
       <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="s">
         <v>117</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>118</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>119</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>120</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>121</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -1688,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1697,43 +1697,43 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
         <v>124</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>126</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>127</v>
-      </c>
-      <c r="I10" t="s">
-        <v>128</v>
       </c>
       <c r="J10" t="s">
         <v>54</v>
       </c>
       <c r="K10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" t="s">
         <v>129</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>130</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>131</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>132</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>133</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>134</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -1741,22 +1741,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
         <v>137</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>138</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>139</v>
-      </c>
-      <c r="G11" t="s">
-        <v>140</v>
       </c>
       <c r="H11" t="s">
         <v>54</v>
@@ -1765,28 +1765,28 @@
         <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
         <v>54</v>
       </c>
       <c r="L11" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11" t="s">
         <v>142</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>143</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>144</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>145</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>146</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -1794,52 +1794,52 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
         <v>149</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>150</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>151</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>152</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>153</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>154</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>155</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>156</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>157</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>158</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>159</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>160</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>161</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -1847,52 +1847,52 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
         <v>164</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>165</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>166</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>167</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>168</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>169</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>170</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>171</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>172</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" t="s">
         <v>173</v>
       </c>
-      <c r="O13" t="s">
-        <v>120</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>174</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -1900,52 +1900,52 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
         <v>176</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>177</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>178</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>179</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>180</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>181</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>182</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>183</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>184</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>185</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>186</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>187</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>188</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>189</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>190</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -1953,52 +1953,52 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" t="s">
         <v>192</v>
       </c>
-      <c r="C15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>193</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>194</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>195</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>196</v>
-      </c>
-      <c r="I15" t="s">
-        <v>197</v>
       </c>
       <c r="J15" t="s">
         <v>65</v>
       </c>
       <c r="K15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" t="s">
         <v>198</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>199</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>200</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
+        <v>188</v>
+      </c>
+      <c r="P15" t="s">
         <v>201</v>
       </c>
-      <c r="O15" t="s">
-        <v>189</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>202</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -2006,28 +2006,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" t="s">
         <v>204</v>
       </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>205</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>206</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>207</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>208</v>
-      </c>
-      <c r="I16" t="s">
-        <v>209</v>
       </c>
       <c r="J16" t="s">
         <v>54</v>
@@ -2036,22 +2036,22 @@
         <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M16" t="s">
         <v>29</v>
       </c>
       <c r="N16" t="s">
+        <v>210</v>
+      </c>
+      <c r="O16" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" t="s">
         <v>211</v>
       </c>
-      <c r="O16" t="s">
-        <v>189</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>212</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2059,52 +2059,52 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" t="s">
         <v>214</v>
       </c>
-      <c r="C17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>215</v>
-      </c>
-      <c r="E17" t="s">
-        <v>216</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
       </c>
       <c r="G17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" t="s">
         <v>217</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>218</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>219</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>220</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>221</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" t="s">
         <v>222</v>
       </c>
-      <c r="M17" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>223</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>224</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>225</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2112,52 +2112,52 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" t="s">
         <v>227</v>
-      </c>
-      <c r="C18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" t="s">
-        <v>228</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>
       </c>
       <c r="G18" t="s">
+        <v>228</v>
+      </c>
+      <c r="H18" t="s">
         <v>229</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>230</v>
-      </c>
-      <c r="I18" t="s">
-        <v>231</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
       </c>
       <c r="K18" t="s">
+        <v>231</v>
+      </c>
+      <c r="L18" t="s">
         <v>232</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>233</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>234</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>235</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>236</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>237</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2165,52 +2165,52 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" t="s">
         <v>239</v>
       </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>240</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>241</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>242</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>243</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>244</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>245</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>246</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>247</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>248</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
+        <v>223</v>
+      </c>
+      <c r="P19" t="s">
         <v>249</v>
       </c>
-      <c r="O19" t="s">
-        <v>224</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>250</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2218,28 +2218,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" t="s">
         <v>252</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>253</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>254</v>
-      </c>
-      <c r="E20" t="s">
-        <v>255</v>
       </c>
       <c r="F20" t="s">
         <v>54</v>
       </c>
       <c r="G20" t="s">
+        <v>255</v>
+      </c>
+      <c r="H20" t="s">
         <v>256</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>257</v>
-      </c>
-      <c r="I20" t="s">
-        <v>258</v>
       </c>
       <c r="J20" t="s">
         <v>54</v>
@@ -2248,10 +2248,10 @@
         <v>54</v>
       </c>
       <c r="L20" t="s">
+        <v>258</v>
+      </c>
+      <c r="M20" t="s">
         <v>259</v>
-      </c>
-      <c r="M20" t="s">
-        <v>29</v>
       </c>
       <c r="N20" t="s">
         <v>260</v>
